--- a/database/industries/folad/kechad/product/monthly_seprated.xlsx
+++ b/database/industries/folad/kechad/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B15B6A-4FA6-4EA4-A78B-3B7A3A5622E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7D03F0-A610-42C0-9C0A-04E5F7B0DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="AZ76" s="13">
-        <v>587979</v>
+        <v>67796</v>
       </c>
       <c r="BA76" s="13">
         <v>0</v>
@@ -10854,7 +10854,7 @@
         <v>943449</v>
       </c>
       <c r="AZ79" s="11">
-        <v>182805</v>
+        <v>227228</v>
       </c>
       <c r="BA79" s="11">
         <v>392631</v>
@@ -11011,7 +11011,7 @@
         <v>16252496</v>
       </c>
       <c r="AZ80" s="15">
-        <v>32007075</v>
+        <v>31531315</v>
       </c>
       <c r="BA80" s="15">
         <v>27899524</v>
@@ -12825,7 +12825,7 @@
         <v>16252496</v>
       </c>
       <c r="AZ94" s="15">
-        <v>32007075</v>
+        <v>31531315</v>
       </c>
       <c r="BA94" s="15">
         <v>31691572</v>
@@ -14849,7 +14849,7 @@
         <v>1806029</v>
       </c>
       <c r="AZ110" s="13">
-        <v>1070889</v>
+        <v>1331123</v>
       </c>
       <c r="BA110" s="13">
         <v>-347574</v>

--- a/database/industries/folad/kechad/product/monthly_seprated.xlsx
+++ b/database/industries/folad/kechad/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7D03F0-A610-42C0-9C0A-04E5F7B0DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD6CAA7-F7E9-4DAB-99D8-99601372EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کچاد-معدنی‌وصنعتی‌چادرملو</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1528,26 +1528,26 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>30750</v>
       </c>
       <c r="Z11" s="11">
-        <v>30750</v>
+        <v>30825</v>
       </c>
       <c r="AA11" s="11">
-        <v>30825</v>
+        <v>31575</v>
       </c>
       <c r="AB11" s="11">
-        <v>31575</v>
+        <v>31500</v>
       </c>
       <c r="AC11" s="11">
         <v>31500</v>
       </c>
       <c r="AD11" s="11">
-        <v>31500</v>
+        <v>19472</v>
       </c>
       <c r="AE11" s="11">
-        <v>19472</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="11">
         <v>0</v>
@@ -1558,11 +1558,11 @@
       <c r="AH11" s="11">
         <v>0</v>
       </c>
-      <c r="AI11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>58</v>
+      <c r="AI11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>0</v>
       </c>
       <c r="AK11" s="11">
         <v>0</v>
@@ -1570,14 +1570,14 @@
       <c r="AL11" s="11">
         <v>0</v>
       </c>
-      <c r="AM11" s="11">
-        <v>0</v>
+      <c r="AM11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>58</v>
+      <c r="AO11" s="11">
+        <v>0</v>
       </c>
       <c r="AP11" s="11">
         <v>0</v>
@@ -1687,95 +1687,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>328099</v>
       </c>
       <c r="Z12" s="13">
-        <v>328099</v>
+        <v>334795</v>
       </c>
       <c r="AA12" s="13">
-        <v>334795</v>
+        <v>341465</v>
       </c>
       <c r="AB12" s="13">
-        <v>341465</v>
+        <v>306003</v>
       </c>
       <c r="AC12" s="13">
-        <v>306003</v>
+        <v>278359</v>
       </c>
       <c r="AD12" s="13">
-        <v>278359</v>
+        <v>295020</v>
       </c>
       <c r="AE12" s="13">
-        <v>295020</v>
+        <v>329188</v>
       </c>
       <c r="AF12" s="13">
-        <v>329188</v>
+        <v>335894</v>
       </c>
       <c r="AG12" s="13">
-        <v>335894</v>
+        <v>310803</v>
       </c>
       <c r="AH12" s="13">
-        <v>310803</v>
+        <v>278428</v>
       </c>
       <c r="AI12" s="13">
-        <v>278428</v>
+        <v>343838</v>
       </c>
       <c r="AJ12" s="13">
-        <v>343838</v>
+        <v>68654</v>
       </c>
       <c r="AK12" s="13">
-        <v>68654</v>
+        <v>286498</v>
       </c>
       <c r="AL12" s="13">
-        <v>286498</v>
+        <v>367954</v>
       </c>
       <c r="AM12" s="13">
-        <v>367954</v>
+        <v>368522</v>
       </c>
       <c r="AN12" s="13">
-        <v>368522</v>
+        <v>370603</v>
       </c>
       <c r="AO12" s="13">
-        <v>370603</v>
+        <v>344629</v>
       </c>
       <c r="AP12" s="13">
-        <v>344629</v>
+        <v>334942</v>
       </c>
       <c r="AQ12" s="13">
-        <v>334942</v>
+        <v>388118</v>
       </c>
       <c r="AR12" s="13">
-        <v>388118</v>
+        <v>332414</v>
       </c>
       <c r="AS12" s="13">
-        <v>332414</v>
+        <v>324997</v>
       </c>
       <c r="AT12" s="13">
-        <v>324997</v>
+        <v>393264</v>
       </c>
       <c r="AU12" s="13">
-        <v>393264</v>
+        <v>395162</v>
       </c>
       <c r="AV12" s="13">
-        <v>395162</v>
+        <v>396524</v>
       </c>
       <c r="AW12" s="13">
-        <v>396524</v>
+        <v>690</v>
       </c>
       <c r="AX12" s="13">
-        <v>690</v>
+        <v>250670</v>
       </c>
       <c r="AY12" s="13">
-        <v>250670</v>
+        <v>393617</v>
       </c>
       <c r="AZ12" s="13">
-        <v>393617</v>
+        <v>381018</v>
       </c>
       <c r="BA12" s="13">
-        <v>381018</v>
+        <v>374932</v>
       </c>
       <c r="BB12" s="13">
-        <v>374932</v>
+        <v>366624</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1846,95 +1846,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>890890</v>
       </c>
       <c r="Z13" s="11">
-        <v>890890</v>
+        <v>957594</v>
       </c>
       <c r="AA13" s="11">
-        <v>957594</v>
+        <v>795743</v>
       </c>
       <c r="AB13" s="11">
-        <v>795743</v>
+        <v>859658</v>
       </c>
       <c r="AC13" s="11">
-        <v>859658</v>
+        <v>1003908</v>
       </c>
       <c r="AD13" s="11">
-        <v>1003908</v>
+        <v>883640</v>
       </c>
       <c r="AE13" s="11">
-        <v>883640</v>
+        <v>886252</v>
       </c>
       <c r="AF13" s="11">
-        <v>886252</v>
+        <v>895984</v>
       </c>
       <c r="AG13" s="11">
-        <v>895984</v>
+        <v>879248</v>
       </c>
       <c r="AH13" s="11">
-        <v>879248</v>
+        <v>862967</v>
       </c>
       <c r="AI13" s="11">
-        <v>862967</v>
+        <v>925235</v>
       </c>
       <c r="AJ13" s="11">
-        <v>925235</v>
+        <v>1039936</v>
       </c>
       <c r="AK13" s="11">
-        <v>1039936</v>
+        <v>928134</v>
       </c>
       <c r="AL13" s="11">
-        <v>928134</v>
+        <v>919854</v>
       </c>
       <c r="AM13" s="11">
-        <v>919854</v>
+        <v>940094</v>
       </c>
       <c r="AN13" s="11">
-        <v>940094</v>
+        <v>896262</v>
       </c>
       <c r="AO13" s="11">
-        <v>896262</v>
+        <v>945244</v>
       </c>
       <c r="AP13" s="11">
-        <v>945244</v>
+        <v>885132</v>
       </c>
       <c r="AQ13" s="11">
-        <v>885132</v>
+        <v>877087</v>
       </c>
       <c r="AR13" s="11">
-        <v>877087</v>
+        <v>925572</v>
       </c>
       <c r="AS13" s="11">
-        <v>925572</v>
+        <v>876760</v>
       </c>
       <c r="AT13" s="11">
-        <v>876760</v>
+        <v>916434</v>
       </c>
       <c r="AU13" s="11">
-        <v>916434</v>
+        <v>970646</v>
       </c>
       <c r="AV13" s="11">
-        <v>970646</v>
+        <v>794876</v>
       </c>
       <c r="AW13" s="11">
-        <v>794876</v>
+        <v>653562</v>
       </c>
       <c r="AX13" s="11">
-        <v>653562</v>
+        <v>790247</v>
       </c>
       <c r="AY13" s="11">
-        <v>790247</v>
+        <v>767240</v>
       </c>
       <c r="AZ13" s="11">
-        <v>767240</v>
+        <v>863908</v>
       </c>
       <c r="BA13" s="11">
-        <v>863908</v>
+        <v>867784</v>
       </c>
       <c r="BB13" s="11">
-        <v>867784</v>
+        <v>934499</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2005,95 +2005,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>3822</v>
       </c>
       <c r="Z14" s="13">
-        <v>3822</v>
+        <v>9439</v>
       </c>
       <c r="AA14" s="13">
-        <v>9439</v>
+        <v>5730</v>
       </c>
       <c r="AB14" s="13">
-        <v>5730</v>
+        <v>6341</v>
       </c>
       <c r="AC14" s="13">
-        <v>6341</v>
+        <v>7281</v>
       </c>
       <c r="AD14" s="13">
-        <v>7281</v>
+        <v>2632</v>
       </c>
       <c r="AE14" s="13">
-        <v>2632</v>
+        <v>8109</v>
       </c>
       <c r="AF14" s="13">
-        <v>8109</v>
+        <v>4435</v>
       </c>
       <c r="AG14" s="13">
-        <v>4435</v>
+        <v>3983</v>
       </c>
       <c r="AH14" s="13">
-        <v>3983</v>
+        <v>843</v>
       </c>
       <c r="AI14" s="13">
-        <v>843</v>
+        <v>4668</v>
       </c>
       <c r="AJ14" s="13">
-        <v>4668</v>
+        <v>10867</v>
       </c>
       <c r="AK14" s="13">
-        <v>10867</v>
+        <v>10227</v>
       </c>
       <c r="AL14" s="13">
-        <v>10227</v>
-      </c>
-      <c r="AM14" s="13">
         <v>9582</v>
       </c>
-      <c r="AN14" s="13" t="s">
-        <v>58</v>
+      <c r="AM14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>2544</v>
       </c>
       <c r="AO14" s="13">
-        <v>2544</v>
+        <v>3773</v>
       </c>
       <c r="AP14" s="13">
-        <v>3773</v>
+        <v>1597</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1597</v>
+        <v>5913</v>
       </c>
       <c r="AR14" s="13">
-        <v>5913</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="13">
-        <v>0</v>
+        <v>30998</v>
       </c>
       <c r="AT14" s="13">
-        <v>30998</v>
+        <v>3352</v>
       </c>
       <c r="AU14" s="13">
-        <v>3352</v>
+        <v>655</v>
       </c>
       <c r="AV14" s="13">
-        <v>655</v>
+        <v>6437</v>
       </c>
       <c r="AW14" s="13">
-        <v>6437</v>
+        <v>4238</v>
       </c>
       <c r="AX14" s="13">
-        <v>4238</v>
+        <v>5858</v>
       </c>
       <c r="AY14" s="13">
-        <v>5858</v>
+        <v>5666</v>
       </c>
       <c r="AZ14" s="13">
-        <v>5666</v>
+        <v>5809</v>
       </c>
       <c r="BA14" s="13">
-        <v>5809</v>
+        <v>4339</v>
       </c>
       <c r="BB14" s="13">
-        <v>5765</v>
+        <v>15419</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2164,95 +2164,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>73984</v>
       </c>
       <c r="Z15" s="11">
-        <v>73984</v>
+        <v>65365</v>
       </c>
       <c r="AA15" s="11">
-        <v>65365</v>
+        <v>85628</v>
       </c>
       <c r="AB15" s="11">
-        <v>85628</v>
+        <v>78693</v>
       </c>
       <c r="AC15" s="11">
-        <v>78693</v>
+        <v>94386</v>
       </c>
       <c r="AD15" s="11">
-        <v>94386</v>
+        <v>93249</v>
       </c>
       <c r="AE15" s="11">
-        <v>93249</v>
+        <v>87025</v>
       </c>
       <c r="AF15" s="11">
-        <v>87025</v>
+        <v>95122</v>
       </c>
       <c r="AG15" s="11">
-        <v>95122</v>
+        <v>97881</v>
       </c>
       <c r="AH15" s="11">
-        <v>97881</v>
+        <v>105435</v>
       </c>
       <c r="AI15" s="11">
-        <v>105435</v>
+        <v>99174</v>
       </c>
       <c r="AJ15" s="11">
-        <v>99174</v>
+        <v>101603</v>
       </c>
       <c r="AK15" s="11">
-        <v>101603</v>
+        <v>49773</v>
       </c>
       <c r="AL15" s="11">
-        <v>49773</v>
+        <v>36472</v>
       </c>
       <c r="AM15" s="11">
-        <v>36472</v>
+        <v>63803</v>
       </c>
       <c r="AN15" s="11">
-        <v>63803</v>
+        <v>94137</v>
       </c>
       <c r="AO15" s="11">
-        <v>94137</v>
+        <v>101456</v>
       </c>
       <c r="AP15" s="11">
-        <v>101456</v>
+        <v>107576</v>
       </c>
       <c r="AQ15" s="11">
-        <v>107576</v>
+        <v>102471</v>
       </c>
       <c r="AR15" s="11">
-        <v>102471</v>
+        <v>88471</v>
       </c>
       <c r="AS15" s="11">
-        <v>88471</v>
+        <v>104427</v>
       </c>
       <c r="AT15" s="11">
-        <v>104427</v>
+        <v>108137</v>
       </c>
       <c r="AU15" s="11">
-        <v>108137</v>
+        <v>112234</v>
       </c>
       <c r="AV15" s="11">
-        <v>112234</v>
+        <v>101579</v>
       </c>
       <c r="AW15" s="11">
-        <v>101579</v>
+        <v>95146</v>
       </c>
       <c r="AX15" s="11">
-        <v>95146</v>
+        <v>63630</v>
       </c>
       <c r="AY15" s="11">
-        <v>63630</v>
+        <v>110792</v>
       </c>
       <c r="AZ15" s="11">
-        <v>110792</v>
+        <v>106024</v>
       </c>
       <c r="BA15" s="11">
-        <v>106024</v>
+        <v>107008</v>
       </c>
       <c r="BB15" s="11">
-        <v>107008</v>
+        <v>103816</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2323,95 +2323,95 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>138241</v>
       </c>
       <c r="Z16" s="13">
-        <v>138241</v>
+        <v>147473</v>
       </c>
       <c r="AA16" s="13">
-        <v>147473</v>
+        <v>125260</v>
       </c>
       <c r="AB16" s="13">
-        <v>125260</v>
+        <v>76829</v>
       </c>
       <c r="AC16" s="13">
-        <v>76829</v>
+        <v>144233</v>
       </c>
       <c r="AD16" s="13">
-        <v>144233</v>
+        <v>140137</v>
       </c>
       <c r="AE16" s="13">
-        <v>140137</v>
+        <v>125206</v>
       </c>
       <c r="AF16" s="13">
-        <v>125206</v>
+        <v>140848</v>
       </c>
       <c r="AG16" s="13">
-        <v>140848</v>
+        <v>143235</v>
       </c>
       <c r="AH16" s="13">
-        <v>143235</v>
+        <v>155877</v>
       </c>
       <c r="AI16" s="13">
-        <v>155877</v>
+        <v>135308</v>
       </c>
       <c r="AJ16" s="13">
-        <v>135308</v>
+        <v>155380</v>
       </c>
       <c r="AK16" s="13">
-        <v>155380</v>
+        <v>111591</v>
       </c>
       <c r="AL16" s="13">
-        <v>111591</v>
+        <v>137296</v>
       </c>
       <c r="AM16" s="13">
-        <v>137296</v>
+        <v>119155</v>
       </c>
       <c r="AN16" s="13">
-        <v>119155</v>
+        <v>50166</v>
       </c>
       <c r="AO16" s="13">
-        <v>50166</v>
+        <v>134534</v>
       </c>
       <c r="AP16" s="13">
-        <v>134534</v>
+        <v>134942</v>
       </c>
       <c r="AQ16" s="13">
-        <v>134942</v>
+        <v>132751</v>
       </c>
       <c r="AR16" s="13">
-        <v>132751</v>
+        <v>55848</v>
       </c>
       <c r="AS16" s="13">
-        <v>55848</v>
+        <v>141888</v>
       </c>
       <c r="AT16" s="13">
-        <v>141888</v>
+        <v>156041</v>
       </c>
       <c r="AU16" s="13">
-        <v>156041</v>
+        <v>156503</v>
       </c>
       <c r="AV16" s="13">
-        <v>156503</v>
+        <v>152322</v>
       </c>
       <c r="AW16" s="13">
-        <v>152322</v>
+        <v>155946</v>
       </c>
       <c r="AX16" s="13">
-        <v>155946</v>
+        <v>144644</v>
       </c>
       <c r="AY16" s="13">
-        <v>144644</v>
+        <v>157360</v>
       </c>
       <c r="AZ16" s="13">
-        <v>157360</v>
+        <v>152513</v>
       </c>
       <c r="BA16" s="13">
-        <v>152513</v>
+        <v>143914</v>
       </c>
       <c r="BB16" s="13">
-        <v>143914</v>
+        <v>113966</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2482,8 +2482,8 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>0</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -2512,14 +2512,14 @@
       <c r="AH17" s="11">
         <v>0</v>
       </c>
-      <c r="AI17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="11">
-        <v>0</v>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL17" s="11" t="s">
         <v>58</v>
@@ -2539,8 +2539,8 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
       </c>
       <c r="AS17" s="11">
         <v>0</v>
@@ -2710,8 +2710,8 @@
       <c r="AU18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV18" s="13" t="s">
-        <v>58</v>
+      <c r="AV18" s="13">
+        <v>0</v>
       </c>
       <c r="AW18" s="13">
         <v>0</v>
@@ -2800,8 +2800,8 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>0</v>
       </c>
       <c r="Z19" s="11">
         <v>0</v>
@@ -2830,14 +2830,14 @@
       <c r="AH19" s="11">
         <v>0</v>
       </c>
-      <c r="AI19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>0</v>
+      <c r="AI19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL19" s="11" t="s">
         <v>58</v>
@@ -2857,8 +2857,8 @@
       <c r="AQ19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="11" t="s">
-        <v>58</v>
+      <c r="AR19" s="11">
+        <v>0</v>
       </c>
       <c r="AS19" s="11">
         <v>0</v>
@@ -2959,8 +2959,8 @@
       <c r="X20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
+      <c r="Y20" s="13">
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
         <v>0</v>
@@ -2989,14 +2989,14 @@
       <c r="AH20" s="13">
         <v>0</v>
       </c>
-      <c r="AI20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>0</v>
+      <c r="AI20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL20" s="13" t="s">
         <v>58</v>
@@ -3016,14 +3016,14 @@
       <c r="AQ20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>58</v>
+      <c r="AR20" s="13">
+        <v>0</v>
       </c>
       <c r="AS20" s="13">
-        <v>0</v>
+        <v>47674</v>
       </c>
       <c r="AT20" s="13">
-        <v>47674</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="13">
         <v>0</v>
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="AX20" s="13">
-        <v>0</v>
+        <v>16366</v>
       </c>
       <c r="AY20" s="13">
-        <v>16366</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="13">
         <v>0</v>
       </c>
       <c r="BA20" s="13">
-        <v>0</v>
+        <v>7480</v>
       </c>
       <c r="BB20" s="13">
-        <v>0</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3118,8 +3118,8 @@
       <c r="X21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>58</v>
+      <c r="Y21" s="11">
+        <v>0</v>
       </c>
       <c r="Z21" s="11">
         <v>0</v>
@@ -3143,16 +3143,16 @@
         <v>0</v>
       </c>
       <c r="AG21" s="11">
-        <v>0</v>
+        <v>281933</v>
       </c>
       <c r="AH21" s="11">
-        <v>281933</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>0</v>
       </c>
       <c r="AK21" s="11">
         <v>0</v>
@@ -3160,8 +3160,8 @@
       <c r="AL21" s="11">
         <v>0</v>
       </c>
-      <c r="AM21" s="11">
-        <v>0</v>
+      <c r="AM21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN21" s="11" t="s">
         <v>58</v>
@@ -3169,44 +3169,44 @@
       <c r="AO21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP21" s="11" t="s">
-        <v>58</v>
+      <c r="AP21" s="11">
+        <v>0</v>
       </c>
       <c r="AQ21" s="11">
-        <v>0</v>
+        <v>153085</v>
       </c>
       <c r="AR21" s="11">
-        <v>153085</v>
+        <v>290605</v>
       </c>
       <c r="AS21" s="11">
-        <v>290605</v>
+        <v>280405</v>
       </c>
       <c r="AT21" s="11">
-        <v>280405</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="11">
-        <v>0</v>
+        <v>537011</v>
       </c>
       <c r="AV21" s="11">
-        <v>537011</v>
+        <v>288700</v>
       </c>
       <c r="AW21" s="11">
-        <v>288700</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="11">
-        <v>0</v>
+        <v>593728</v>
       </c>
       <c r="AY21" s="11">
-        <v>593728</v>
+        <v>295882</v>
       </c>
       <c r="AZ21" s="11">
-        <v>295882</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="11">
-        <v>286743</v>
+        <v>290462</v>
       </c>
       <c r="BB21" s="11">
-        <v>290462</v>
+        <v>289741</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3276,94 +3276,94 @@
         <v>0</v>
       </c>
       <c r="Y22" s="15">
-        <v>0</v>
+        <v>1465786</v>
       </c>
       <c r="Z22" s="15">
-        <v>1465786</v>
+        <v>1545491</v>
       </c>
       <c r="AA22" s="15">
-        <v>1545491</v>
+        <v>1385401</v>
       </c>
       <c r="AB22" s="15">
-        <v>1385401</v>
+        <v>1359024</v>
       </c>
       <c r="AC22" s="15">
-        <v>1359024</v>
+        <v>1559667</v>
       </c>
       <c r="AD22" s="15">
-        <v>1559667</v>
+        <v>1434150</v>
       </c>
       <c r="AE22" s="15">
-        <v>1434150</v>
+        <v>1435780</v>
       </c>
       <c r="AF22" s="15">
-        <v>1435780</v>
+        <v>1472283</v>
       </c>
       <c r="AG22" s="15">
-        <v>1472283</v>
+        <v>1717083</v>
       </c>
       <c r="AH22" s="15">
-        <v>1717083</v>
+        <v>1403550</v>
       </c>
       <c r="AI22" s="15">
-        <v>1403550</v>
+        <v>1508223</v>
       </c>
       <c r="AJ22" s="15">
-        <v>1508223</v>
+        <v>1376440</v>
       </c>
       <c r="AK22" s="15">
-        <v>1376440</v>
+        <v>1386223</v>
       </c>
       <c r="AL22" s="15">
-        <v>1386223</v>
+        <v>1471158</v>
       </c>
       <c r="AM22" s="15">
-        <v>1471158</v>
+        <v>1491574</v>
       </c>
       <c r="AN22" s="15">
-        <v>1491574</v>
+        <v>1413712</v>
       </c>
       <c r="AO22" s="15">
-        <v>1413712</v>
+        <v>1529636</v>
       </c>
       <c r="AP22" s="15">
-        <v>1529636</v>
+        <v>1464189</v>
       </c>
       <c r="AQ22" s="15">
-        <v>1464189</v>
+        <v>1659425</v>
       </c>
       <c r="AR22" s="15">
-        <v>1659425</v>
+        <v>1692910</v>
       </c>
       <c r="AS22" s="15">
-        <v>1692910</v>
+        <v>1807149</v>
       </c>
       <c r="AT22" s="15">
-        <v>1807149</v>
+        <v>1577228</v>
       </c>
       <c r="AU22" s="15">
-        <v>1577228</v>
+        <v>2172211</v>
       </c>
       <c r="AV22" s="15">
-        <v>2172211</v>
+        <v>1740438</v>
       </c>
       <c r="AW22" s="15">
-        <v>1740438</v>
+        <v>909582</v>
       </c>
       <c r="AX22" s="15">
-        <v>909582</v>
+        <v>1865143</v>
       </c>
       <c r="AY22" s="15">
-        <v>1865143</v>
+        <v>1730557</v>
       </c>
       <c r="AZ22" s="15">
-        <v>1730557</v>
+        <v>1509272</v>
       </c>
       <c r="BA22" s="15">
-        <v>1796015</v>
+        <v>1795919</v>
       </c>
       <c r="BB22" s="15">
-        <v>1789865</v>
+        <v>1825756</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3500,8 +3500,8 @@
       <c r="AA24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="11" t="s">
-        <v>58</v>
+      <c r="AB24" s="11">
+        <v>0</v>
       </c>
       <c r="AC24" s="11">
         <v>0</v>
@@ -3521,8 +3521,8 @@
       <c r="AH24" s="11">
         <v>0</v>
       </c>
-      <c r="AI24" s="11">
-        <v>0</v>
+      <c r="AI24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ24" s="11" t="s">
         <v>58</v>
@@ -3548,14 +3548,14 @@
       <c r="AQ24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR24" s="11" t="s">
-        <v>58</v>
+      <c r="AR24" s="11">
+        <v>0</v>
       </c>
       <c r="AS24" s="11">
         <v>0</v>
       </c>
-      <c r="AT24" s="11">
-        <v>0</v>
+      <c r="AT24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU24" s="11" t="s">
         <v>58</v>
@@ -3650,8 +3650,8 @@
       <c r="X25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="13" t="s">
-        <v>58</v>
+      <c r="Y25" s="13">
+        <v>0</v>
       </c>
       <c r="Z25" s="13">
         <v>0</v>
@@ -3659,8 +3659,8 @@
       <c r="AA25" s="13">
         <v>0</v>
       </c>
-      <c r="AB25" s="13">
-        <v>0</v>
+      <c r="AB25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC25" s="13" t="s">
         <v>58</v>
@@ -3677,11 +3677,11 @@
       <c r="AG25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI25" s="13">
-        <v>0</v>
+      <c r="AH25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ25" s="13" t="s">
         <v>58</v>
@@ -3707,14 +3707,14 @@
       <c r="AQ25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="13" t="s">
-        <v>58</v>
+      <c r="AR25" s="13">
+        <v>0</v>
       </c>
       <c r="AS25" s="13">
         <v>0</v>
       </c>
-      <c r="AT25" s="13">
-        <v>0</v>
+      <c r="AT25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU25" s="13" t="s">
         <v>58</v>
@@ -3809,8 +3809,8 @@
       <c r="X26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="11" t="s">
-        <v>58</v>
+      <c r="Y26" s="11">
+        <v>0</v>
       </c>
       <c r="Z26" s="11">
         <v>0</v>
@@ -3839,8 +3839,8 @@
       <c r="AH26" s="11">
         <v>0</v>
       </c>
-      <c r="AI26" s="11">
-        <v>0</v>
+      <c r="AI26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ26" s="11" t="s">
         <v>58</v>
@@ -3866,8 +3866,8 @@
       <c r="AQ26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR26" s="11" t="s">
-        <v>58</v>
+      <c r="AR26" s="11">
+        <v>0</v>
       </c>
       <c r="AS26" s="11">
         <v>0</v>
@@ -3977,8 +3977,8 @@
       <c r="AA27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB27" s="13" t="s">
-        <v>58</v>
+      <c r="AB27" s="13">
+        <v>0</v>
       </c>
       <c r="AC27" s="13">
         <v>0</v>
@@ -3995,8 +3995,8 @@
       <c r="AG27" s="13">
         <v>0</v>
       </c>
-      <c r="AH27" s="13">
-        <v>0</v>
+      <c r="AH27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI27" s="13" t="s">
         <v>58</v>
@@ -4498,8 +4498,8 @@
       <c r="X31" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="15" t="s">
-        <v>58</v>
+      <c r="Y31" s="15">
+        <v>0</v>
       </c>
       <c r="Z31" s="15">
         <v>0</v>
@@ -4656,94 +4656,94 @@
         <v>0</v>
       </c>
       <c r="Y32" s="17">
-        <v>0</v>
+        <v>1465786</v>
       </c>
       <c r="Z32" s="17">
-        <v>1465786</v>
+        <v>1545491</v>
       </c>
       <c r="AA32" s="17">
-        <v>1545491</v>
+        <v>1385401</v>
       </c>
       <c r="AB32" s="17">
-        <v>1385401</v>
+        <v>1359024</v>
       </c>
       <c r="AC32" s="17">
-        <v>1359024</v>
+        <v>1559667</v>
       </c>
       <c r="AD32" s="17">
-        <v>1559667</v>
+        <v>1434150</v>
       </c>
       <c r="AE32" s="17">
-        <v>1434150</v>
+        <v>1435780</v>
       </c>
       <c r="AF32" s="17">
-        <v>1435780</v>
+        <v>1472283</v>
       </c>
       <c r="AG32" s="17">
-        <v>1472283</v>
+        <v>1717083</v>
       </c>
       <c r="AH32" s="17">
-        <v>1717083</v>
+        <v>1403550</v>
       </c>
       <c r="AI32" s="17">
-        <v>1403550</v>
+        <v>1508223</v>
       </c>
       <c r="AJ32" s="17">
-        <v>1508223</v>
+        <v>1376440</v>
       </c>
       <c r="AK32" s="17">
-        <v>1376440</v>
+        <v>1386223</v>
       </c>
       <c r="AL32" s="17">
-        <v>1386223</v>
+        <v>1471158</v>
       </c>
       <c r="AM32" s="17">
-        <v>1471158</v>
+        <v>1491574</v>
       </c>
       <c r="AN32" s="17">
-        <v>1491574</v>
+        <v>1413712</v>
       </c>
       <c r="AO32" s="17">
-        <v>1413712</v>
+        <v>1529636</v>
       </c>
       <c r="AP32" s="17">
-        <v>1529636</v>
+        <v>1464189</v>
       </c>
       <c r="AQ32" s="17">
-        <v>1464189</v>
+        <v>1659425</v>
       </c>
       <c r="AR32" s="17">
-        <v>1659425</v>
+        <v>1692910</v>
       </c>
       <c r="AS32" s="17">
-        <v>1692910</v>
+        <v>1807149</v>
       </c>
       <c r="AT32" s="17">
-        <v>1807149</v>
+        <v>1577228</v>
       </c>
       <c r="AU32" s="17">
-        <v>1577228</v>
+        <v>2172211</v>
       </c>
       <c r="AV32" s="17">
-        <v>2172211</v>
+        <v>1740438</v>
       </c>
       <c r="AW32" s="17">
-        <v>1740438</v>
+        <v>909582</v>
       </c>
       <c r="AX32" s="17">
-        <v>909582</v>
+        <v>1865143</v>
       </c>
       <c r="AY32" s="17">
-        <v>1865143</v>
+        <v>1730557</v>
       </c>
       <c r="AZ32" s="17">
-        <v>1730557</v>
+        <v>1509272</v>
       </c>
       <c r="BA32" s="17">
-        <v>1796015</v>
+        <v>1795919</v>
       </c>
       <c r="BB32" s="17">
-        <v>1789865</v>
+        <v>1825756</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -5248,29 +5248,29 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>0</v>
       </c>
       <c r="Z39" s="11">
-        <v>0</v>
+        <v>58320</v>
       </c>
       <c r="AA39" s="11">
-        <v>58320</v>
+        <v>38153</v>
       </c>
       <c r="AB39" s="11">
-        <v>38153</v>
+        <v>20777</v>
       </c>
       <c r="AC39" s="11">
-        <v>20777</v>
+        <v>29227</v>
       </c>
       <c r="AD39" s="11">
-        <v>29227</v>
+        <v>12631</v>
       </c>
       <c r="AE39" s="11">
-        <v>12631</v>
+        <v>37367</v>
       </c>
       <c r="AF39" s="11">
-        <v>37367</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="11">
         <v>0</v>
@@ -5278,8 +5278,8 @@
       <c r="AH39" s="11">
         <v>0</v>
       </c>
-      <c r="AI39" s="11">
-        <v>0</v>
+      <c r="AI39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ39" s="11" t="s">
         <v>58</v>
@@ -5293,23 +5293,23 @@
       <c r="AM39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN39" s="11" t="s">
-        <v>58</v>
+      <c r="AN39" s="11">
+        <v>23</v>
       </c>
       <c r="AO39" s="11">
-        <v>23</v>
+        <v>3000</v>
       </c>
       <c r="AP39" s="11">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="11">
-        <v>0</v>
+        <v>3011</v>
       </c>
       <c r="AR39" s="11">
-        <v>3011</v>
+        <v>-6</v>
       </c>
       <c r="AS39" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="11">
         <v>0</v>
@@ -5407,95 +5407,95 @@
       <c r="X40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>58</v>
+      <c r="Y40" s="13">
+        <v>105230</v>
       </c>
       <c r="Z40" s="13">
-        <v>105230</v>
+        <v>91665</v>
       </c>
       <c r="AA40" s="13">
-        <v>91665</v>
+        <v>122578</v>
       </c>
       <c r="AB40" s="13">
-        <v>122578</v>
+        <v>167229</v>
       </c>
       <c r="AC40" s="13">
-        <v>167229</v>
+        <v>134104</v>
       </c>
       <c r="AD40" s="13">
-        <v>134104</v>
+        <v>108748</v>
       </c>
       <c r="AE40" s="13">
-        <v>108748</v>
+        <v>140237</v>
       </c>
       <c r="AF40" s="13">
-        <v>140237</v>
+        <v>154133</v>
       </c>
       <c r="AG40" s="13">
-        <v>154133</v>
+        <v>149185</v>
       </c>
       <c r="AH40" s="13">
-        <v>149185</v>
+        <v>84707</v>
       </c>
       <c r="AI40" s="13">
-        <v>84707</v>
+        <v>69710</v>
       </c>
       <c r="AJ40" s="13">
-        <v>69710</v>
+        <v>49780</v>
       </c>
       <c r="AK40" s="13">
-        <v>49780</v>
+        <v>37790</v>
       </c>
       <c r="AL40" s="13">
-        <v>37790</v>
+        <v>173871</v>
       </c>
       <c r="AM40" s="13">
-        <v>173871</v>
+        <v>166349</v>
       </c>
       <c r="AN40" s="13">
-        <v>166349</v>
+        <v>254035</v>
       </c>
       <c r="AO40" s="13">
-        <v>254035</v>
+        <v>185338</v>
       </c>
       <c r="AP40" s="13">
-        <v>185338</v>
+        <v>158771</v>
       </c>
       <c r="AQ40" s="13">
-        <v>158771</v>
+        <v>173801</v>
       </c>
       <c r="AR40" s="13">
-        <v>173801</v>
+        <v>247192</v>
       </c>
       <c r="AS40" s="13">
-        <v>247192</v>
+        <v>200717</v>
       </c>
       <c r="AT40" s="13">
-        <v>200717</v>
+        <v>204234</v>
       </c>
       <c r="AU40" s="13">
-        <v>204234</v>
+        <v>145789</v>
       </c>
       <c r="AV40" s="13">
-        <v>145789</v>
+        <v>91838</v>
       </c>
       <c r="AW40" s="13">
-        <v>91838</v>
+        <v>42626</v>
       </c>
       <c r="AX40" s="13">
-        <v>42626</v>
+        <v>111900</v>
       </c>
       <c r="AY40" s="13">
-        <v>111900</v>
+        <v>150587</v>
       </c>
       <c r="AZ40" s="13">
-        <v>150587</v>
+        <v>145564</v>
       </c>
       <c r="BA40" s="13">
-        <v>145564</v>
+        <v>152661</v>
       </c>
       <c r="BB40" s="13">
-        <v>152661</v>
+        <v>78987</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5566,95 +5566,95 @@
       <c r="X41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
+      <c r="Y41" s="11">
+        <v>445515</v>
       </c>
       <c r="Z41" s="11">
-        <v>445515</v>
+        <v>438003</v>
       </c>
       <c r="AA41" s="11">
-        <v>438003</v>
+        <v>529527</v>
       </c>
       <c r="AB41" s="11">
-        <v>529527</v>
+        <v>651090</v>
       </c>
       <c r="AC41" s="11">
-        <v>651090</v>
+        <v>680662</v>
       </c>
       <c r="AD41" s="11">
-        <v>680662</v>
+        <v>660912</v>
       </c>
       <c r="AE41" s="11">
-        <v>660912</v>
+        <v>685654</v>
       </c>
       <c r="AF41" s="11">
-        <v>685654</v>
+        <v>818316</v>
       </c>
       <c r="AG41" s="11">
-        <v>818316</v>
+        <v>731218</v>
       </c>
       <c r="AH41" s="11">
-        <v>731218</v>
+        <v>694298</v>
       </c>
       <c r="AI41" s="11">
-        <v>694298</v>
+        <v>702417</v>
       </c>
       <c r="AJ41" s="11">
-        <v>702417</v>
+        <v>729397</v>
       </c>
       <c r="AK41" s="11">
-        <v>729397</v>
+        <v>730469</v>
       </c>
       <c r="AL41" s="11">
-        <v>730469</v>
+        <v>688770</v>
       </c>
       <c r="AM41" s="11">
-        <v>688770</v>
+        <v>708142</v>
       </c>
       <c r="AN41" s="11">
-        <v>708142</v>
+        <v>528007</v>
       </c>
       <c r="AO41" s="11">
-        <v>528007</v>
+        <v>570551</v>
       </c>
       <c r="AP41" s="11">
-        <v>570551</v>
+        <v>611278</v>
       </c>
       <c r="AQ41" s="11">
-        <v>611278</v>
+        <v>569298</v>
       </c>
       <c r="AR41" s="11">
-        <v>569298</v>
+        <v>602378</v>
       </c>
       <c r="AS41" s="11">
-        <v>602378</v>
+        <v>513064</v>
       </c>
       <c r="AT41" s="11">
-        <v>513064</v>
+        <v>562918</v>
       </c>
       <c r="AU41" s="11">
-        <v>562918</v>
+        <v>500010</v>
       </c>
       <c r="AV41" s="11">
-        <v>500010</v>
+        <v>624784</v>
       </c>
       <c r="AW41" s="11">
-        <v>624784</v>
+        <v>624301</v>
       </c>
       <c r="AX41" s="11">
-        <v>624301</v>
+        <v>445033</v>
       </c>
       <c r="AY41" s="11">
-        <v>445033</v>
+        <v>517851</v>
       </c>
       <c r="AZ41" s="11">
-        <v>517851</v>
+        <v>491151</v>
       </c>
       <c r="BA41" s="11">
-        <v>491151</v>
+        <v>616125</v>
       </c>
       <c r="BB41" s="11">
-        <v>464380</v>
+        <v>356312</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5725,95 +5725,95 @@
       <c r="X42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="13" t="s">
-        <v>58</v>
+      <c r="Y42" s="13">
+        <v>7140</v>
       </c>
       <c r="Z42" s="13">
-        <v>7140</v>
+        <v>19921</v>
       </c>
       <c r="AA42" s="13">
-        <v>19921</v>
+        <v>2349</v>
       </c>
       <c r="AB42" s="13">
-        <v>2349</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="13">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="AD42" s="13">
-        <v>1119</v>
+        <v>6014</v>
       </c>
       <c r="AE42" s="13">
-        <v>6014</v>
+        <v>12817</v>
       </c>
       <c r="AF42" s="13">
-        <v>12817</v>
+        <v>1947</v>
       </c>
       <c r="AG42" s="13">
-        <v>1947</v>
+        <v>810</v>
       </c>
       <c r="AH42" s="13">
-        <v>810</v>
+        <v>664</v>
       </c>
       <c r="AI42" s="13">
-        <v>664</v>
-      </c>
-      <c r="AJ42" s="13">
         <v>22805</v>
       </c>
-      <c r="AK42" s="13" t="s">
-        <v>58</v>
+      <c r="AJ42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK42" s="13">
+        <v>9940</v>
       </c>
       <c r="AL42" s="13">
-        <v>9940</v>
+        <v>1243</v>
       </c>
       <c r="AM42" s="13">
-        <v>1243</v>
+        <v>2062</v>
       </c>
       <c r="AN42" s="13">
-        <v>2062</v>
+        <v>9229</v>
       </c>
       <c r="AO42" s="13">
-        <v>9229</v>
+        <v>2967</v>
       </c>
       <c r="AP42" s="13">
-        <v>2967</v>
+        <v>9566</v>
       </c>
       <c r="AQ42" s="13">
+        <v>13202</v>
+      </c>
+      <c r="AR42" s="13">
         <v>9566</v>
       </c>
-      <c r="AR42" s="13">
-        <v>13202</v>
-      </c>
       <c r="AS42" s="13">
-        <v>9566</v>
+        <v>2812</v>
       </c>
       <c r="AT42" s="13">
-        <v>2812</v>
+        <v>161</v>
       </c>
       <c r="AU42" s="13">
-        <v>161</v>
+        <v>5897</v>
       </c>
       <c r="AV42" s="13">
-        <v>5897</v>
+        <v>6031</v>
       </c>
       <c r="AW42" s="13">
-        <v>6031</v>
+        <v>4036</v>
       </c>
       <c r="AX42" s="13">
-        <v>4036</v>
+        <v>19819</v>
       </c>
       <c r="AY42" s="13">
-        <v>19819</v>
+        <v>10169</v>
       </c>
       <c r="AZ42" s="13">
-        <v>10169</v>
+        <v>11047</v>
       </c>
       <c r="BA42" s="13">
-        <v>11047</v>
+        <v>3830</v>
       </c>
       <c r="BB42" s="13">
-        <v>3837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5884,95 +5884,95 @@
       <c r="X43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>58</v>
+      <c r="Y43" s="11">
+        <v>77803</v>
       </c>
       <c r="Z43" s="11">
-        <v>77803</v>
+        <v>150340</v>
       </c>
       <c r="AA43" s="11">
-        <v>150340</v>
+        <v>56784</v>
       </c>
       <c r="AB43" s="11">
-        <v>56784</v>
+        <v>37030</v>
       </c>
       <c r="AC43" s="11">
-        <v>37030</v>
+        <v>50165</v>
       </c>
       <c r="AD43" s="11">
-        <v>50165</v>
+        <v>62084</v>
       </c>
       <c r="AE43" s="11">
-        <v>62084</v>
+        <v>49147</v>
       </c>
       <c r="AF43" s="11">
-        <v>49147</v>
+        <v>52650</v>
       </c>
       <c r="AG43" s="11">
-        <v>52650</v>
+        <v>32075</v>
       </c>
       <c r="AH43" s="11">
-        <v>32075</v>
+        <v>57584</v>
       </c>
       <c r="AI43" s="11">
-        <v>57584</v>
+        <v>54380</v>
       </c>
       <c r="AJ43" s="11">
-        <v>54380</v>
+        <v>48868</v>
       </c>
       <c r="AK43" s="11">
-        <v>48868</v>
+        <v>27951</v>
       </c>
       <c r="AL43" s="11">
-        <v>27951</v>
+        <v>15794</v>
       </c>
       <c r="AM43" s="11">
-        <v>15794</v>
+        <v>59022</v>
       </c>
       <c r="AN43" s="11">
-        <v>59022</v>
+        <v>56188</v>
       </c>
       <c r="AO43" s="11">
-        <v>56188</v>
+        <v>40074</v>
       </c>
       <c r="AP43" s="11">
-        <v>40074</v>
+        <v>68560</v>
       </c>
       <c r="AQ43" s="11">
-        <v>68560</v>
+        <v>68564</v>
       </c>
       <c r="AR43" s="11">
-        <v>68564</v>
+        <v>76015</v>
       </c>
       <c r="AS43" s="11">
-        <v>76015</v>
+        <v>88764</v>
       </c>
       <c r="AT43" s="11">
-        <v>88764</v>
+        <v>73536</v>
       </c>
       <c r="AU43" s="11">
-        <v>73536</v>
+        <v>62633</v>
       </c>
       <c r="AV43" s="11">
-        <v>62633</v>
+        <v>51381</v>
       </c>
       <c r="AW43" s="11">
-        <v>51381</v>
+        <v>86822</v>
       </c>
       <c r="AX43" s="11">
-        <v>86822</v>
+        <v>65747</v>
       </c>
       <c r="AY43" s="11">
-        <v>65747</v>
+        <v>80303</v>
       </c>
       <c r="AZ43" s="11">
-        <v>80303</v>
+        <v>68237</v>
       </c>
       <c r="BA43" s="11">
-        <v>68237</v>
+        <v>96848</v>
       </c>
       <c r="BB43" s="11">
-        <v>96845</v>
+        <v>106308</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6043,65 +6043,65 @@
       <c r="X44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
+      <c r="Y44" s="13">
+        <v>15424</v>
       </c>
       <c r="Z44" s="13">
-        <v>15424</v>
+        <v>624</v>
       </c>
       <c r="AA44" s="13">
-        <v>624</v>
+        <v>33282</v>
       </c>
       <c r="AB44" s="13">
-        <v>33282</v>
+        <v>24012</v>
       </c>
       <c r="AC44" s="13">
-        <v>24012</v>
+        <v>47821</v>
       </c>
       <c r="AD44" s="13">
-        <v>47821</v>
+        <v>32854</v>
       </c>
       <c r="AE44" s="13">
-        <v>32854</v>
+        <v>13029</v>
       </c>
       <c r="AF44" s="13">
-        <v>13029</v>
+        <v>15524</v>
       </c>
       <c r="AG44" s="13">
-        <v>15524</v>
+        <v>20787</v>
       </c>
       <c r="AH44" s="13">
-        <v>20787</v>
+        <v>17715</v>
       </c>
       <c r="AI44" s="13">
-        <v>17715</v>
+        <v>9417</v>
       </c>
       <c r="AJ44" s="13">
-        <v>9417</v>
+        <v>11565</v>
       </c>
       <c r="AK44" s="13">
-        <v>11565</v>
+        <v>18014</v>
       </c>
       <c r="AL44" s="13">
-        <v>18014</v>
+        <v>30181</v>
       </c>
       <c r="AM44" s="13">
-        <v>30181</v>
+        <v>24591</v>
       </c>
       <c r="AN44" s="13">
-        <v>24591</v>
+        <v>31214</v>
       </c>
       <c r="AO44" s="13">
-        <v>31214</v>
+        <v>24206</v>
       </c>
       <c r="AP44" s="13">
-        <v>24206</v>
+        <v>1179</v>
       </c>
       <c r="AQ44" s="13">
-        <v>1179</v>
+        <v>4641</v>
       </c>
       <c r="AR44" s="13">
-        <v>4641</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="13">
         <v>0</v>
@@ -6110,28 +6110,28 @@
         <v>0</v>
       </c>
       <c r="AU44" s="13">
-        <v>0</v>
+        <v>11874</v>
       </c>
       <c r="AV44" s="13">
-        <v>11874</v>
+        <v>8116</v>
       </c>
       <c r="AW44" s="13">
-        <v>8116</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="13">
         <v>0</v>
       </c>
       <c r="AY44" s="13">
-        <v>0</v>
+        <v>25662</v>
       </c>
       <c r="AZ44" s="13">
-        <v>25662</v>
+        <v>34689</v>
       </c>
       <c r="BA44" s="13">
-        <v>34689</v>
+        <v>45837</v>
       </c>
       <c r="BB44" s="13">
-        <v>45837</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6202,95 +6202,95 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>290751</v>
       </c>
       <c r="Z45" s="11">
-        <v>290751</v>
+        <v>299857</v>
       </c>
       <c r="AA45" s="11">
-        <v>299857</v>
+        <v>268548</v>
       </c>
       <c r="AB45" s="11">
-        <v>268548</v>
+        <v>282113</v>
       </c>
       <c r="AC45" s="11">
-        <v>282113</v>
+        <v>232510</v>
       </c>
       <c r="AD45" s="11">
-        <v>232510</v>
+        <v>337728</v>
       </c>
       <c r="AE45" s="11">
-        <v>337728</v>
+        <v>288745</v>
       </c>
       <c r="AF45" s="11">
-        <v>288745</v>
+        <v>214681</v>
       </c>
       <c r="AG45" s="11">
-        <v>214681</v>
+        <v>281536</v>
       </c>
       <c r="AH45" s="11">
-        <v>281536</v>
+        <v>301556</v>
       </c>
       <c r="AI45" s="11">
-        <v>301556</v>
+        <v>288973</v>
       </c>
       <c r="AJ45" s="11">
-        <v>288973</v>
+        <v>210163</v>
       </c>
       <c r="AK45" s="11">
-        <v>210163</v>
+        <v>207067</v>
       </c>
       <c r="AL45" s="11">
-        <v>207067</v>
+        <v>259349</v>
       </c>
       <c r="AM45" s="11">
-        <v>259349</v>
+        <v>495271</v>
       </c>
       <c r="AN45" s="11">
-        <v>495271</v>
+        <v>351184</v>
       </c>
       <c r="AO45" s="11">
-        <v>351184</v>
+        <v>351003</v>
       </c>
       <c r="AP45" s="11">
-        <v>351003</v>
+        <v>387527</v>
       </c>
       <c r="AQ45" s="11">
-        <v>387527</v>
+        <v>348139</v>
       </c>
       <c r="AR45" s="11">
-        <v>348139</v>
+        <v>406156</v>
       </c>
       <c r="AS45" s="11">
-        <v>406156</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="11">
-        <v>0</v>
+        <v>367788</v>
       </c>
       <c r="AU45" s="11">
-        <v>367788</v>
+        <v>408019</v>
       </c>
       <c r="AV45" s="11">
-        <v>408019</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="11">
-        <v>0</v>
+        <v>60861</v>
       </c>
       <c r="AX45" s="11">
-        <v>60861</v>
+        <v>311357</v>
       </c>
       <c r="AY45" s="11">
-        <v>311357</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="11">
-        <v>0</v>
+        <v>413449</v>
       </c>
       <c r="BA45" s="11">
-        <v>413449</v>
+        <v>1022427</v>
       </c>
       <c r="BB45" s="11">
-        <v>398718</v>
+        <v>335681</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6430,8 +6430,8 @@
       <c r="AU46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV46" s="13" t="s">
-        <v>58</v>
+      <c r="AV46" s="13">
+        <v>0</v>
       </c>
       <c r="AW46" s="13">
         <v>0</v>
@@ -6520,95 +6520,95 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
+      <c r="Y47" s="11">
+        <v>188922</v>
       </c>
       <c r="Z47" s="11">
-        <v>188922</v>
+        <v>199944</v>
       </c>
       <c r="AA47" s="11">
-        <v>199944</v>
+        <v>159346</v>
       </c>
       <c r="AB47" s="11">
-        <v>159346</v>
+        <v>114432</v>
       </c>
       <c r="AC47" s="11">
-        <v>114432</v>
+        <v>191179</v>
       </c>
       <c r="AD47" s="11">
-        <v>191179</v>
+        <v>186668</v>
       </c>
       <c r="AE47" s="11">
-        <v>186668</v>
+        <v>169712</v>
       </c>
       <c r="AF47" s="11">
-        <v>169712</v>
+        <v>190368</v>
       </c>
       <c r="AG47" s="11">
-        <v>190368</v>
+        <v>188484</v>
       </c>
       <c r="AH47" s="11">
-        <v>188484</v>
+        <v>207458</v>
       </c>
       <c r="AI47" s="11">
-        <v>207458</v>
+        <v>178326</v>
       </c>
       <c r="AJ47" s="11">
-        <v>178326</v>
+        <v>202029</v>
       </c>
       <c r="AK47" s="11">
-        <v>202029</v>
+        <v>151836</v>
       </c>
       <c r="AL47" s="11">
-        <v>151836</v>
+        <v>188924</v>
       </c>
       <c r="AM47" s="11">
-        <v>188924</v>
+        <v>157515</v>
       </c>
       <c r="AN47" s="11">
-        <v>157515</v>
+        <v>76458</v>
       </c>
       <c r="AO47" s="11">
-        <v>76458</v>
+        <v>168846</v>
       </c>
       <c r="AP47" s="11">
-        <v>168846</v>
+        <v>185188</v>
       </c>
       <c r="AQ47" s="11">
-        <v>185188</v>
+        <v>175966</v>
       </c>
       <c r="AR47" s="11">
-        <v>175966</v>
+        <v>72996</v>
       </c>
       <c r="AS47" s="11">
-        <v>72996</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="11">
-        <v>0</v>
+        <v>208018</v>
       </c>
       <c r="AU47" s="11">
-        <v>208018</v>
+        <v>206162</v>
       </c>
       <c r="AV47" s="11">
-        <v>206162</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="11">
-        <v>0</v>
+        <v>204652</v>
       </c>
       <c r="AX47" s="11">
-        <v>204652</v>
+        <v>194176</v>
       </c>
       <c r="AY47" s="11">
-        <v>194176</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="11">
-        <v>0</v>
+        <v>197586</v>
       </c>
       <c r="BA47" s="11">
-        <v>197586</v>
+        <v>592496</v>
       </c>
       <c r="BB47" s="11">
-        <v>189932</v>
+        <v>149124</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6679,8 +6679,8 @@
       <c r="X48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="13" t="s">
-        <v>58</v>
+      <c r="Y48" s="13">
+        <v>0</v>
       </c>
       <c r="Z48" s="13">
         <v>0</v>
@@ -6707,58 +6707,58 @@
         <v>0</v>
       </c>
       <c r="AH48" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AI48" s="13">
-        <v>71</v>
-      </c>
-      <c r="AJ48" s="13">
         <v>55944</v>
       </c>
-      <c r="AK48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL48" s="13">
+      <c r="AJ48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK48" s="13">
         <v>36136</v>
       </c>
+      <c r="AL48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AN48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP48" s="13">
+      <c r="AO48" s="13">
         <v>8113</v>
       </c>
-      <c r="AQ48" s="13" t="s">
-        <v>58</v>
+      <c r="AP48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ48" s="13">
+        <v>618</v>
       </c>
       <c r="AR48" s="13">
-        <v>618</v>
+        <v>11439</v>
       </c>
       <c r="AS48" s="13">
-        <v>11439</v>
+        <v>18816</v>
       </c>
       <c r="AT48" s="13">
-        <v>18816</v>
+        <v>5668</v>
       </c>
       <c r="AU48" s="13">
-        <v>5668</v>
+        <v>248</v>
       </c>
       <c r="AV48" s="13">
-        <v>248</v>
+        <v>816</v>
       </c>
       <c r="AW48" s="13">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="13">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="AY48" s="13">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="13">
         <v>0</v>
@@ -6838,17 +6838,17 @@
       <c r="X49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="11" t="s">
-        <v>58</v>
+      <c r="Y49" s="11">
+        <v>0</v>
       </c>
       <c r="Z49" s="11">
         <v>0</v>
       </c>
       <c r="AA49" s="11">
-        <v>0</v>
+        <v>202178</v>
       </c>
       <c r="AB49" s="11">
-        <v>202178</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="11">
         <v>0</v>
@@ -6863,19 +6863,19 @@
         <v>0</v>
       </c>
       <c r="AG49" s="11">
-        <v>0</v>
+        <v>332501</v>
       </c>
       <c r="AH49" s="11">
-        <v>332501</v>
-      </c>
-      <c r="AI49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK49" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL49" s="11" t="s">
         <v>58</v>
@@ -6889,44 +6889,44 @@
       <c r="AO49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP49" s="11" t="s">
-        <v>58</v>
+      <c r="AP49" s="11">
+        <v>0</v>
       </c>
       <c r="AQ49" s="11">
-        <v>0</v>
+        <v>153085</v>
       </c>
       <c r="AR49" s="11">
-        <v>153085</v>
+        <v>162543</v>
       </c>
       <c r="AS49" s="11">
-        <v>162543</v>
+        <v>1509910</v>
       </c>
       <c r="AT49" s="11">
-        <v>1509910</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="11">
-        <v>0</v>
+        <v>444063</v>
       </c>
       <c r="AV49" s="11">
-        <v>444063</v>
+        <v>152003</v>
       </c>
       <c r="AW49" s="11">
-        <v>152003</v>
+        <v>90974</v>
       </c>
       <c r="AX49" s="11">
-        <v>90974</v>
+        <v>265812</v>
       </c>
       <c r="AY49" s="11">
-        <v>265812</v>
+        <v>170704</v>
       </c>
       <c r="AZ49" s="11">
-        <v>170704</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="11">
-        <v>632882</v>
+        <v>216774</v>
       </c>
       <c r="BB49" s="11">
-        <v>216774</v>
+        <v>159294</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6996,94 +6996,94 @@
         <v>0</v>
       </c>
       <c r="Y50" s="15">
-        <v>0</v>
+        <v>1130785</v>
       </c>
       <c r="Z50" s="15">
-        <v>1130785</v>
+        <v>1258674</v>
       </c>
       <c r="AA50" s="15">
-        <v>1258674</v>
+        <v>1412745</v>
       </c>
       <c r="AB50" s="15">
-        <v>1412745</v>
+        <v>1296683</v>
       </c>
       <c r="AC50" s="15">
-        <v>1296683</v>
+        <v>1366787</v>
       </c>
       <c r="AD50" s="15">
-        <v>1366787</v>
+        <v>1407639</v>
       </c>
       <c r="AE50" s="15">
-        <v>1407639</v>
+        <v>1396708</v>
       </c>
       <c r="AF50" s="15">
-        <v>1396708</v>
+        <v>1447619</v>
       </c>
       <c r="AG50" s="15">
-        <v>1447619</v>
+        <v>1736596</v>
       </c>
       <c r="AH50" s="15">
-        <v>1736596</v>
+        <v>1364053</v>
       </c>
       <c r="AI50" s="15">
-        <v>1364053</v>
+        <v>1381972</v>
       </c>
       <c r="AJ50" s="15">
-        <v>1381972</v>
+        <v>1251802</v>
       </c>
       <c r="AK50" s="15">
-        <v>1251802</v>
+        <v>1219203</v>
       </c>
       <c r="AL50" s="15">
-        <v>1219203</v>
+        <v>1358132</v>
       </c>
       <c r="AM50" s="15">
-        <v>1358132</v>
+        <v>1612952</v>
       </c>
       <c r="AN50" s="15">
-        <v>1612952</v>
+        <v>1306338</v>
       </c>
       <c r="AO50" s="15">
-        <v>1306338</v>
+        <v>1354098</v>
       </c>
       <c r="AP50" s="15">
-        <v>1354098</v>
+        <v>1422069</v>
       </c>
       <c r="AQ50" s="15">
-        <v>1422069</v>
+        <v>1510325</v>
       </c>
       <c r="AR50" s="15">
-        <v>1510325</v>
+        <v>1588279</v>
       </c>
       <c r="AS50" s="15">
-        <v>1588279</v>
+        <v>2334083</v>
       </c>
       <c r="AT50" s="15">
-        <v>2334083</v>
+        <v>1422323</v>
       </c>
       <c r="AU50" s="15">
-        <v>1422323</v>
+        <v>1784695</v>
       </c>
       <c r="AV50" s="15">
-        <v>1784695</v>
+        <v>934969</v>
       </c>
       <c r="AW50" s="15">
-        <v>934969</v>
+        <v>1114272</v>
       </c>
       <c r="AX50" s="15">
-        <v>1114272</v>
+        <v>1414341</v>
       </c>
       <c r="AY50" s="15">
-        <v>1414341</v>
+        <v>955276</v>
       </c>
       <c r="AZ50" s="15">
-        <v>955276</v>
+        <v>1361723</v>
       </c>
       <c r="BA50" s="15">
-        <v>1994605</v>
+        <v>2746998</v>
       </c>
       <c r="BB50" s="15">
-        <v>1568984</v>
+        <v>1194240</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7220,8 +7220,8 @@
       <c r="AA52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB52" s="11" t="s">
-        <v>58</v>
+      <c r="AB52" s="11">
+        <v>0</v>
       </c>
       <c r="AC52" s="11">
         <v>0</v>
@@ -7241,8 +7241,8 @@
       <c r="AH52" s="11">
         <v>0</v>
       </c>
-      <c r="AI52" s="11">
-        <v>0</v>
+      <c r="AI52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ52" s="11" t="s">
         <v>58</v>
@@ -7268,14 +7268,14 @@
       <c r="AQ52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR52" s="11" t="s">
-        <v>58</v>
+      <c r="AR52" s="11">
+        <v>0</v>
       </c>
       <c r="AS52" s="11">
         <v>0</v>
       </c>
-      <c r="AT52" s="11">
-        <v>0</v>
+      <c r="AT52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU52" s="11" t="s">
         <v>58</v>
@@ -7370,8 +7370,8 @@
       <c r="X53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="13" t="s">
-        <v>58</v>
+      <c r="Y53" s="13">
+        <v>0</v>
       </c>
       <c r="Z53" s="13">
         <v>0</v>
@@ -7379,8 +7379,8 @@
       <c r="AA53" s="13">
         <v>0</v>
       </c>
-      <c r="AB53" s="13">
-        <v>0</v>
+      <c r="AB53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC53" s="13" t="s">
         <v>58</v>
@@ -7397,11 +7397,11 @@
       <c r="AG53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI53" s="13">
-        <v>0</v>
+      <c r="AH53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ53" s="13" t="s">
         <v>58</v>
@@ -7427,14 +7427,14 @@
       <c r="AQ53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="13" t="s">
-        <v>58</v>
+      <c r="AR53" s="13">
+        <v>0</v>
       </c>
       <c r="AS53" s="13">
         <v>0</v>
       </c>
-      <c r="AT53" s="13">
-        <v>0</v>
+      <c r="AT53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU53" s="13" t="s">
         <v>58</v>
@@ -7529,8 +7529,8 @@
       <c r="X54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="11" t="s">
-        <v>58</v>
+      <c r="Y54" s="11">
+        <v>0</v>
       </c>
       <c r="Z54" s="11">
         <v>0</v>
@@ -7539,85 +7539,85 @@
         <v>0</v>
       </c>
       <c r="AB54" s="11">
-        <v>0</v>
+        <v>63726</v>
       </c>
       <c r="AC54" s="11">
-        <v>63726</v>
+        <v>29932</v>
       </c>
       <c r="AD54" s="11">
-        <v>29932</v>
+        <v>30841</v>
       </c>
       <c r="AE54" s="11">
-        <v>30841</v>
+        <v>30000</v>
       </c>
       <c r="AF54" s="11">
-        <v>30000</v>
+        <v>89971</v>
       </c>
       <c r="AG54" s="11">
-        <v>89971</v>
+        <v>59980</v>
       </c>
       <c r="AH54" s="11">
-        <v>59980</v>
-      </c>
-      <c r="AI54" s="11">
         <v>3000</v>
       </c>
-      <c r="AJ54" s="11" t="s">
-        <v>58</v>
+      <c r="AI54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ54" s="11">
+        <v>77978</v>
       </c>
       <c r="AK54" s="11">
-        <v>77978</v>
+        <v>31496</v>
       </c>
       <c r="AL54" s="11">
-        <v>31496</v>
-      </c>
-      <c r="AM54" s="11">
         <v>59990</v>
       </c>
-      <c r="AN54" s="11" t="s">
-        <v>58</v>
+      <c r="AM54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN54" s="11">
+        <v>30001</v>
       </c>
       <c r="AO54" s="11">
-        <v>30001</v>
+        <v>30157</v>
       </c>
       <c r="AP54" s="11">
-        <v>30157</v>
+        <v>30296</v>
       </c>
       <c r="AQ54" s="11">
-        <v>30296</v>
+        <v>29984</v>
       </c>
       <c r="AR54" s="11">
-        <v>29984</v>
+        <v>33000</v>
       </c>
       <c r="AS54" s="11">
-        <v>33000</v>
+        <v>29998</v>
       </c>
       <c r="AT54" s="11">
-        <v>29998</v>
+        <v>30364</v>
       </c>
       <c r="AU54" s="11">
-        <v>30364</v>
+        <v>30219</v>
       </c>
       <c r="AV54" s="11">
-        <v>30219</v>
+        <v>60167</v>
       </c>
       <c r="AW54" s="11">
-        <v>60167</v>
+        <v>6550</v>
       </c>
       <c r="AX54" s="11">
-        <v>6550</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="11">
         <v>0</v>
       </c>
       <c r="AZ54" s="11">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="BA54" s="11">
-        <v>29999</v>
+        <v>32990</v>
       </c>
       <c r="BB54" s="11">
-        <v>32990</v>
+        <v>15133</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7697,8 +7697,8 @@
       <c r="AA55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB55" s="13" t="s">
-        <v>58</v>
+      <c r="AB55" s="13">
+        <v>0</v>
       </c>
       <c r="AC55" s="13">
         <v>0</v>
@@ -7715,8 +7715,8 @@
       <c r="AG55" s="13">
         <v>0</v>
       </c>
-      <c r="AH55" s="13">
-        <v>0</v>
+      <c r="AH55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI55" s="13" t="s">
         <v>58</v>
@@ -7855,85 +7855,85 @@
         <v>0</v>
       </c>
       <c r="AB56" s="17">
-        <v>0</v>
+        <v>63726</v>
       </c>
       <c r="AC56" s="17">
-        <v>63726</v>
+        <v>29932</v>
       </c>
       <c r="AD56" s="17">
-        <v>29932</v>
+        <v>30841</v>
       </c>
       <c r="AE56" s="17">
-        <v>30841</v>
+        <v>30000</v>
       </c>
       <c r="AF56" s="17">
-        <v>30000</v>
+        <v>89971</v>
       </c>
       <c r="AG56" s="17">
-        <v>89971</v>
+        <v>59980</v>
       </c>
       <c r="AH56" s="17">
-        <v>59980</v>
+        <v>3000</v>
       </c>
       <c r="AI56" s="17">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="17">
-        <v>0</v>
+        <v>77978</v>
       </c>
       <c r="AK56" s="17">
-        <v>77978</v>
+        <v>31496</v>
       </c>
       <c r="AL56" s="17">
-        <v>31496</v>
+        <v>59990</v>
       </c>
       <c r="AM56" s="17">
-        <v>59990</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="17">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="AO56" s="17">
-        <v>30001</v>
+        <v>30157</v>
       </c>
       <c r="AP56" s="17">
-        <v>30157</v>
+        <v>30296</v>
       </c>
       <c r="AQ56" s="17">
-        <v>30296</v>
+        <v>29984</v>
       </c>
       <c r="AR56" s="17">
-        <v>29984</v>
+        <v>33000</v>
       </c>
       <c r="AS56" s="17">
-        <v>33000</v>
+        <v>29998</v>
       </c>
       <c r="AT56" s="17">
-        <v>29998</v>
+        <v>30364</v>
       </c>
       <c r="AU56" s="17">
-        <v>30364</v>
+        <v>30219</v>
       </c>
       <c r="AV56" s="17">
-        <v>30219</v>
+        <v>60167</v>
       </c>
       <c r="AW56" s="17">
-        <v>60167</v>
+        <v>6550</v>
       </c>
       <c r="AX56" s="17">
-        <v>6550</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="17">
         <v>0</v>
       </c>
       <c r="AZ56" s="17">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="BA56" s="17">
-        <v>29999</v>
+        <v>32990</v>
       </c>
       <c r="BB56" s="17">
-        <v>32990</v>
+        <v>15133</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8218,8 +8218,8 @@
       <c r="X59" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="15" t="s">
-        <v>58</v>
+      <c r="Y59" s="15">
+        <v>0</v>
       </c>
       <c r="Z59" s="15">
         <v>0</v>
@@ -8432,8 +8432,8 @@
       <c r="X61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="17" t="s">
-        <v>58</v>
+      <c r="Y61" s="17">
+        <v>0</v>
       </c>
       <c r="Z61" s="17">
         <v>0</v>
@@ -8590,94 +8590,94 @@
         <v>0</v>
       </c>
       <c r="Y62" s="15">
-        <v>0</v>
+        <v>1130785</v>
       </c>
       <c r="Z62" s="15">
-        <v>1130785</v>
+        <v>1258674</v>
       </c>
       <c r="AA62" s="15">
-        <v>1258674</v>
+        <v>1412745</v>
       </c>
       <c r="AB62" s="15">
-        <v>1412745</v>
+        <v>1360409</v>
       </c>
       <c r="AC62" s="15">
-        <v>1360409</v>
+        <v>1396719</v>
       </c>
       <c r="AD62" s="15">
-        <v>1396719</v>
+        <v>1438480</v>
       </c>
       <c r="AE62" s="15">
-        <v>1438480</v>
+        <v>1426708</v>
       </c>
       <c r="AF62" s="15">
-        <v>1426708</v>
+        <v>1537590</v>
       </c>
       <c r="AG62" s="15">
-        <v>1537590</v>
+        <v>1796576</v>
       </c>
       <c r="AH62" s="15">
-        <v>1796576</v>
+        <v>1367053</v>
       </c>
       <c r="AI62" s="15">
-        <v>1367053</v>
+        <v>1381972</v>
       </c>
       <c r="AJ62" s="15">
-        <v>1381972</v>
+        <v>1329780</v>
       </c>
       <c r="AK62" s="15">
-        <v>1329780</v>
+        <v>1250699</v>
       </c>
       <c r="AL62" s="15">
-        <v>1250699</v>
+        <v>1418122</v>
       </c>
       <c r="AM62" s="15">
-        <v>1418122</v>
+        <v>1612952</v>
       </c>
       <c r="AN62" s="15">
-        <v>1612952</v>
+        <v>1336339</v>
       </c>
       <c r="AO62" s="15">
-        <v>1336339</v>
+        <v>1384255</v>
       </c>
       <c r="AP62" s="15">
-        <v>1384255</v>
+        <v>1452365</v>
       </c>
       <c r="AQ62" s="15">
-        <v>1452365</v>
+        <v>1540309</v>
       </c>
       <c r="AR62" s="15">
-        <v>1540309</v>
+        <v>1621279</v>
       </c>
       <c r="AS62" s="15">
-        <v>1621279</v>
+        <v>2364081</v>
       </c>
       <c r="AT62" s="15">
-        <v>2364081</v>
+        <v>1452687</v>
       </c>
       <c r="AU62" s="15">
-        <v>1452687</v>
+        <v>1814914</v>
       </c>
       <c r="AV62" s="15">
-        <v>1814914</v>
+        <v>995136</v>
       </c>
       <c r="AW62" s="15">
-        <v>995136</v>
+        <v>1120822</v>
       </c>
       <c r="AX62" s="15">
-        <v>1120822</v>
+        <v>1414341</v>
       </c>
       <c r="AY62" s="15">
-        <v>1414341</v>
+        <v>955276</v>
       </c>
       <c r="AZ62" s="15">
-        <v>955276</v>
+        <v>1391722</v>
       </c>
       <c r="BA62" s="15">
-        <v>2024604</v>
+        <v>2779988</v>
       </c>
       <c r="BB62" s="15">
-        <v>1601974</v>
+        <v>1209373</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -9182,29 +9182,29 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>0</v>
       </c>
       <c r="Z69" s="11">
-        <v>0</v>
+        <v>260080</v>
       </c>
       <c r="AA69" s="11">
-        <v>260080</v>
+        <v>170145</v>
       </c>
       <c r="AB69" s="11">
-        <v>170145</v>
+        <v>92656</v>
       </c>
       <c r="AC69" s="11">
-        <v>92656</v>
+        <v>130339</v>
       </c>
       <c r="AD69" s="11">
-        <v>130339</v>
+        <v>56328</v>
       </c>
       <c r="AE69" s="11">
-        <v>56328</v>
+        <v>448751</v>
       </c>
       <c r="AF69" s="11">
-        <v>448751</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="11">
         <v>0</v>
@@ -9228,22 +9228,22 @@
         <v>0</v>
       </c>
       <c r="AN69" s="11">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="AO69" s="11">
-        <v>412</v>
+        <v>55243</v>
       </c>
       <c r="AP69" s="11">
-        <v>55243</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="11">
-        <v>0</v>
+        <v>51187</v>
       </c>
       <c r="AR69" s="11">
-        <v>51187</v>
+        <v>345</v>
       </c>
       <c r="AS69" s="11">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="11">
         <v>0</v>
@@ -9341,95 +9341,95 @@
       <c r="X70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="13" t="s">
-        <v>58</v>
+      <c r="Y70" s="13">
+        <v>1535794</v>
       </c>
       <c r="Z70" s="13">
-        <v>1535794</v>
+        <v>1338261</v>
       </c>
       <c r="AA70" s="13">
-        <v>1338261</v>
+        <v>2036519</v>
       </c>
       <c r="AB70" s="13">
-        <v>2036519</v>
+        <v>4207552</v>
       </c>
       <c r="AC70" s="13">
-        <v>4207552</v>
+        <v>3662702</v>
       </c>
       <c r="AD70" s="13">
-        <v>3662702</v>
+        <v>2884065</v>
       </c>
       <c r="AE70" s="13">
-        <v>2884065</v>
+        <v>4127580</v>
       </c>
       <c r="AF70" s="13">
-        <v>4127580</v>
+        <v>4789640</v>
       </c>
       <c r="AG70" s="13">
-        <v>4789640</v>
+        <v>4668160</v>
       </c>
       <c r="AH70" s="13">
-        <v>4668160</v>
+        <v>2650568</v>
       </c>
       <c r="AI70" s="13">
-        <v>2650568</v>
+        <v>2387640</v>
       </c>
       <c r="AJ70" s="13">
-        <v>2387640</v>
+        <v>1773710</v>
       </c>
       <c r="AK70" s="13">
-        <v>1773710</v>
+        <v>1503659</v>
       </c>
       <c r="AL70" s="13">
-        <v>1503659</v>
+        <v>7444390</v>
       </c>
       <c r="AM70" s="13">
-        <v>7444390</v>
+        <v>7384593</v>
       </c>
       <c r="AN70" s="13">
-        <v>7384593</v>
+        <v>10572240</v>
       </c>
       <c r="AO70" s="13">
-        <v>10572240</v>
+        <v>7963345</v>
       </c>
       <c r="AP70" s="13">
-        <v>7963345</v>
+        <v>6668197</v>
       </c>
       <c r="AQ70" s="13">
-        <v>6668197</v>
+        <v>7180136</v>
       </c>
       <c r="AR70" s="13">
-        <v>7180136</v>
+        <v>7623034</v>
       </c>
       <c r="AS70" s="13">
-        <v>7623034</v>
+        <v>8031464</v>
       </c>
       <c r="AT70" s="13">
-        <v>8031464</v>
+        <v>8440392</v>
       </c>
       <c r="AU70" s="13">
-        <v>8440392</v>
+        <v>6852399</v>
       </c>
       <c r="AV70" s="13">
-        <v>6852399</v>
+        <v>3772125</v>
       </c>
       <c r="AW70" s="13">
-        <v>3772125</v>
+        <v>1738104</v>
       </c>
       <c r="AX70" s="13">
-        <v>1738104</v>
+        <v>492860</v>
       </c>
       <c r="AY70" s="13">
-        <v>492860</v>
+        <v>4415177</v>
       </c>
       <c r="AZ70" s="13">
-        <v>4415177</v>
+        <v>4032118</v>
       </c>
       <c r="BA70" s="13">
-        <v>4032118</v>
+        <v>4509588</v>
       </c>
       <c r="BB70" s="13">
-        <v>4461065</v>
+        <v>2398114</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9500,95 +9500,95 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>4243464</v>
       </c>
       <c r="Z71" s="11">
-        <v>4243464</v>
+        <v>4132426</v>
       </c>
       <c r="AA71" s="11">
-        <v>4132426</v>
+        <v>6044451</v>
       </c>
       <c r="AB71" s="11">
-        <v>6044451</v>
+        <v>10964890</v>
       </c>
       <c r="AC71" s="11">
-        <v>10964890</v>
+        <v>12432806</v>
       </c>
       <c r="AD71" s="11">
-        <v>12432806</v>
+        <v>11733850</v>
       </c>
       <c r="AE71" s="11">
-        <v>11733850</v>
+        <v>13529840</v>
       </c>
       <c r="AF71" s="11">
-        <v>13529840</v>
+        <v>16886572</v>
       </c>
       <c r="AG71" s="11">
-        <v>16886572</v>
+        <v>15174088</v>
       </c>
       <c r="AH71" s="11">
-        <v>15174088</v>
+        <v>15064665</v>
       </c>
       <c r="AI71" s="11">
-        <v>15064665</v>
+        <v>15971545</v>
       </c>
       <c r="AJ71" s="11">
-        <v>15971545</v>
+        <v>18563476</v>
       </c>
       <c r="AK71" s="11">
-        <v>18563476</v>
+        <v>20760834</v>
       </c>
       <c r="AL71" s="11">
-        <v>20760834</v>
+        <v>21064393</v>
       </c>
       <c r="AM71" s="11">
-        <v>21064393</v>
+        <v>22003935</v>
       </c>
       <c r="AN71" s="11">
-        <v>22003935</v>
+        <v>15695812</v>
       </c>
       <c r="AO71" s="11">
-        <v>15695812</v>
+        <v>17510501</v>
       </c>
       <c r="AP71" s="11">
-        <v>17510501</v>
+        <v>18112310</v>
       </c>
       <c r="AQ71" s="11">
-        <v>18112310</v>
+        <v>16799317</v>
       </c>
       <c r="AR71" s="11">
-        <v>16799317</v>
+        <v>8711103</v>
       </c>
       <c r="AS71" s="11">
-        <v>8711103</v>
+        <v>14664054</v>
       </c>
       <c r="AT71" s="11">
-        <v>14664054</v>
+        <v>15786055</v>
       </c>
       <c r="AU71" s="11">
-        <v>15786055</v>
+        <v>18816710</v>
       </c>
       <c r="AV71" s="11">
-        <v>18816710</v>
+        <v>20292369</v>
       </c>
       <c r="AW71" s="11">
-        <v>20292369</v>
+        <v>19283565</v>
       </c>
       <c r="AX71" s="11">
-        <v>19283565</v>
+        <v>5372957</v>
       </c>
       <c r="AY71" s="11">
-        <v>5372957</v>
+        <v>13878514</v>
       </c>
       <c r="AZ71" s="11">
-        <v>13878514</v>
+        <v>11378426</v>
       </c>
       <c r="BA71" s="11">
-        <v>11378426</v>
+        <v>16812049</v>
       </c>
       <c r="BB71" s="11">
-        <v>11545822</v>
+        <v>9578146</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9659,95 +9659,95 @@
       <c r="X72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y72" s="13" t="s">
-        <v>58</v>
+      <c r="Y72" s="13">
+        <v>51086</v>
       </c>
       <c r="Z72" s="13">
-        <v>51086</v>
+        <v>79850</v>
       </c>
       <c r="AA72" s="13">
-        <v>79850</v>
+        <v>8456</v>
       </c>
       <c r="AB72" s="13">
-        <v>8456</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="13">
-        <v>0</v>
+        <v>8059</v>
       </c>
       <c r="AD72" s="13">
-        <v>8059</v>
+        <v>35628</v>
       </c>
       <c r="AE72" s="13">
-        <v>35628</v>
+        <v>269161</v>
       </c>
       <c r="AF72" s="13">
-        <v>269161</v>
+        <v>40880</v>
       </c>
       <c r="AG72" s="13">
-        <v>40880</v>
+        <v>17010</v>
       </c>
       <c r="AH72" s="13">
-        <v>17010</v>
+        <v>13944</v>
       </c>
       <c r="AI72" s="13">
-        <v>13944</v>
+        <v>339951</v>
       </c>
       <c r="AJ72" s="13">
-        <v>339951</v>
+        <v>0</v>
       </c>
       <c r="AK72" s="13">
-        <v>0</v>
+        <v>208746</v>
       </c>
       <c r="AL72" s="13">
-        <v>208746</v>
+        <v>26112</v>
       </c>
       <c r="AM72" s="13">
-        <v>26112</v>
+        <v>37820</v>
       </c>
       <c r="AN72" s="13">
-        <v>37820</v>
+        <v>193805</v>
       </c>
       <c r="AO72" s="13">
-        <v>193805</v>
+        <v>55913</v>
       </c>
       <c r="AP72" s="13">
-        <v>55913</v>
+        <v>158782</v>
       </c>
       <c r="AQ72" s="13">
-        <v>158782</v>
+        <v>238356</v>
       </c>
       <c r="AR72" s="13">
-        <v>238356</v>
+        <v>165208</v>
       </c>
       <c r="AS72" s="13">
-        <v>165208</v>
+        <v>91277</v>
       </c>
       <c r="AT72" s="13">
-        <v>91277</v>
+        <v>2761</v>
       </c>
       <c r="AU72" s="13">
-        <v>2761</v>
+        <v>122323</v>
       </c>
       <c r="AV72" s="13">
-        <v>122323</v>
+        <v>145964</v>
       </c>
       <c r="AW72" s="13">
-        <v>145964</v>
+        <v>84232</v>
       </c>
       <c r="AX72" s="13">
-        <v>84232</v>
+        <v>463358</v>
       </c>
       <c r="AY72" s="13">
-        <v>463358</v>
+        <v>226886</v>
       </c>
       <c r="AZ72" s="13">
-        <v>226886</v>
+        <v>233905</v>
       </c>
       <c r="BA72" s="13">
-        <v>233905</v>
+        <v>99971</v>
       </c>
       <c r="BB72" s="13">
-        <v>81892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9818,95 +9818,95 @@
       <c r="X73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
+      <c r="Y73" s="11">
+        <v>4713163</v>
       </c>
       <c r="Z73" s="11">
-        <v>4713163</v>
+        <v>10607848</v>
       </c>
       <c r="AA73" s="11">
-        <v>10607848</v>
+        <v>4763912</v>
       </c>
       <c r="AB73" s="11">
-        <v>4763912</v>
+        <v>3588162</v>
       </c>
       <c r="AC73" s="11">
-        <v>3588162</v>
+        <v>5051120</v>
       </c>
       <c r="AD73" s="11">
-        <v>5051120</v>
+        <v>6251709</v>
       </c>
       <c r="AE73" s="11">
-        <v>6251709</v>
+        <v>5076183</v>
       </c>
       <c r="AF73" s="11">
-        <v>5076183</v>
+        <v>5780093</v>
       </c>
       <c r="AG73" s="11">
-        <v>5780093</v>
+        <v>3380259</v>
       </c>
       <c r="AH73" s="11">
-        <v>3380259</v>
+        <v>6167685</v>
       </c>
       <c r="AI73" s="11">
-        <v>6167685</v>
+        <v>6063083</v>
       </c>
       <c r="AJ73" s="11">
-        <v>6063083</v>
+        <v>5874208</v>
       </c>
       <c r="AK73" s="11">
-        <v>5874208</v>
+        <v>3638402</v>
       </c>
       <c r="AL73" s="11">
-        <v>3638402</v>
+        <v>2091841</v>
       </c>
       <c r="AM73" s="11">
-        <v>2091841</v>
+        <v>7829271</v>
       </c>
       <c r="AN73" s="11">
-        <v>7829271</v>
+        <v>7057080</v>
       </c>
       <c r="AO73" s="11">
-        <v>7057080</v>
+        <v>5131315</v>
       </c>
       <c r="AP73" s="11">
-        <v>5131315</v>
+        <v>9281322</v>
       </c>
       <c r="AQ73" s="11">
-        <v>9281322</v>
+        <v>8697891</v>
       </c>
       <c r="AR73" s="11">
-        <v>8697891</v>
+        <v>9622335</v>
       </c>
       <c r="AS73" s="11">
-        <v>9622335</v>
+        <v>11745764</v>
       </c>
       <c r="AT73" s="11">
-        <v>11745764</v>
+        <v>11010762</v>
       </c>
       <c r="AU73" s="11">
-        <v>11010762</v>
+        <v>9749239</v>
       </c>
       <c r="AV73" s="11">
-        <v>9749239</v>
+        <v>7759831</v>
       </c>
       <c r="AW73" s="11">
-        <v>7759831</v>
+        <v>12555522</v>
       </c>
       <c r="AX73" s="11">
-        <v>12555522</v>
+        <v>8944817</v>
       </c>
       <c r="AY73" s="11">
-        <v>8944817</v>
+        <v>10771223</v>
       </c>
       <c r="AZ73" s="11">
-        <v>10771223</v>
+        <v>9294237</v>
       </c>
       <c r="BA73" s="11">
-        <v>9294237</v>
+        <v>13675087</v>
       </c>
       <c r="BB73" s="11">
-        <v>13675087</v>
+        <v>15209429</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -9977,95 +9977,95 @@
       <c r="X74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
+      <c r="Y74" s="13">
+        <v>455389</v>
       </c>
       <c r="Z74" s="13">
-        <v>455389</v>
+        <v>28730</v>
       </c>
       <c r="AA74" s="13">
-        <v>28730</v>
+        <v>1259140</v>
       </c>
       <c r="AB74" s="13">
-        <v>1259140</v>
+        <v>966902</v>
       </c>
       <c r="AC74" s="13">
-        <v>966902</v>
+        <v>1932085</v>
       </c>
       <c r="AD74" s="13">
-        <v>1932085</v>
+        <v>1665195</v>
       </c>
       <c r="AE74" s="13">
-        <v>1665195</v>
+        <v>664878</v>
       </c>
       <c r="AF74" s="13">
-        <v>664878</v>
+        <v>806764</v>
       </c>
       <c r="AG74" s="13">
-        <v>806764</v>
+        <v>1285748</v>
       </c>
       <c r="AH74" s="13">
-        <v>1285748</v>
+        <v>1195921</v>
       </c>
       <c r="AI74" s="13">
-        <v>1195921</v>
+        <v>640736</v>
       </c>
       <c r="AJ74" s="13">
-        <v>640736</v>
+        <v>839228</v>
       </c>
       <c r="AK74" s="13">
-        <v>839228</v>
+        <v>1443862</v>
       </c>
       <c r="AL74" s="13">
-        <v>1443862</v>
+        <v>2308364</v>
       </c>
       <c r="AM74" s="13">
-        <v>2308364</v>
+        <v>2026429</v>
       </c>
       <c r="AN74" s="13">
-        <v>2026429</v>
+        <v>2513345</v>
       </c>
       <c r="AO74" s="13">
-        <v>2513345</v>
+        <v>1901577</v>
       </c>
       <c r="AP74" s="13">
-        <v>1901577</v>
+        <v>93847</v>
       </c>
       <c r="AQ74" s="13">
-        <v>93847</v>
+        <v>384700</v>
       </c>
       <c r="AR74" s="13">
-        <v>384700</v>
+        <v>-9776</v>
       </c>
       <c r="AS74" s="13">
-        <v>-9776</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="13">
         <v>0</v>
       </c>
       <c r="AU74" s="13">
-        <v>0</v>
+        <v>1115927</v>
       </c>
       <c r="AV74" s="13">
-        <v>1115927</v>
+        <v>762619</v>
       </c>
       <c r="AW74" s="13">
-        <v>762619</v>
+        <v>0</v>
       </c>
       <c r="AX74" s="13">
         <v>0</v>
       </c>
       <c r="AY74" s="13">
-        <v>0</v>
+        <v>1944491</v>
       </c>
       <c r="AZ74" s="13">
-        <v>1944491</v>
+        <v>2568207</v>
       </c>
       <c r="BA74" s="13">
-        <v>2568207</v>
+        <v>3456472</v>
       </c>
       <c r="BB74" s="13">
-        <v>3399411</v>
+        <v>635557</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10136,8 +10136,8 @@
       <c r="X75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>58</v>
+      <c r="Y75" s="11">
+        <v>0</v>
       </c>
       <c r="Z75" s="11">
         <v>0</v>
@@ -10364,20 +10364,20 @@
       <c r="AU76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV76" s="13" t="s">
-        <v>58</v>
+      <c r="AV76" s="13">
+        <v>586923</v>
       </c>
       <c r="AW76" s="13">
-        <v>586923</v>
+        <v>0</v>
       </c>
       <c r="AX76" s="13">
         <v>0</v>
       </c>
       <c r="AY76" s="13">
-        <v>0</v>
+        <v>67796</v>
       </c>
       <c r="AZ76" s="13">
-        <v>67796</v>
+        <v>0</v>
       </c>
       <c r="BA76" s="13">
         <v>0</v>
@@ -10454,8 +10454,8 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>0</v>
       </c>
       <c r="Z77" s="11">
         <v>0</v>
@@ -10613,8 +10613,8 @@
       <c r="X78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="13" t="s">
-        <v>58</v>
+      <c r="Y78" s="13">
+        <v>0</v>
       </c>
       <c r="Z78" s="13">
         <v>0</v>
@@ -10641,19 +10641,19 @@
         <v>0</v>
       </c>
       <c r="AH78" s="13">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="AI78" s="13">
-        <v>887</v>
+        <v>699302</v>
       </c>
       <c r="AJ78" s="13">
-        <v>699302</v>
+        <v>0</v>
       </c>
       <c r="AK78" s="13">
-        <v>0</v>
+        <v>451702</v>
       </c>
       <c r="AL78" s="13">
-        <v>451702</v>
+        <v>0</v>
       </c>
       <c r="AM78" s="13">
         <v>0</v>
@@ -10662,37 +10662,37 @@
         <v>0</v>
       </c>
       <c r="AO78" s="13">
-        <v>0</v>
+        <v>101423</v>
       </c>
       <c r="AP78" s="13">
-        <v>101423</v>
+        <v>0</v>
       </c>
       <c r="AQ78" s="13">
-        <v>0</v>
+        <v>8965</v>
       </c>
       <c r="AR78" s="13">
-        <v>8965</v>
+        <v>165849</v>
       </c>
       <c r="AS78" s="13">
-        <v>165849</v>
+        <v>227136</v>
       </c>
       <c r="AT78" s="13">
-        <v>227136</v>
+        <v>92935</v>
       </c>
       <c r="AU78" s="13">
-        <v>92935</v>
+        <v>5294</v>
       </c>
       <c r="AV78" s="13">
-        <v>5294</v>
+        <v>17529</v>
       </c>
       <c r="AW78" s="13">
-        <v>17529</v>
+        <v>0</v>
       </c>
       <c r="AX78" s="13">
-        <v>0</v>
+        <v>35055</v>
       </c>
       <c r="AY78" s="13">
-        <v>35055</v>
+        <v>0</v>
       </c>
       <c r="AZ78" s="13">
         <v>0</v>
@@ -10772,17 +10772,17 @@
       <c r="X79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
+      <c r="Y79" s="11">
+        <v>0</v>
       </c>
       <c r="Z79" s="11">
         <v>0</v>
       </c>
       <c r="AA79" s="11">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="AB79" s="11">
-        <v>135000</v>
+        <v>0</v>
       </c>
       <c r="AC79" s="11">
         <v>0</v>
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="AG79" s="11">
-        <v>0</v>
+        <v>166208</v>
       </c>
       <c r="AH79" s="11">
-        <v>166208</v>
+        <v>0</v>
       </c>
       <c r="AI79" s="11">
         <v>0</v>
@@ -10815,10 +10815,10 @@
         <v>0</v>
       </c>
       <c r="AM79" s="11">
-        <v>0</v>
+        <v>1046639</v>
       </c>
       <c r="AN79" s="11">
-        <v>1046639</v>
+        <v>0</v>
       </c>
       <c r="AO79" s="11">
         <v>0</v>
@@ -10827,40 +10827,40 @@
         <v>0</v>
       </c>
       <c r="AQ79" s="11">
-        <v>0</v>
+        <v>106996</v>
       </c>
       <c r="AR79" s="11">
-        <v>106996</v>
+        <v>550188</v>
       </c>
       <c r="AS79" s="11">
-        <v>550188</v>
+        <v>128490</v>
       </c>
       <c r="AT79" s="11">
-        <v>128490</v>
+        <v>0</v>
       </c>
       <c r="AU79" s="11">
-        <v>0</v>
+        <v>368587</v>
       </c>
       <c r="AV79" s="11">
-        <v>368587</v>
+        <v>196807</v>
       </c>
       <c r="AW79" s="11">
-        <v>196807</v>
+        <v>89199</v>
       </c>
       <c r="AX79" s="11">
-        <v>89199</v>
+        <v>943449</v>
       </c>
       <c r="AY79" s="11">
-        <v>943449</v>
+        <v>227228</v>
       </c>
       <c r="AZ79" s="11">
-        <v>227228</v>
+        <v>0</v>
       </c>
       <c r="BA79" s="11">
-        <v>392631</v>
+        <v>275490</v>
       </c>
       <c r="BB79" s="11">
-        <v>275490</v>
+        <v>167013</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10930,94 +10930,94 @@
         <v>0</v>
       </c>
       <c r="Y80" s="15">
-        <v>0</v>
+        <v>10998896</v>
       </c>
       <c r="Z80" s="15">
-        <v>10998896</v>
+        <v>16447195</v>
       </c>
       <c r="AA80" s="15">
-        <v>16447195</v>
+        <v>14417623</v>
       </c>
       <c r="AB80" s="15">
-        <v>14417623</v>
+        <v>19820162</v>
       </c>
       <c r="AC80" s="15">
-        <v>19820162</v>
+        <v>23217111</v>
       </c>
       <c r="AD80" s="15">
-        <v>23217111</v>
+        <v>22626775</v>
       </c>
       <c r="AE80" s="15">
-        <v>22626775</v>
+        <v>24116393</v>
       </c>
       <c r="AF80" s="15">
-        <v>24116393</v>
+        <v>28303949</v>
       </c>
       <c r="AG80" s="15">
-        <v>28303949</v>
+        <v>24691473</v>
       </c>
       <c r="AH80" s="15">
-        <v>24691473</v>
+        <v>25093670</v>
       </c>
       <c r="AI80" s="15">
-        <v>25093670</v>
+        <v>26102257</v>
       </c>
       <c r="AJ80" s="15">
-        <v>26102257</v>
+        <v>27050622</v>
       </c>
       <c r="AK80" s="15">
-        <v>27050622</v>
+        <v>28007205</v>
       </c>
       <c r="AL80" s="15">
-        <v>28007205</v>
+        <v>32935100</v>
       </c>
       <c r="AM80" s="15">
-        <v>32935100</v>
+        <v>40328687</v>
       </c>
       <c r="AN80" s="15">
-        <v>40328687</v>
+        <v>36032694</v>
       </c>
       <c r="AO80" s="15">
-        <v>36032694</v>
+        <v>32719317</v>
       </c>
       <c r="AP80" s="15">
-        <v>32719317</v>
+        <v>34314458</v>
       </c>
       <c r="AQ80" s="15">
-        <v>34314458</v>
+        <v>33467548</v>
       </c>
       <c r="AR80" s="15">
-        <v>33467548</v>
+        <v>26828286</v>
       </c>
       <c r="AS80" s="15">
-        <v>26828286</v>
+        <v>34888185</v>
       </c>
       <c r="AT80" s="15">
-        <v>34888185</v>
+        <v>35332905</v>
       </c>
       <c r="AU80" s="15">
-        <v>35332905</v>
+        <v>37030479</v>
       </c>
       <c r="AV80" s="15">
-        <v>37030479</v>
+        <v>33534167</v>
       </c>
       <c r="AW80" s="15">
-        <v>33534167</v>
+        <v>33750622</v>
       </c>
       <c r="AX80" s="15">
-        <v>33750622</v>
+        <v>16252496</v>
       </c>
       <c r="AY80" s="15">
-        <v>16252496</v>
+        <v>31531315</v>
       </c>
       <c r="AZ80" s="15">
-        <v>31531315</v>
+        <v>27506893</v>
       </c>
       <c r="BA80" s="15">
-        <v>27899524</v>
+        <v>38828657</v>
       </c>
       <c r="BB80" s="15">
-        <v>33438767</v>
+        <v>27988259</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -11154,8 +11154,8 @@
       <c r="AA82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB82" s="11" t="s">
-        <v>58</v>
+      <c r="AB82" s="11">
+        <v>0</v>
       </c>
       <c r="AC82" s="11">
         <v>0</v>
@@ -11208,8 +11208,8 @@
       <c r="AS82" s="11">
         <v>0</v>
       </c>
-      <c r="AT82" s="11">
-        <v>0</v>
+      <c r="AT82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU82" s="11" t="s">
         <v>58</v>
@@ -11304,8 +11304,8 @@
       <c r="X83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="13" t="s">
-        <v>58</v>
+      <c r="Y83" s="13">
+        <v>0</v>
       </c>
       <c r="Z83" s="13">
         <v>0</v>
@@ -11313,8 +11313,8 @@
       <c r="AA83" s="13">
         <v>0</v>
       </c>
-      <c r="AB83" s="13">
-        <v>0</v>
+      <c r="AB83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC83" s="13" t="s">
         <v>58</v>
@@ -11331,8 +11331,8 @@
       <c r="AG83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH83" s="13" t="s">
-        <v>58</v>
+      <c r="AH83" s="13">
+        <v>0</v>
       </c>
       <c r="AI83" s="13">
         <v>0</v>
@@ -11367,8 +11367,8 @@
       <c r="AS83" s="13">
         <v>0</v>
       </c>
-      <c r="AT83" s="13">
-        <v>0</v>
+      <c r="AT83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU83" s="13" t="s">
         <v>58</v>
@@ -11463,8 +11463,8 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
+      <c r="Y84" s="11">
+        <v>0</v>
       </c>
       <c r="Z84" s="11">
         <v>0</v>
@@ -11473,85 +11473,85 @@
         <v>0</v>
       </c>
       <c r="AB84" s="11">
-        <v>0</v>
+        <v>5827781</v>
       </c>
       <c r="AC84" s="11">
-        <v>5827781</v>
+        <v>3079391</v>
       </c>
       <c r="AD84" s="11">
-        <v>3079391</v>
+        <v>3340127</v>
       </c>
       <c r="AE84" s="11">
-        <v>3340127</v>
+        <v>3371882</v>
       </c>
       <c r="AF84" s="11">
-        <v>3371882</v>
+        <v>10837199</v>
       </c>
       <c r="AG84" s="11">
-        <v>10837199</v>
+        <v>7512750</v>
       </c>
       <c r="AH84" s="11">
-        <v>7512750</v>
+        <v>369429</v>
       </c>
       <c r="AI84" s="11">
-        <v>369429</v>
+        <v>0</v>
       </c>
       <c r="AJ84" s="11">
-        <v>0</v>
+        <v>9567970</v>
       </c>
       <c r="AK84" s="11">
-        <v>9567970</v>
+        <v>3932316</v>
       </c>
       <c r="AL84" s="11">
-        <v>3932316</v>
+        <v>7686048</v>
       </c>
       <c r="AM84" s="11">
-        <v>7686048</v>
+        <v>0</v>
       </c>
       <c r="AN84" s="11">
-        <v>0</v>
+        <v>3969788</v>
       </c>
       <c r="AO84" s="11">
-        <v>3969788</v>
+        <v>4446278</v>
       </c>
       <c r="AP84" s="11">
-        <v>4446278</v>
+        <v>4452926</v>
       </c>
       <c r="AQ84" s="11">
-        <v>4452926</v>
+        <v>4115245</v>
       </c>
       <c r="AR84" s="11">
-        <v>4115245</v>
+        <v>4543728</v>
       </c>
       <c r="AS84" s="11">
-        <v>4543728</v>
+        <v>4072694</v>
       </c>
       <c r="AT84" s="11">
-        <v>4072694</v>
+        <v>3727587</v>
       </c>
       <c r="AU84" s="11">
-        <v>3727587</v>
+        <v>4794406</v>
       </c>
       <c r="AV84" s="11">
-        <v>4794406</v>
+        <v>9641547</v>
       </c>
       <c r="AW84" s="11">
-        <v>9641547</v>
+        <v>1109612</v>
       </c>
       <c r="AX84" s="11">
-        <v>1109612</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="11">
         <v>0</v>
       </c>
       <c r="AZ84" s="11">
-        <v>0</v>
+        <v>3792048</v>
       </c>
       <c r="BA84" s="11">
-        <v>3792048</v>
+        <v>4072777</v>
       </c>
       <c r="BB84" s="11">
-        <v>4072777</v>
+        <v>1918237</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11631,8 +11631,8 @@
       <c r="AA85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB85" s="13" t="s">
-        <v>58</v>
+      <c r="AB85" s="13">
+        <v>0</v>
       </c>
       <c r="AC85" s="13">
         <v>0</v>
@@ -11649,8 +11649,8 @@
       <c r="AG85" s="13">
         <v>0</v>
       </c>
-      <c r="AH85" s="13">
-        <v>0</v>
+      <c r="AH85" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI85" s="13" t="s">
         <v>58</v>
@@ -11789,85 +11789,85 @@
         <v>0</v>
       </c>
       <c r="AB86" s="17">
-        <v>0</v>
+        <v>5827781</v>
       </c>
       <c r="AC86" s="17">
-        <v>5827781</v>
+        <v>3079391</v>
       </c>
       <c r="AD86" s="17">
-        <v>3079391</v>
+        <v>3340127</v>
       </c>
       <c r="AE86" s="17">
-        <v>3340127</v>
+        <v>3371882</v>
       </c>
       <c r="AF86" s="17">
-        <v>3371882</v>
+        <v>10837199</v>
       </c>
       <c r="AG86" s="17">
-        <v>10837199</v>
+        <v>7512750</v>
       </c>
       <c r="AH86" s="17">
-        <v>7512750</v>
+        <v>369429</v>
       </c>
       <c r="AI86" s="17">
-        <v>369429</v>
+        <v>0</v>
       </c>
       <c r="AJ86" s="17">
-        <v>0</v>
+        <v>9567970</v>
       </c>
       <c r="AK86" s="17">
-        <v>9567970</v>
+        <v>3932316</v>
       </c>
       <c r="AL86" s="17">
-        <v>3932316</v>
+        <v>7686048</v>
       </c>
       <c r="AM86" s="17">
-        <v>7686048</v>
+        <v>0</v>
       </c>
       <c r="AN86" s="17">
-        <v>0</v>
+        <v>3969788</v>
       </c>
       <c r="AO86" s="17">
-        <v>3969788</v>
+        <v>4446278</v>
       </c>
       <c r="AP86" s="17">
-        <v>4446278</v>
+        <v>4452926</v>
       </c>
       <c r="AQ86" s="17">
-        <v>4452926</v>
+        <v>4115245</v>
       </c>
       <c r="AR86" s="17">
-        <v>4115245</v>
+        <v>4543728</v>
       </c>
       <c r="AS86" s="17">
-        <v>4543728</v>
+        <v>4072694</v>
       </c>
       <c r="AT86" s="17">
-        <v>4072694</v>
+        <v>3727587</v>
       </c>
       <c r="AU86" s="17">
-        <v>3727587</v>
+        <v>4794406</v>
       </c>
       <c r="AV86" s="17">
-        <v>4794406</v>
+        <v>9641547</v>
       </c>
       <c r="AW86" s="17">
-        <v>9641547</v>
+        <v>1109612</v>
       </c>
       <c r="AX86" s="17">
-        <v>1109612</v>
+        <v>0</v>
       </c>
       <c r="AY86" s="17">
         <v>0</v>
       </c>
       <c r="AZ86" s="17">
-        <v>0</v>
+        <v>3792048</v>
       </c>
       <c r="BA86" s="17">
-        <v>3792048</v>
+        <v>4072777</v>
       </c>
       <c r="BB86" s="17">
-        <v>4072777</v>
+        <v>1918237</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12055,11 +12055,11 @@
       <c r="AR88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT88" s="11">
+      <c r="AS88" s="11">
         <v>12945991</v>
+      </c>
+      <c r="AT88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU88" s="11" t="s">
         <v>58</v>
@@ -12154,8 +12154,8 @@
       <c r="X89" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y89" s="15" t="s">
-        <v>58</v>
+      <c r="Y89" s="15">
+        <v>0</v>
       </c>
       <c r="Z89" s="15">
         <v>0</v>
@@ -12215,10 +12215,10 @@
         <v>0</v>
       </c>
       <c r="AS89" s="15">
-        <v>0</v>
+        <v>12945991</v>
       </c>
       <c r="AT89" s="15">
-        <v>12945991</v>
+        <v>0</v>
       </c>
       <c r="AU89" s="15">
         <v>0</v>
@@ -12370,8 +12370,8 @@
       <c r="X91" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y91" s="17" t="s">
-        <v>58</v>
+      <c r="Y91" s="17">
+        <v>0</v>
       </c>
       <c r="Z91" s="17">
         <v>0</v>
@@ -12586,8 +12586,8 @@
       <c r="X93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y93" s="11" t="s">
-        <v>58</v>
+      <c r="Y93" s="11">
+        <v>0</v>
       </c>
       <c r="Z93" s="11">
         <v>0</v>
@@ -12744,94 +12744,94 @@
         <v>0</v>
       </c>
       <c r="Y94" s="15">
-        <v>0</v>
+        <v>10998896</v>
       </c>
       <c r="Z94" s="15">
-        <v>10998896</v>
+        <v>16447195</v>
       </c>
       <c r="AA94" s="15">
-        <v>16447195</v>
+        <v>14417623</v>
       </c>
       <c r="AB94" s="15">
-        <v>14417623</v>
+        <v>25647943</v>
       </c>
       <c r="AC94" s="15">
-        <v>25647943</v>
+        <v>26296502</v>
       </c>
       <c r="AD94" s="15">
-        <v>26296502</v>
+        <v>25966902</v>
       </c>
       <c r="AE94" s="15">
-        <v>25966902</v>
+        <v>27488275</v>
       </c>
       <c r="AF94" s="15">
-        <v>27488275</v>
+        <v>39141148</v>
       </c>
       <c r="AG94" s="15">
-        <v>39141148</v>
+        <v>32204223</v>
       </c>
       <c r="AH94" s="15">
-        <v>32204223</v>
+        <v>25463099</v>
       </c>
       <c r="AI94" s="15">
-        <v>25463099</v>
+        <v>26102257</v>
       </c>
       <c r="AJ94" s="15">
-        <v>26102257</v>
+        <v>36618592</v>
       </c>
       <c r="AK94" s="15">
-        <v>36618592</v>
+        <v>31939521</v>
       </c>
       <c r="AL94" s="15">
-        <v>31939521</v>
+        <v>40621148</v>
       </c>
       <c r="AM94" s="15">
-        <v>40621148</v>
+        <v>40328687</v>
       </c>
       <c r="AN94" s="15">
-        <v>40328687</v>
+        <v>40002482</v>
       </c>
       <c r="AO94" s="15">
-        <v>40002482</v>
+        <v>37165595</v>
       </c>
       <c r="AP94" s="15">
-        <v>37165595</v>
+        <v>38767384</v>
       </c>
       <c r="AQ94" s="15">
-        <v>38767384</v>
+        <v>37582793</v>
       </c>
       <c r="AR94" s="15">
-        <v>37582793</v>
+        <v>31372014</v>
       </c>
       <c r="AS94" s="15">
-        <v>31372014</v>
+        <v>51906870</v>
       </c>
       <c r="AT94" s="15">
-        <v>51906870</v>
+        <v>39060492</v>
       </c>
       <c r="AU94" s="15">
-        <v>39060492</v>
+        <v>41824885</v>
       </c>
       <c r="AV94" s="15">
-        <v>41824885</v>
+        <v>43175714</v>
       </c>
       <c r="AW94" s="15">
-        <v>43175714</v>
+        <v>34860234</v>
       </c>
       <c r="AX94" s="15">
-        <v>34860234</v>
+        <v>16252496</v>
       </c>
       <c r="AY94" s="15">
-        <v>16252496</v>
+        <v>31531315</v>
       </c>
       <c r="AZ94" s="15">
-        <v>31531315</v>
+        <v>31298941</v>
       </c>
       <c r="BA94" s="15">
-        <v>31691572</v>
+        <v>42901434</v>
       </c>
       <c r="BB94" s="15">
-        <v>37511544</v>
+        <v>29906496</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -13339,27 +13339,27 @@
       <c r="Y101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z101" s="11" t="s">
-        <v>58</v>
+      <c r="Z101" s="11">
+        <v>4459534</v>
       </c>
       <c r="AA101" s="11">
-        <v>4459534</v>
+        <v>4459544</v>
       </c>
       <c r="AB101" s="11">
-        <v>4459544</v>
+        <v>4459547</v>
       </c>
       <c r="AC101" s="11">
-        <v>4459547</v>
+        <v>4459541</v>
       </c>
       <c r="AD101" s="11">
-        <v>4459541</v>
+        <v>4459504</v>
       </c>
       <c r="AE101" s="11">
-        <v>4459504</v>
-      </c>
-      <c r="AF101" s="11">
         <v>12009286</v>
       </c>
+      <c r="AF101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AG101" s="11" t="s">
         <v>58</v>
       </c>
@@ -13381,23 +13381,23 @@
       <c r="AM101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN101" s="11" t="s">
-        <v>58</v>
+      <c r="AN101" s="11">
+        <v>17835498</v>
       </c>
       <c r="AO101" s="11">
-        <v>17835498</v>
-      </c>
-      <c r="AP101" s="11">
         <v>18414333</v>
       </c>
-      <c r="AQ101" s="11" t="s">
-        <v>58</v>
+      <c r="AP101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ101" s="11">
+        <v>17000000</v>
       </c>
       <c r="AR101" s="11">
-        <v>17000000</v>
-      </c>
-      <c r="AS101" s="11">
         <v>56353</v>
+      </c>
+      <c r="AS101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT101" s="11" t="s">
         <v>58</v>
@@ -13495,95 +13495,95 @@
       <c r="X102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y102" s="13" t="s">
-        <v>58</v>
+      <c r="Y102" s="13">
+        <v>14594640</v>
       </c>
       <c r="Z102" s="13">
-        <v>14594640</v>
+        <v>14599476</v>
       </c>
       <c r="AA102" s="13">
-        <v>14599476</v>
+        <v>16614066</v>
       </c>
       <c r="AB102" s="13">
-        <v>16614066</v>
+        <v>25160421</v>
       </c>
       <c r="AC102" s="13">
-        <v>25160421</v>
+        <v>27312399</v>
       </c>
       <c r="AD102" s="13">
-        <v>27312399</v>
+        <v>26520626</v>
       </c>
       <c r="AE102" s="13">
-        <v>26520626</v>
+        <v>29432889</v>
       </c>
       <c r="AF102" s="13">
-        <v>29432889</v>
+        <v>31074721</v>
       </c>
       <c r="AG102" s="13">
-        <v>31074721</v>
+        <v>31291082</v>
       </c>
       <c r="AH102" s="13">
-        <v>31291082</v>
+        <v>31291015</v>
       </c>
       <c r="AI102" s="13">
-        <v>31291015</v>
+        <v>34251040</v>
       </c>
       <c r="AJ102" s="13">
-        <v>34251040</v>
+        <v>35630976</v>
       </c>
       <c r="AK102" s="13">
-        <v>35630976</v>
+        <v>39789865</v>
       </c>
       <c r="AL102" s="13">
-        <v>39789865</v>
+        <v>42815593</v>
       </c>
       <c r="AM102" s="13">
-        <v>42815593</v>
+        <v>44392169</v>
       </c>
       <c r="AN102" s="13">
-        <v>44392169</v>
+        <v>41617257</v>
       </c>
       <c r="AO102" s="13">
-        <v>41617257</v>
+        <v>42966607</v>
       </c>
       <c r="AP102" s="13">
-        <v>42966607</v>
+        <v>41998835</v>
       </c>
       <c r="AQ102" s="13">
-        <v>41998835</v>
+        <v>41312398</v>
       </c>
       <c r="AR102" s="13">
-        <v>41312398</v>
+        <v>38720509</v>
       </c>
       <c r="AS102" s="13">
-        <v>38720509</v>
+        <v>40013870</v>
       </c>
       <c r="AT102" s="13">
-        <v>40013870</v>
+        <v>41327066</v>
       </c>
       <c r="AU102" s="13">
-        <v>41327066</v>
+        <v>43679008</v>
       </c>
       <c r="AV102" s="13">
-        <v>43679008</v>
+        <v>41073684</v>
       </c>
       <c r="AW102" s="13">
-        <v>41073684</v>
+        <v>40775677</v>
       </c>
       <c r="AX102" s="13">
-        <v>40775677</v>
+        <v>26721419</v>
       </c>
       <c r="AY102" s="13">
-        <v>26721419</v>
+        <v>29319775</v>
       </c>
       <c r="AZ102" s="13">
-        <v>29319775</v>
+        <v>27699967</v>
       </c>
       <c r="BA102" s="13">
-        <v>27699967</v>
+        <v>29539882</v>
       </c>
       <c r="BB102" s="13">
-        <v>29222034</v>
+        <v>30360870</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13654,95 +13654,95 @@
       <c r="X103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="11" t="s">
-        <v>58</v>
+      <c r="Y103" s="11">
+        <v>9524851</v>
       </c>
       <c r="Z103" s="11">
-        <v>9524851</v>
+        <v>9434698</v>
       </c>
       <c r="AA103" s="11">
-        <v>9434698</v>
+        <v>11414812</v>
       </c>
       <c r="AB103" s="11">
-        <v>11414812</v>
+        <v>16840821</v>
       </c>
       <c r="AC103" s="11">
-        <v>16840821</v>
+        <v>18265756</v>
       </c>
       <c r="AD103" s="11">
-        <v>18265756</v>
+        <v>17754028</v>
       </c>
       <c r="AE103" s="11">
-        <v>17754028</v>
+        <v>19732752</v>
       </c>
       <c r="AF103" s="11">
-        <v>19732752</v>
+        <v>20635759</v>
       </c>
       <c r="AG103" s="11">
-        <v>20635759</v>
+        <v>20751798</v>
       </c>
       <c r="AH103" s="11">
-        <v>20751798</v>
+        <v>21697693</v>
       </c>
       <c r="AI103" s="11">
-        <v>21697693</v>
+        <v>22737982</v>
       </c>
       <c r="AJ103" s="11">
-        <v>22737982</v>
+        <v>25450442</v>
       </c>
       <c r="AK103" s="11">
-        <v>25450442</v>
+        <v>28421239</v>
       </c>
       <c r="AL103" s="11">
-        <v>28421239</v>
+        <v>30582623</v>
       </c>
       <c r="AM103" s="11">
-        <v>30582623</v>
+        <v>31072772</v>
       </c>
       <c r="AN103" s="11">
-        <v>31072772</v>
+        <v>29726523</v>
       </c>
       <c r="AO103" s="11">
-        <v>29726523</v>
+        <v>30690510</v>
       </c>
       <c r="AP103" s="11">
-        <v>30690510</v>
+        <v>29630234</v>
       </c>
       <c r="AQ103" s="11">
-        <v>29630234</v>
+        <v>29508828</v>
       </c>
       <c r="AR103" s="11">
-        <v>29508828</v>
+        <v>27368622</v>
       </c>
       <c r="AS103" s="11">
-        <v>27368622</v>
+        <v>28581335</v>
       </c>
       <c r="AT103" s="11">
-        <v>28581335</v>
+        <v>28043259</v>
       </c>
       <c r="AU103" s="11">
-        <v>28043259</v>
+        <v>32546896</v>
       </c>
       <c r="AV103" s="11">
-        <v>32546896</v>
+        <v>32479015</v>
       </c>
       <c r="AW103" s="11">
-        <v>32479015</v>
+        <v>30888249</v>
       </c>
       <c r="AX103" s="11">
-        <v>30888249</v>
+        <v>25023168</v>
       </c>
       <c r="AY103" s="11">
-        <v>25023168</v>
+        <v>26800207</v>
       </c>
       <c r="AZ103" s="11">
-        <v>26800207</v>
+        <v>23166859</v>
       </c>
       <c r="BA103" s="11">
-        <v>23166859</v>
+        <v>27286750</v>
       </c>
       <c r="BB103" s="11">
-        <v>24862875</v>
+        <v>26881346</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -13813,95 +13813,95 @@
       <c r="X104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="13" t="s">
-        <v>58</v>
+      <c r="Y104" s="13">
+        <v>7154902</v>
       </c>
       <c r="Z104" s="13">
-        <v>7154902</v>
+        <v>4008333</v>
       </c>
       <c r="AA104" s="13">
-        <v>4008333</v>
-      </c>
-      <c r="AB104" s="13">
         <v>3599830</v>
       </c>
-      <c r="AC104" s="13" t="s">
-        <v>58</v>
+      <c r="AB104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC104" s="13">
+        <v>7201966</v>
       </c>
       <c r="AD104" s="13">
-        <v>7201966</v>
+        <v>5924177</v>
       </c>
       <c r="AE104" s="13">
-        <v>5924177</v>
+        <v>21000312</v>
       </c>
       <c r="AF104" s="13">
-        <v>21000312</v>
+        <v>20996405</v>
       </c>
       <c r="AG104" s="13">
-        <v>20996405</v>
+        <v>21000000</v>
       </c>
       <c r="AH104" s="13">
         <v>21000000</v>
       </c>
       <c r="AI104" s="13">
-        <v>21000000</v>
-      </c>
-      <c r="AJ104" s="13">
         <v>14906863</v>
       </c>
-      <c r="AK104" s="13" t="s">
-        <v>58</v>
+      <c r="AJ104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK104" s="13">
+        <v>21000604</v>
       </c>
       <c r="AL104" s="13">
-        <v>21000604</v>
+        <v>21007241</v>
       </c>
       <c r="AM104" s="13">
-        <v>21007241</v>
+        <v>18341416</v>
       </c>
       <c r="AN104" s="13">
-        <v>18341416</v>
+        <v>21000022</v>
       </c>
       <c r="AO104" s="13">
-        <v>21000022</v>
+        <v>18844961</v>
       </c>
       <c r="AP104" s="13">
-        <v>18844961</v>
+        <v>16598578</v>
       </c>
       <c r="AQ104" s="13">
-        <v>16598578</v>
+        <v>18054537</v>
       </c>
       <c r="AR104" s="13">
-        <v>18054537</v>
+        <v>17270332</v>
       </c>
       <c r="AS104" s="13">
-        <v>17270332</v>
+        <v>32459815</v>
       </c>
       <c r="AT104" s="13">
-        <v>32459815</v>
+        <v>17149068</v>
       </c>
       <c r="AU104" s="13">
-        <v>17149068</v>
+        <v>20743259</v>
       </c>
       <c r="AV104" s="13">
-        <v>20743259</v>
+        <v>24202288</v>
       </c>
       <c r="AW104" s="13">
-        <v>24202288</v>
+        <v>20870168</v>
       </c>
       <c r="AX104" s="13">
-        <v>20870168</v>
+        <v>22424240</v>
       </c>
       <c r="AY104" s="13">
-        <v>22424240</v>
+        <v>22311535</v>
       </c>
       <c r="AZ104" s="13">
-        <v>22311535</v>
+        <v>21173622</v>
       </c>
       <c r="BA104" s="13">
-        <v>21173622</v>
-      </c>
-      <c r="BB104" s="13">
-        <v>21342716</v>
+        <v>26102089</v>
+      </c>
+      <c r="BB104" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.3">
@@ -13972,95 +13972,95 @@
       <c r="X105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>58</v>
+      <c r="Y105" s="11">
+        <v>60578165</v>
       </c>
       <c r="Z105" s="11">
-        <v>60578165</v>
+        <v>70559053</v>
       </c>
       <c r="AA105" s="11">
-        <v>70559053</v>
+        <v>83895323</v>
       </c>
       <c r="AB105" s="11">
-        <v>83895323</v>
+        <v>96898785</v>
       </c>
       <c r="AC105" s="11">
-        <v>96898785</v>
+        <v>100690123</v>
       </c>
       <c r="AD105" s="11">
-        <v>100690123</v>
+        <v>100697587</v>
       </c>
       <c r="AE105" s="11">
-        <v>100697587</v>
+        <v>103285714</v>
       </c>
       <c r="AF105" s="11">
-        <v>103285714</v>
+        <v>109783343</v>
       </c>
       <c r="AG105" s="11">
-        <v>109783343</v>
+        <v>105386095</v>
       </c>
       <c r="AH105" s="11">
-        <v>105386095</v>
+        <v>107107617</v>
       </c>
       <c r="AI105" s="11">
-        <v>107107617</v>
+        <v>111494722</v>
       </c>
       <c r="AJ105" s="11">
-        <v>111494722</v>
+        <v>120205615</v>
       </c>
       <c r="AK105" s="11">
-        <v>120205615</v>
+        <v>130170727</v>
       </c>
       <c r="AL105" s="11">
-        <v>130170727</v>
+        <v>132445296</v>
       </c>
       <c r="AM105" s="11">
-        <v>132445296</v>
+        <v>132650046</v>
       </c>
       <c r="AN105" s="11">
-        <v>132650046</v>
+        <v>125597637</v>
       </c>
       <c r="AO105" s="11">
-        <v>125597637</v>
+        <v>128045990</v>
       </c>
       <c r="AP105" s="11">
-        <v>128045990</v>
+        <v>135375175</v>
       </c>
       <c r="AQ105" s="11">
-        <v>135375175</v>
+        <v>126857987</v>
       </c>
       <c r="AR105" s="11">
-        <v>126857987</v>
+        <v>126584687</v>
       </c>
       <c r="AS105" s="11">
-        <v>126584687</v>
+        <v>132325763</v>
       </c>
       <c r="AT105" s="11">
-        <v>132325763</v>
+        <v>149732947</v>
       </c>
       <c r="AU105" s="11">
-        <v>149732947</v>
+        <v>155736566</v>
       </c>
       <c r="AV105" s="11">
-        <v>155736566</v>
+        <v>151025301</v>
       </c>
       <c r="AW105" s="11">
-        <v>151025301</v>
+        <v>144612218</v>
       </c>
       <c r="AX105" s="11">
-        <v>144612218</v>
+        <v>136049064</v>
       </c>
       <c r="AY105" s="11">
-        <v>136049064</v>
+        <v>134132262</v>
       </c>
       <c r="AZ105" s="11">
-        <v>134132262</v>
+        <v>136205241</v>
       </c>
       <c r="BA105" s="11">
-        <v>136205241</v>
+        <v>141201543</v>
       </c>
       <c r="BB105" s="11">
-        <v>141205917</v>
+        <v>143069468</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14131,95 +14131,95 @@
       <c r="X106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y106" s="13" t="s">
-        <v>58</v>
+      <c r="Y106" s="13">
+        <v>29524702</v>
       </c>
       <c r="Z106" s="13">
-        <v>29524702</v>
+        <v>46041667</v>
       </c>
       <c r="AA106" s="13">
-        <v>46041667</v>
+        <v>37832462</v>
       </c>
       <c r="AB106" s="13">
-        <v>37832462</v>
+        <v>40267450</v>
       </c>
       <c r="AC106" s="13">
-        <v>40267450</v>
+        <v>40402438</v>
       </c>
       <c r="AD106" s="13">
-        <v>40402438</v>
+        <v>50684696</v>
       </c>
       <c r="AE106" s="13">
-        <v>50684696</v>
+        <v>51030624</v>
       </c>
       <c r="AF106" s="13">
-        <v>51030624</v>
+        <v>51968822</v>
       </c>
       <c r="AG106" s="13">
-        <v>51968822</v>
+        <v>61853466</v>
       </c>
       <c r="AH106" s="13">
-        <v>61853466</v>
+        <v>67508947</v>
       </c>
       <c r="AI106" s="13">
-        <v>67508947</v>
+        <v>68040353</v>
       </c>
       <c r="AJ106" s="13">
-        <v>68040353</v>
+        <v>72566191</v>
       </c>
       <c r="AK106" s="13">
-        <v>72566191</v>
+        <v>80152215</v>
       </c>
       <c r="AL106" s="13">
-        <v>80152215</v>
+        <v>76484013</v>
       </c>
       <c r="AM106" s="13">
-        <v>76484013</v>
+        <v>82405311</v>
       </c>
       <c r="AN106" s="13">
-        <v>82405311</v>
+        <v>80519799</v>
       </c>
       <c r="AO106" s="13">
-        <v>80519799</v>
+        <v>78558085</v>
       </c>
       <c r="AP106" s="13">
-        <v>78558085</v>
+        <v>79598813</v>
       </c>
       <c r="AQ106" s="13">
-        <v>79598813</v>
+        <v>82891618</v>
       </c>
       <c r="AR106" s="13">
-        <v>82891618</v>
-      </c>
-      <c r="AS106" s="13">
         <v>-56599</v>
       </c>
+      <c r="AS106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU106" s="13" t="s">
-        <v>58</v>
+      <c r="AU106" s="13">
+        <v>93980714</v>
       </c>
       <c r="AV106" s="13">
-        <v>93980714</v>
+        <v>93964884</v>
       </c>
       <c r="AW106" s="13">
-        <v>93964884</v>
+        <v>0</v>
       </c>
       <c r="AX106" s="13">
         <v>0</v>
       </c>
       <c r="AY106" s="13">
-        <v>0</v>
+        <v>75773167</v>
       </c>
       <c r="AZ106" s="13">
-        <v>75773167</v>
+        <v>74035198</v>
       </c>
       <c r="BA106" s="13">
-        <v>74035198</v>
+        <v>75407902</v>
       </c>
       <c r="BB106" s="13">
-        <v>74163034</v>
+        <v>74473518</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -14290,8 +14290,8 @@
       <c r="X107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y107" s="11" t="s">
-        <v>58</v>
+      <c r="Y107" s="11">
+        <v>0</v>
       </c>
       <c r="Z107" s="11">
         <v>0</v>
@@ -14350,29 +14350,29 @@
       <c r="AR107" s="11">
         <v>0</v>
       </c>
-      <c r="AS107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT107" s="11" t="s">
-        <v>58</v>
+      <c r="AS107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT107" s="11">
+        <v>0</v>
       </c>
       <c r="AU107" s="11">
         <v>0</v>
       </c>
-      <c r="AV107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW107" s="11" t="s">
-        <v>58</v>
+      <c r="AV107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW107" s="11">
+        <v>0</v>
       </c>
       <c r="AX107" s="11">
         <v>0</v>
       </c>
-      <c r="AY107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ107" s="11" t="s">
-        <v>58</v>
+      <c r="AY107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ107" s="11">
+        <v>0</v>
       </c>
       <c r="BA107" s="11">
         <v>0</v>
@@ -14449,8 +14449,8 @@
       <c r="X108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y108" s="13" t="s">
-        <v>58</v>
+      <c r="Y108" s="13">
+        <v>0</v>
       </c>
       <c r="Z108" s="13">
         <v>0</v>
@@ -14509,29 +14509,29 @@
       <c r="AR108" s="13">
         <v>0</v>
       </c>
-      <c r="AS108" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT108" s="13" t="s">
-        <v>58</v>
+      <c r="AS108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT108" s="13">
+        <v>0</v>
       </c>
       <c r="AU108" s="13">
         <v>0</v>
       </c>
-      <c r="AV108" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW108" s="13" t="s">
-        <v>58</v>
+      <c r="AV108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW108" s="13">
+        <v>0</v>
       </c>
       <c r="AX108" s="13">
         <v>0</v>
       </c>
-      <c r="AY108" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ108" s="13" t="s">
-        <v>58</v>
+      <c r="AY108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ108" s="13">
+        <v>0</v>
       </c>
       <c r="BA108" s="13">
         <v>0</v>
@@ -14635,59 +14635,59 @@
       <c r="AG109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH109" s="11" t="s">
-        <v>58</v>
+      <c r="AH109" s="11">
+        <v>12492958</v>
       </c>
       <c r="AI109" s="11">
-        <v>12492958</v>
-      </c>
-      <c r="AJ109" s="11">
         <v>12500036</v>
       </c>
-      <c r="AK109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL109" s="11">
+      <c r="AJ109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK109" s="11">
         <v>12500055</v>
       </c>
+      <c r="AL109" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM109" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AN109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP109" s="11">
+      <c r="AO109" s="11">
         <v>12501294</v>
       </c>
-      <c r="AQ109" s="11" t="s">
-        <v>58</v>
+      <c r="AP109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ109" s="11">
+        <v>14506472</v>
       </c>
       <c r="AR109" s="11">
-        <v>14506472</v>
+        <v>14500703</v>
       </c>
       <c r="AS109" s="11">
-        <v>14500703</v>
+        <v>12071429</v>
       </c>
       <c r="AT109" s="11">
-        <v>12071429</v>
+        <v>16396436</v>
       </c>
       <c r="AU109" s="11">
-        <v>16396436</v>
+        <v>12870859</v>
       </c>
       <c r="AV109" s="11">
-        <v>12870859</v>
+        <v>21481618</v>
       </c>
       <c r="AW109" s="11">
-        <v>21481618</v>
+        <v>0</v>
       </c>
       <c r="AX109" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY109" s="11">
         <v>16468285</v>
+      </c>
+      <c r="AY109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ109" s="11" t="s">
         <v>58</v>
@@ -14773,12 +14773,12 @@
       <c r="Z110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB110" s="13">
+      <c r="AA110" s="13">
         <v>667728</v>
       </c>
+      <c r="AB110" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC110" s="13" t="s">
         <v>58</v>
       </c>
@@ -14791,12 +14791,12 @@
       <c r="AF110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH110" s="13">
+      <c r="AG110" s="13">
         <v>499872</v>
       </c>
+      <c r="AH110" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI110" s="13" t="s">
         <v>58</v>
       </c>
@@ -14821,41 +14821,41 @@
       <c r="AP110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ110" s="13" t="s">
-        <v>58</v>
+      <c r="AQ110" s="13">
+        <v>698932</v>
       </c>
       <c r="AR110" s="13">
-        <v>698932</v>
+        <v>948563</v>
       </c>
       <c r="AS110" s="13">
-        <v>948563</v>
-      </c>
-      <c r="AT110" s="13">
         <v>85098</v>
       </c>
-      <c r="AU110" s="13" t="s">
-        <v>58</v>
+      <c r="AT110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU110" s="13">
+        <v>0</v>
       </c>
       <c r="AV110" s="13">
-        <v>0</v>
+        <v>1294757</v>
       </c>
       <c r="AW110" s="13">
-        <v>1294757</v>
+        <v>4230</v>
       </c>
       <c r="AX110" s="13">
-        <v>4230</v>
+        <v>1806029</v>
       </c>
       <c r="AY110" s="13">
-        <v>1806029</v>
-      </c>
-      <c r="AZ110" s="13">
         <v>1331123</v>
       </c>
+      <c r="AZ110" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="BA110" s="13">
-        <v>-347574</v>
+        <v>1270863</v>
       </c>
       <c r="BB110" s="13">
-        <v>1270863</v>
+        <v>1048458</v>
       </c>
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.3">
@@ -14992,86 +14992,86 @@
       <c r="AA112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB112" s="11" t="s">
-        <v>58</v>
+      <c r="AB112" s="11">
+        <v>91450601</v>
       </c>
       <c r="AC112" s="11">
-        <v>91450601</v>
+        <v>102879560</v>
       </c>
       <c r="AD112" s="11">
-        <v>102879560</v>
+        <v>108301514</v>
       </c>
       <c r="AE112" s="11">
-        <v>108301514</v>
+        <v>112396067</v>
       </c>
       <c r="AF112" s="11">
-        <v>112396067</v>
+        <v>120452135</v>
       </c>
       <c r="AG112" s="11">
-        <v>120452135</v>
+        <v>125254251</v>
       </c>
       <c r="AH112" s="11">
-        <v>125254251</v>
-      </c>
-      <c r="AI112" s="11">
         <v>123143000</v>
       </c>
-      <c r="AJ112" s="11" t="s">
-        <v>58</v>
+      <c r="AI112" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ112" s="11">
+        <v>122700890</v>
       </c>
       <c r="AK112" s="11">
-        <v>122700890</v>
+        <v>124851283</v>
       </c>
       <c r="AL112" s="11">
-        <v>124851283</v>
-      </c>
-      <c r="AM112" s="11">
         <v>128122154</v>
       </c>
-      <c r="AN112" s="11" t="s">
-        <v>58</v>
+      <c r="AM112" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN112" s="11">
+        <v>132321856</v>
       </c>
       <c r="AO112" s="11">
-        <v>132321856</v>
+        <v>147437676</v>
       </c>
       <c r="AP112" s="11">
-        <v>147437676</v>
+        <v>146980658</v>
       </c>
       <c r="AQ112" s="11">
-        <v>146980658</v>
+        <v>137248032</v>
       </c>
       <c r="AR112" s="11">
-        <v>137248032</v>
+        <v>137688727</v>
       </c>
       <c r="AS112" s="11">
-        <v>137688727</v>
+        <v>135765518</v>
       </c>
       <c r="AT112" s="11">
-        <v>135765518</v>
+        <v>122763371</v>
       </c>
       <c r="AU112" s="11">
-        <v>122763371</v>
+        <v>158655349</v>
       </c>
       <c r="AV112" s="11">
-        <v>158655349</v>
+        <v>160246431</v>
       </c>
       <c r="AW112" s="11">
-        <v>160246431</v>
+        <v>169406412</v>
       </c>
       <c r="AX112" s="11">
-        <v>169406412</v>
-      </c>
-      <c r="AY112" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ112" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AY112" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ112" s="11">
+        <v>126405814</v>
       </c>
       <c r="BA112" s="11">
-        <v>126405814</v>
+        <v>123454895</v>
       </c>
       <c r="BB112" s="11">
-        <v>123454895</v>
+        <v>126758541</v>
       </c>
     </row>
     <row r="113" spans="2:54" x14ac:dyDescent="0.3">
@@ -15259,11 +15259,11 @@
       <c r="AR114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT114" s="11">
-        <v>0</v>
+      <c r="AS114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT114" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU114" s="11" t="s">
         <v>58</v>

--- a/database/industries/folad/kechad/product/monthly_seprated.xlsx
+++ b/database/industries/folad/kechad/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kechad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD6CAA7-F7E9-4DAB-99D8-99601372EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B9BCBC-B189-4BED-841C-28E61DEC1DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -793,12 +793,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -853,7 +853,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1191,7 +1191,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1522,29 +1522,29 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>30750</v>
+      </c>
+      <c r="X11" s="11">
+        <v>30825</v>
       </c>
       <c r="Y11" s="11">
-        <v>30750</v>
+        <v>31575</v>
       </c>
       <c r="Z11" s="11">
-        <v>30825</v>
+        <v>31500</v>
       </c>
       <c r="AA11" s="11">
-        <v>31575</v>
+        <v>31500</v>
       </c>
       <c r="AB11" s="11">
-        <v>31500</v>
+        <v>19472</v>
       </c>
       <c r="AC11" s="11">
-        <v>31500</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="11">
-        <v>19472</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="11">
         <v>0</v>
@@ -1552,29 +1552,29 @@
       <c r="AF11" s="11">
         <v>0</v>
       </c>
-      <c r="AG11" s="11">
-        <v>0</v>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH11" s="11">
         <v>0</v>
       </c>
-      <c r="AI11" s="11" t="s">
-        <v>58</v>
+      <c r="AI11" s="11">
+        <v>0</v>
       </c>
       <c r="AJ11" s="11">
         <v>0</v>
       </c>
-      <c r="AK11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>58</v>
+      <c r="AK11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0</v>
       </c>
       <c r="AO11" s="11">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1681,104 +1681,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>328099</v>
+      </c>
+      <c r="X12" s="13">
+        <v>334795</v>
       </c>
       <c r="Y12" s="13">
-        <v>328099</v>
+        <v>341465</v>
       </c>
       <c r="Z12" s="13">
-        <v>334795</v>
+        <v>306003</v>
       </c>
       <c r="AA12" s="13">
-        <v>341465</v>
+        <v>278359</v>
       </c>
       <c r="AB12" s="13">
-        <v>306003</v>
+        <v>295020</v>
       </c>
       <c r="AC12" s="13">
-        <v>278359</v>
+        <v>329188</v>
       </c>
       <c r="AD12" s="13">
-        <v>295020</v>
+        <v>335894</v>
       </c>
       <c r="AE12" s="13">
-        <v>329188</v>
+        <v>310803</v>
       </c>
       <c r="AF12" s="13">
-        <v>335894</v>
+        <v>278428</v>
       </c>
       <c r="AG12" s="13">
-        <v>310803</v>
+        <v>343838</v>
       </c>
       <c r="AH12" s="13">
-        <v>278428</v>
+        <v>68654</v>
       </c>
       <c r="AI12" s="13">
-        <v>343838</v>
+        <v>286498</v>
       </c>
       <c r="AJ12" s="13">
-        <v>68654</v>
+        <v>367954</v>
       </c>
       <c r="AK12" s="13">
-        <v>286498</v>
+        <v>368522</v>
       </c>
       <c r="AL12" s="13">
-        <v>367954</v>
+        <v>370603</v>
       </c>
       <c r="AM12" s="13">
-        <v>368522</v>
+        <v>344629</v>
       </c>
       <c r="AN12" s="13">
-        <v>370603</v>
+        <v>334942</v>
       </c>
       <c r="AO12" s="13">
-        <v>344629</v>
+        <v>388118</v>
       </c>
       <c r="AP12" s="13">
-        <v>334942</v>
+        <v>332414</v>
       </c>
       <c r="AQ12" s="13">
-        <v>388118</v>
+        <v>324997</v>
       </c>
       <c r="AR12" s="13">
-        <v>332414</v>
+        <v>393264</v>
       </c>
       <c r="AS12" s="13">
-        <v>324997</v>
+        <v>395162</v>
       </c>
       <c r="AT12" s="13">
-        <v>393264</v>
+        <v>396524</v>
       </c>
       <c r="AU12" s="13">
-        <v>395162</v>
+        <v>690</v>
       </c>
       <c r="AV12" s="13">
-        <v>396524</v>
+        <v>250670</v>
       </c>
       <c r="AW12" s="13">
-        <v>690</v>
+        <v>393617</v>
       </c>
       <c r="AX12" s="13">
-        <v>250670</v>
+        <v>381018</v>
       </c>
       <c r="AY12" s="13">
-        <v>393617</v>
+        <v>374932</v>
       </c>
       <c r="AZ12" s="13">
-        <v>381018</v>
+        <v>366624</v>
       </c>
       <c r="BA12" s="13">
-        <v>374932</v>
+        <v>309373</v>
       </c>
       <c r="BB12" s="13">
-        <v>366624</v>
+        <v>133510</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1840,104 +1840,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>890890</v>
+      </c>
+      <c r="X13" s="11">
+        <v>957594</v>
       </c>
       <c r="Y13" s="11">
-        <v>890890</v>
+        <v>795743</v>
       </c>
       <c r="Z13" s="11">
-        <v>957594</v>
+        <v>859658</v>
       </c>
       <c r="AA13" s="11">
-        <v>795743</v>
+        <v>1003908</v>
       </c>
       <c r="AB13" s="11">
-        <v>859658</v>
+        <v>883640</v>
       </c>
       <c r="AC13" s="11">
-        <v>1003908</v>
+        <v>886252</v>
       </c>
       <c r="AD13" s="11">
-        <v>883640</v>
+        <v>895984</v>
       </c>
       <c r="AE13" s="11">
-        <v>886252</v>
+        <v>879248</v>
       </c>
       <c r="AF13" s="11">
-        <v>895984</v>
+        <v>862967</v>
       </c>
       <c r="AG13" s="11">
-        <v>879248</v>
+        <v>925235</v>
       </c>
       <c r="AH13" s="11">
-        <v>862967</v>
+        <v>1039936</v>
       </c>
       <c r="AI13" s="11">
-        <v>925235</v>
+        <v>928134</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1039936</v>
+        <v>919854</v>
       </c>
       <c r="AK13" s="11">
-        <v>928134</v>
+        <v>940094</v>
       </c>
       <c r="AL13" s="11">
-        <v>919854</v>
+        <v>896262</v>
       </c>
       <c r="AM13" s="11">
-        <v>940094</v>
+        <v>945244</v>
       </c>
       <c r="AN13" s="11">
-        <v>896262</v>
+        <v>885132</v>
       </c>
       <c r="AO13" s="11">
-        <v>945244</v>
+        <v>877087</v>
       </c>
       <c r="AP13" s="11">
-        <v>885132</v>
+        <v>925572</v>
       </c>
       <c r="AQ13" s="11">
-        <v>877087</v>
+        <v>876760</v>
       </c>
       <c r="AR13" s="11">
-        <v>925572</v>
+        <v>916434</v>
       </c>
       <c r="AS13" s="11">
-        <v>876760</v>
+        <v>961840</v>
       </c>
       <c r="AT13" s="11">
-        <v>916434</v>
+        <v>794876</v>
       </c>
       <c r="AU13" s="11">
-        <v>970646</v>
+        <v>653562</v>
       </c>
       <c r="AV13" s="11">
-        <v>794876</v>
+        <v>790247</v>
       </c>
       <c r="AW13" s="11">
-        <v>653562</v>
+        <v>767240</v>
       </c>
       <c r="AX13" s="11">
-        <v>790247</v>
+        <v>863908</v>
       </c>
       <c r="AY13" s="11">
-        <v>767240</v>
+        <v>867784</v>
       </c>
       <c r="AZ13" s="11">
-        <v>863908</v>
+        <v>934499</v>
       </c>
       <c r="BA13" s="11">
-        <v>867784</v>
+        <v>796500</v>
       </c>
       <c r="BB13" s="11">
-        <v>934499</v>
+        <v>861717</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1999,104 +1999,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>3822</v>
+      </c>
+      <c r="X14" s="13">
+        <v>9439</v>
       </c>
       <c r="Y14" s="13">
-        <v>3822</v>
+        <v>5730</v>
       </c>
       <c r="Z14" s="13">
-        <v>9439</v>
+        <v>6341</v>
       </c>
       <c r="AA14" s="13">
-        <v>5730</v>
+        <v>7281</v>
       </c>
       <c r="AB14" s="13">
-        <v>6341</v>
+        <v>2632</v>
       </c>
       <c r="AC14" s="13">
-        <v>7281</v>
+        <v>8109</v>
       </c>
       <c r="AD14" s="13">
-        <v>2632</v>
+        <v>4435</v>
       </c>
       <c r="AE14" s="13">
-        <v>8109</v>
+        <v>3983</v>
       </c>
       <c r="AF14" s="13">
-        <v>4435</v>
+        <v>843</v>
       </c>
       <c r="AG14" s="13">
-        <v>3983</v>
+        <v>4668</v>
       </c>
       <c r="AH14" s="13">
-        <v>843</v>
+        <v>10867</v>
       </c>
       <c r="AI14" s="13">
-        <v>4668</v>
+        <v>10227</v>
       </c>
       <c r="AJ14" s="13">
-        <v>10867</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>10227</v>
+        <v>9582</v>
+      </c>
+      <c r="AK14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL14" s="13">
-        <v>9582</v>
-      </c>
-      <c r="AM14" s="13" t="s">
-        <v>58</v>
+        <v>2544</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>3773</v>
       </c>
       <c r="AN14" s="13">
-        <v>2544</v>
+        <v>1597</v>
       </c>
       <c r="AO14" s="13">
-        <v>3773</v>
+        <v>5913</v>
       </c>
       <c r="AP14" s="13">
-        <v>1597</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5913</v>
+        <v>30998</v>
       </c>
       <c r="AR14" s="13">
-        <v>0</v>
+        <v>3352</v>
       </c>
       <c r="AS14" s="13">
-        <v>30998</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="13">
-        <v>3352</v>
+        <v>6437</v>
       </c>
       <c r="AU14" s="13">
-        <v>655</v>
+        <v>4238</v>
       </c>
       <c r="AV14" s="13">
-        <v>6437</v>
+        <v>5858</v>
       </c>
       <c r="AW14" s="13">
-        <v>4238</v>
+        <v>5666</v>
       </c>
       <c r="AX14" s="13">
-        <v>5858</v>
+        <v>5809</v>
       </c>
       <c r="AY14" s="13">
-        <v>5666</v>
+        <v>5765</v>
       </c>
       <c r="AZ14" s="13">
-        <v>5809</v>
+        <v>15419</v>
       </c>
       <c r="BA14" s="13">
-        <v>4339</v>
+        <v>6786</v>
       </c>
       <c r="BB14" s="13">
-        <v>15419</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2158,104 +2158,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>73984</v>
+      </c>
+      <c r="X15" s="11">
+        <v>65365</v>
       </c>
       <c r="Y15" s="11">
-        <v>73984</v>
+        <v>85628</v>
       </c>
       <c r="Z15" s="11">
-        <v>65365</v>
+        <v>78693</v>
       </c>
       <c r="AA15" s="11">
-        <v>85628</v>
+        <v>94386</v>
       </c>
       <c r="AB15" s="11">
-        <v>78693</v>
+        <v>93249</v>
       </c>
       <c r="AC15" s="11">
-        <v>94386</v>
+        <v>87025</v>
       </c>
       <c r="AD15" s="11">
-        <v>93249</v>
+        <v>95122</v>
       </c>
       <c r="AE15" s="11">
-        <v>87025</v>
+        <v>97881</v>
       </c>
       <c r="AF15" s="11">
-        <v>95122</v>
+        <v>105435</v>
       </c>
       <c r="AG15" s="11">
-        <v>97881</v>
+        <v>99174</v>
       </c>
       <c r="AH15" s="11">
-        <v>105435</v>
+        <v>101603</v>
       </c>
       <c r="AI15" s="11">
-        <v>99174</v>
+        <v>49773</v>
       </c>
       <c r="AJ15" s="11">
-        <v>101603</v>
+        <v>36472</v>
       </c>
       <c r="AK15" s="11">
-        <v>49773</v>
+        <v>63803</v>
       </c>
       <c r="AL15" s="11">
-        <v>36472</v>
+        <v>94137</v>
       </c>
       <c r="AM15" s="11">
-        <v>63803</v>
+        <v>101456</v>
       </c>
       <c r="AN15" s="11">
-        <v>94137</v>
+        <v>107576</v>
       </c>
       <c r="AO15" s="11">
-        <v>101456</v>
+        <v>102471</v>
       </c>
       <c r="AP15" s="11">
-        <v>107576</v>
+        <v>88471</v>
       </c>
       <c r="AQ15" s="11">
-        <v>102471</v>
+        <v>104427</v>
       </c>
       <c r="AR15" s="11">
-        <v>88471</v>
+        <v>108137</v>
       </c>
       <c r="AS15" s="11">
-        <v>104427</v>
+        <v>112234</v>
       </c>
       <c r="AT15" s="11">
-        <v>108137</v>
+        <v>101579</v>
       </c>
       <c r="AU15" s="11">
-        <v>112234</v>
+        <v>95146</v>
       </c>
       <c r="AV15" s="11">
-        <v>101579</v>
+        <v>63630</v>
       </c>
       <c r="AW15" s="11">
-        <v>95146</v>
+        <v>110792</v>
       </c>
       <c r="AX15" s="11">
-        <v>63630</v>
+        <v>106024</v>
       </c>
       <c r="AY15" s="11">
-        <v>110792</v>
+        <v>107008</v>
       </c>
       <c r="AZ15" s="11">
-        <v>106024</v>
+        <v>103816</v>
       </c>
       <c r="BA15" s="11">
-        <v>107008</v>
+        <v>89012</v>
       </c>
       <c r="BB15" s="11">
-        <v>103816</v>
+        <v>83780</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2317,104 +2317,104 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>138241</v>
+      </c>
+      <c r="X16" s="13">
+        <v>147473</v>
       </c>
       <c r="Y16" s="13">
-        <v>138241</v>
+        <v>125260</v>
       </c>
       <c r="Z16" s="13">
-        <v>147473</v>
+        <v>76829</v>
       </c>
       <c r="AA16" s="13">
-        <v>125260</v>
+        <v>144233</v>
       </c>
       <c r="AB16" s="13">
-        <v>76829</v>
+        <v>140137</v>
       </c>
       <c r="AC16" s="13">
-        <v>144233</v>
+        <v>125206</v>
       </c>
       <c r="AD16" s="13">
-        <v>140137</v>
+        <v>140848</v>
       </c>
       <c r="AE16" s="13">
-        <v>125206</v>
+        <v>143235</v>
       </c>
       <c r="AF16" s="13">
-        <v>140848</v>
+        <v>155877</v>
       </c>
       <c r="AG16" s="13">
-        <v>143235</v>
+        <v>135308</v>
       </c>
       <c r="AH16" s="13">
-        <v>155877</v>
+        <v>155380</v>
       </c>
       <c r="AI16" s="13">
-        <v>135308</v>
+        <v>111591</v>
       </c>
       <c r="AJ16" s="13">
-        <v>155380</v>
+        <v>137296</v>
       </c>
       <c r="AK16" s="13">
-        <v>111591</v>
+        <v>119155</v>
       </c>
       <c r="AL16" s="13">
-        <v>137296</v>
+        <v>50166</v>
       </c>
       <c r="AM16" s="13">
-        <v>119155</v>
+        <v>134534</v>
       </c>
       <c r="AN16" s="13">
-        <v>50166</v>
+        <v>134942</v>
       </c>
       <c r="AO16" s="13">
-        <v>134534</v>
+        <v>132751</v>
       </c>
       <c r="AP16" s="13">
-        <v>134942</v>
+        <v>55848</v>
       </c>
       <c r="AQ16" s="13">
-        <v>132751</v>
+        <v>141888</v>
       </c>
       <c r="AR16" s="13">
-        <v>55848</v>
+        <v>156041</v>
       </c>
       <c r="AS16" s="13">
-        <v>141888</v>
+        <v>156503</v>
       </c>
       <c r="AT16" s="13">
-        <v>156041</v>
+        <v>152322</v>
       </c>
       <c r="AU16" s="13">
-        <v>156503</v>
+        <v>155946</v>
       </c>
       <c r="AV16" s="13">
-        <v>152322</v>
+        <v>144644</v>
       </c>
       <c r="AW16" s="13">
-        <v>155946</v>
+        <v>157360</v>
       </c>
       <c r="AX16" s="13">
-        <v>144644</v>
+        <v>152513</v>
       </c>
       <c r="AY16" s="13">
-        <v>157360</v>
+        <v>143914</v>
       </c>
       <c r="AZ16" s="13">
-        <v>152513</v>
+        <v>113966</v>
       </c>
       <c r="BA16" s="13">
-        <v>143914</v>
+        <v>78788</v>
       </c>
       <c r="BB16" s="13">
-        <v>113966</v>
+        <v>39727</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2476,11 +2476,11 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
@@ -2506,8 +2506,8 @@
       <c r="AF17" s="11">
         <v>0</v>
       </c>
-      <c r="AG17" s="11">
-        <v>0</v>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH17" s="11">
         <v>0</v>
@@ -2515,8 +2515,8 @@
       <c r="AI17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK17" s="11" t="s">
         <v>58</v>
@@ -2536,8 +2536,8 @@
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
+      <c r="AQ17" s="11">
+        <v>0</v>
       </c>
       <c r="AR17" s="11">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2704,11 +2704,11 @@
       <c r="AS18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU18" s="13" t="s">
-        <v>58</v>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
       </c>
       <c r="AV18" s="13">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2794,11 +2794,11 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2824,8 +2824,8 @@
       <c r="AF19" s="11">
         <v>0</v>
       </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH19" s="11">
         <v>0</v>
@@ -2833,8 +2833,8 @@
       <c r="AI19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ19" s="11">
-        <v>0</v>
+      <c r="AJ19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK19" s="11" t="s">
         <v>58</v>
@@ -2854,8 +2854,8 @@
       <c r="AP19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
+      <c r="AQ19" s="11">
+        <v>0</v>
       </c>
       <c r="AR19" s="11">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2953,11 +2953,11 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
         <v>0</v>
@@ -2983,8 +2983,8 @@
       <c r="AF20" s="13">
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
-        <v>0</v>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH20" s="13">
         <v>0</v>
@@ -2992,8 +2992,8 @@
       <c r="AI20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ20" s="13">
-        <v>0</v>
+      <c r="AJ20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>58</v>
@@ -3010,17 +3010,17 @@
       <c r="AO20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ20" s="13" t="s">
-        <v>58</v>
+      <c r="AP20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>47674</v>
       </c>
       <c r="AR20" s="13">
         <v>0</v>
       </c>
       <c r="AS20" s="13">
-        <v>47674</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="13">
         <v>0</v>
@@ -3029,28 +3029,28 @@
         <v>0</v>
       </c>
       <c r="AV20" s="13">
-        <v>0</v>
+        <v>16366</v>
       </c>
       <c r="AW20" s="13">
         <v>0</v>
       </c>
       <c r="AX20" s="13">
-        <v>16366</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="13">
         <v>0</v>
       </c>
       <c r="AZ20" s="13">
-        <v>0</v>
+        <v>1691</v>
       </c>
       <c r="BA20" s="13">
-        <v>7480</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="13">
-        <v>1691</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3112,11 +3112,11 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
+        <v>0</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3137,79 +3137,79 @@
         <v>0</v>
       </c>
       <c r="AE21" s="11">
-        <v>0</v>
+        <v>281933</v>
       </c>
       <c r="AF21" s="11">
         <v>0</v>
       </c>
-      <c r="AG21" s="11">
-        <v>281933</v>
+      <c r="AG21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH21" s="11">
         <v>0</v>
       </c>
-      <c r="AI21" s="11" t="s">
-        <v>58</v>
+      <c r="AI21" s="11">
+        <v>0</v>
       </c>
       <c r="AJ21" s="11">
         <v>0</v>
       </c>
-      <c r="AK21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>0</v>
+      <c r="AK21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO21" s="11" t="s">
-        <v>58</v>
+      <c r="AN21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>153085</v>
       </c>
       <c r="AP21" s="11">
-        <v>0</v>
+        <v>290605</v>
       </c>
       <c r="AQ21" s="11">
-        <v>153085</v>
+        <v>280405</v>
       </c>
       <c r="AR21" s="11">
-        <v>290605</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="11">
-        <v>280405</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="11">
-        <v>0</v>
+        <v>288700</v>
       </c>
       <c r="AU21" s="11">
-        <v>537011</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="11">
-        <v>288700</v>
+        <v>78000</v>
       </c>
       <c r="AW21" s="11">
-        <v>0</v>
+        <v>295882</v>
       </c>
       <c r="AX21" s="11">
-        <v>593728</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="11">
-        <v>295882</v>
+        <v>290462</v>
       </c>
       <c r="AZ21" s="11">
-        <v>0</v>
+        <v>289741</v>
       </c>
       <c r="BA21" s="11">
-        <v>290462</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="11">
-        <v>289741</v>
+        <v>250557</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>70</v>
       </c>
@@ -3270,103 +3270,103 @@
         <v>0</v>
       </c>
       <c r="W22" s="15">
-        <v>0</v>
+        <v>1465786</v>
       </c>
       <c r="X22" s="15">
-        <v>0</v>
+        <v>1545491</v>
       </c>
       <c r="Y22" s="15">
-        <v>1465786</v>
+        <v>1385401</v>
       </c>
       <c r="Z22" s="15">
-        <v>1545491</v>
+        <v>1359024</v>
       </c>
       <c r="AA22" s="15">
-        <v>1385401</v>
+        <v>1559667</v>
       </c>
       <c r="AB22" s="15">
-        <v>1359024</v>
+        <v>1434150</v>
       </c>
       <c r="AC22" s="15">
-        <v>1559667</v>
+        <v>1435780</v>
       </c>
       <c r="AD22" s="15">
-        <v>1434150</v>
+        <v>1472283</v>
       </c>
       <c r="AE22" s="15">
-        <v>1435780</v>
+        <v>1717083</v>
       </c>
       <c r="AF22" s="15">
-        <v>1472283</v>
+        <v>1403550</v>
       </c>
       <c r="AG22" s="15">
-        <v>1717083</v>
+        <v>1508223</v>
       </c>
       <c r="AH22" s="15">
-        <v>1403550</v>
+        <v>1376440</v>
       </c>
       <c r="AI22" s="15">
-        <v>1508223</v>
+        <v>1386223</v>
       </c>
       <c r="AJ22" s="15">
-        <v>1376440</v>
+        <v>1471158</v>
       </c>
       <c r="AK22" s="15">
-        <v>1386223</v>
+        <v>1491574</v>
       </c>
       <c r="AL22" s="15">
-        <v>1471158</v>
+        <v>1413712</v>
       </c>
       <c r="AM22" s="15">
-        <v>1491574</v>
+        <v>1529636</v>
       </c>
       <c r="AN22" s="15">
-        <v>1413712</v>
+        <v>1464189</v>
       </c>
       <c r="AO22" s="15">
-        <v>1529636</v>
+        <v>1659425</v>
       </c>
       <c r="AP22" s="15">
-        <v>1464189</v>
+        <v>1692910</v>
       </c>
       <c r="AQ22" s="15">
-        <v>1659425</v>
+        <v>1807149</v>
       </c>
       <c r="AR22" s="15">
-        <v>1692910</v>
+        <v>1577228</v>
       </c>
       <c r="AS22" s="15">
-        <v>1807149</v>
+        <v>1625739</v>
       </c>
       <c r="AT22" s="15">
-        <v>1577228</v>
+        <v>1740438</v>
       </c>
       <c r="AU22" s="15">
-        <v>2172211</v>
+        <v>909582</v>
       </c>
       <c r="AV22" s="15">
-        <v>1740438</v>
+        <v>1349415</v>
       </c>
       <c r="AW22" s="15">
-        <v>909582</v>
+        <v>1730557</v>
       </c>
       <c r="AX22" s="15">
-        <v>1865143</v>
+        <v>1509272</v>
       </c>
       <c r="AY22" s="15">
-        <v>1730557</v>
+        <v>1789865</v>
       </c>
       <c r="AZ22" s="15">
-        <v>1509272</v>
+        <v>1825756</v>
       </c>
       <c r="BA22" s="15">
-        <v>1795919</v>
+        <v>1280459</v>
       </c>
       <c r="BB22" s="15">
-        <v>1825756</v>
+        <v>1369838</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>71</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>56</v>
       </c>
@@ -3494,11 +3494,11 @@
       <c r="Y24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA24" s="11" t="s">
-        <v>58</v>
+      <c r="Z24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>0</v>
       </c>
       <c r="AB24" s="11">
         <v>0</v>
@@ -3515,11 +3515,11 @@
       <c r="AF24" s="11">
         <v>0</v>
       </c>
-      <c r="AG24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="11">
-        <v>0</v>
+      <c r="AG24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>58</v>
@@ -3545,14 +3545,14 @@
       <c r="AP24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="11">
-        <v>0</v>
+      <c r="AQ24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT24" s="11" t="s">
         <v>58</v>
@@ -3582,7 +3582,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>59</v>
       </c>
@@ -3644,20 +3644,20 @@
       <c r="V25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X25" s="13" t="s">
-        <v>58</v>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+      <c r="X25" s="13">
+        <v>0</v>
       </c>
       <c r="Y25" s="13">
         <v>0</v>
       </c>
-      <c r="Z25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="13">
-        <v>0</v>
+      <c r="Z25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB25" s="13" t="s">
         <v>58</v>
@@ -3671,14 +3671,14 @@
       <c r="AE25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF25" s="13" t="s">
-        <v>58</v>
+      <c r="AF25" s="13">
+        <v>0</v>
       </c>
       <c r="AG25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="13">
-        <v>0</v>
+      <c r="AH25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI25" s="13" t="s">
         <v>58</v>
@@ -3704,14 +3704,14 @@
       <c r="AP25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="13">
-        <v>0</v>
+      <c r="AQ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT25" s="13" t="s">
         <v>58</v>
@@ -3741,7 +3741,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>62</v>
       </c>
@@ -3803,11 +3803,11 @@
       <c r="V26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>58</v>
+      <c r="W26" s="11">
+        <v>0</v>
+      </c>
+      <c r="X26" s="11">
+        <v>0</v>
       </c>
       <c r="Y26" s="11">
         <v>0</v>
@@ -3833,11 +3833,11 @@
       <c r="AF26" s="11">
         <v>0</v>
       </c>
-      <c r="AG26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="11">
-        <v>0</v>
+      <c r="AG26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>58</v>
@@ -3863,8 +3863,8 @@
       <c r="AP26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ26" s="11" t="s">
-        <v>58</v>
+      <c r="AQ26" s="11">
+        <v>0</v>
       </c>
       <c r="AR26" s="11">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>67</v>
       </c>
@@ -3971,11 +3971,11 @@
       <c r="Y27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA27" s="13" t="s">
-        <v>58</v>
+      <c r="Z27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>0</v>
       </c>
       <c r="AB27" s="13">
         <v>0</v>
@@ -3989,11 +3989,11 @@
       <c r="AE27" s="13">
         <v>0</v>
       </c>
-      <c r="AF27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="13">
-        <v>0</v>
+      <c r="AF27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH27" s="13" t="s">
         <v>58</v>
@@ -4059,7 +4059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>72</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>73</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>65</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4492,11 +4492,11 @@
       <c r="V31" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>58</v>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
+      <c r="X31" s="15">
+        <v>0</v>
       </c>
       <c r="Y31" s="15">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>75</v>
       </c>
@@ -4650,103 +4650,103 @@
         <v>0</v>
       </c>
       <c r="W32" s="17">
-        <v>0</v>
+        <v>1465786</v>
       </c>
       <c r="X32" s="17">
-        <v>0</v>
+        <v>1545491</v>
       </c>
       <c r="Y32" s="17">
-        <v>1465786</v>
+        <v>1385401</v>
       </c>
       <c r="Z32" s="17">
-        <v>1545491</v>
+        <v>1359024</v>
       </c>
       <c r="AA32" s="17">
-        <v>1385401</v>
+        <v>1559667</v>
       </c>
       <c r="AB32" s="17">
-        <v>1359024</v>
+        <v>1434150</v>
       </c>
       <c r="AC32" s="17">
-        <v>1559667</v>
+        <v>1435780</v>
       </c>
       <c r="AD32" s="17">
-        <v>1434150</v>
+        <v>1472283</v>
       </c>
       <c r="AE32" s="17">
-        <v>1435780</v>
+        <v>1717083</v>
       </c>
       <c r="AF32" s="17">
-        <v>1472283</v>
+        <v>1403550</v>
       </c>
       <c r="AG32" s="17">
-        <v>1717083</v>
+        <v>1508223</v>
       </c>
       <c r="AH32" s="17">
-        <v>1403550</v>
+        <v>1376440</v>
       </c>
       <c r="AI32" s="17">
-        <v>1508223</v>
+        <v>1386223</v>
       </c>
       <c r="AJ32" s="17">
-        <v>1376440</v>
+        <v>1471158</v>
       </c>
       <c r="AK32" s="17">
-        <v>1386223</v>
+        <v>1491574</v>
       </c>
       <c r="AL32" s="17">
-        <v>1471158</v>
+        <v>1413712</v>
       </c>
       <c r="AM32" s="17">
-        <v>1491574</v>
+        <v>1529636</v>
       </c>
       <c r="AN32" s="17">
-        <v>1413712</v>
+        <v>1464189</v>
       </c>
       <c r="AO32" s="17">
-        <v>1529636</v>
+        <v>1659425</v>
       </c>
       <c r="AP32" s="17">
-        <v>1464189</v>
+        <v>1692910</v>
       </c>
       <c r="AQ32" s="17">
-        <v>1659425</v>
+        <v>1807149</v>
       </c>
       <c r="AR32" s="17">
-        <v>1692910</v>
+        <v>1577228</v>
       </c>
       <c r="AS32" s="17">
-        <v>1807149</v>
+        <v>1625739</v>
       </c>
       <c r="AT32" s="17">
-        <v>1577228</v>
+        <v>1740438</v>
       </c>
       <c r="AU32" s="17">
-        <v>2172211</v>
+        <v>909582</v>
       </c>
       <c r="AV32" s="17">
-        <v>1740438</v>
+        <v>1349415</v>
       </c>
       <c r="AW32" s="17">
-        <v>909582</v>
+        <v>1730557</v>
       </c>
       <c r="AX32" s="17">
-        <v>1865143</v>
+        <v>1509272</v>
       </c>
       <c r="AY32" s="17">
-        <v>1730557</v>
+        <v>1789865</v>
       </c>
       <c r="AZ32" s="17">
-        <v>1509272</v>
+        <v>1825756</v>
       </c>
       <c r="BA32" s="17">
-        <v>1795919</v>
+        <v>1280459</v>
       </c>
       <c r="BB32" s="17">
-        <v>1825756</v>
+        <v>1369838</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4801,7 +4801,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4856,7 +4856,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4911,7 +4911,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>76</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5123,7 +5123,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>77</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>56</v>
       </c>
@@ -5242,41 +5242,41 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>58320</v>
       </c>
       <c r="Y39" s="11">
-        <v>0</v>
+        <v>38153</v>
       </c>
       <c r="Z39" s="11">
-        <v>58320</v>
+        <v>20777</v>
       </c>
       <c r="AA39" s="11">
-        <v>38153</v>
+        <v>29227</v>
       </c>
       <c r="AB39" s="11">
-        <v>20777</v>
+        <v>12631</v>
       </c>
       <c r="AC39" s="11">
-        <v>29227</v>
+        <v>37367</v>
       </c>
       <c r="AD39" s="11">
-        <v>12631</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="11">
-        <v>37367</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="11">
         <v>0</v>
       </c>
-      <c r="AG39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>0</v>
+      <c r="AG39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI39" s="11" t="s">
         <v>58</v>
@@ -5287,26 +5287,26 @@
       <c r="AK39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM39" s="11" t="s">
-        <v>58</v>
+      <c r="AL39" s="11">
+        <v>23</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>3000</v>
       </c>
       <c r="AN39" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="11">
-        <v>3000</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>0</v>
+        <v>3011</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ39" s="11">
-        <v>3011</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="11">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
@@ -5401,104 +5401,104 @@
       <c r="V40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>58</v>
+      <c r="W40" s="13">
+        <v>105230</v>
+      </c>
+      <c r="X40" s="13">
+        <v>91665</v>
       </c>
       <c r="Y40" s="13">
-        <v>105230</v>
+        <v>122578</v>
       </c>
       <c r="Z40" s="13">
-        <v>91665</v>
+        <v>167229</v>
       </c>
       <c r="AA40" s="13">
-        <v>122578</v>
+        <v>134104</v>
       </c>
       <c r="AB40" s="13">
-        <v>167229</v>
+        <v>108748</v>
       </c>
       <c r="AC40" s="13">
-        <v>134104</v>
+        <v>140237</v>
       </c>
       <c r="AD40" s="13">
-        <v>108748</v>
+        <v>154133</v>
       </c>
       <c r="AE40" s="13">
-        <v>140237</v>
+        <v>149185</v>
       </c>
       <c r="AF40" s="13">
-        <v>154133</v>
+        <v>84707</v>
       </c>
       <c r="AG40" s="13">
-        <v>149185</v>
+        <v>69710</v>
       </c>
       <c r="AH40" s="13">
-        <v>84707</v>
+        <v>49780</v>
       </c>
       <c r="AI40" s="13">
-        <v>69710</v>
+        <v>37790</v>
       </c>
       <c r="AJ40" s="13">
-        <v>49780</v>
+        <v>173871</v>
       </c>
       <c r="AK40" s="13">
-        <v>37790</v>
+        <v>166349</v>
       </c>
       <c r="AL40" s="13">
-        <v>173871</v>
+        <v>254035</v>
       </c>
       <c r="AM40" s="13">
-        <v>166349</v>
+        <v>185338</v>
       </c>
       <c r="AN40" s="13">
-        <v>254035</v>
+        <v>158771</v>
       </c>
       <c r="AO40" s="13">
-        <v>185338</v>
+        <v>173801</v>
       </c>
       <c r="AP40" s="13">
-        <v>158771</v>
+        <v>247192</v>
       </c>
       <c r="AQ40" s="13">
-        <v>173801</v>
+        <v>200717</v>
       </c>
       <c r="AR40" s="13">
-        <v>247192</v>
+        <v>204234</v>
       </c>
       <c r="AS40" s="13">
-        <v>200717</v>
+        <v>145789</v>
       </c>
       <c r="AT40" s="13">
-        <v>204234</v>
+        <v>91838</v>
       </c>
       <c r="AU40" s="13">
-        <v>145789</v>
+        <v>42626</v>
       </c>
       <c r="AV40" s="13">
-        <v>91838</v>
+        <v>110817</v>
       </c>
       <c r="AW40" s="13">
-        <v>42626</v>
+        <v>150587</v>
       </c>
       <c r="AX40" s="13">
-        <v>111900</v>
+        <v>145564</v>
       </c>
       <c r="AY40" s="13">
-        <v>150587</v>
+        <v>152661</v>
       </c>
       <c r="AZ40" s="13">
-        <v>145564</v>
+        <v>78987</v>
       </c>
       <c r="BA40" s="13">
-        <v>152661</v>
+        <v>54369</v>
       </c>
       <c r="BB40" s="13">
-        <v>78987</v>
+        <v>42111</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>60</v>
       </c>
@@ -5560,104 +5560,104 @@
       <c r="V41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>58</v>
+      <c r="W41" s="11">
+        <v>445515</v>
+      </c>
+      <c r="X41" s="11">
+        <v>438003</v>
       </c>
       <c r="Y41" s="11">
-        <v>445515</v>
+        <v>529527</v>
       </c>
       <c r="Z41" s="11">
-        <v>438003</v>
+        <v>651090</v>
       </c>
       <c r="AA41" s="11">
-        <v>529527</v>
+        <v>680662</v>
       </c>
       <c r="AB41" s="11">
-        <v>651090</v>
+        <v>660912</v>
       </c>
       <c r="AC41" s="11">
-        <v>680662</v>
+        <v>685654</v>
       </c>
       <c r="AD41" s="11">
-        <v>660912</v>
+        <v>818316</v>
       </c>
       <c r="AE41" s="11">
-        <v>685654</v>
+        <v>731218</v>
       </c>
       <c r="AF41" s="11">
-        <v>818316</v>
+        <v>694298</v>
       </c>
       <c r="AG41" s="11">
-        <v>731218</v>
+        <v>702417</v>
       </c>
       <c r="AH41" s="11">
-        <v>694298</v>
+        <v>729397</v>
       </c>
       <c r="AI41" s="11">
-        <v>702417</v>
+        <v>730469</v>
       </c>
       <c r="AJ41" s="11">
-        <v>729397</v>
+        <v>688770</v>
       </c>
       <c r="AK41" s="11">
-        <v>730469</v>
+        <v>708142</v>
       </c>
       <c r="AL41" s="11">
-        <v>688770</v>
+        <v>528007</v>
       </c>
       <c r="AM41" s="11">
-        <v>708142</v>
+        <v>570551</v>
       </c>
       <c r="AN41" s="11">
-        <v>528007</v>
+        <v>611278</v>
       </c>
       <c r="AO41" s="11">
-        <v>570551</v>
+        <v>569298</v>
       </c>
       <c r="AP41" s="11">
-        <v>611278</v>
+        <v>602378</v>
       </c>
       <c r="AQ41" s="11">
-        <v>569298</v>
+        <v>513064</v>
       </c>
       <c r="AR41" s="11">
-        <v>602378</v>
+        <v>562918</v>
       </c>
       <c r="AS41" s="11">
-        <v>513064</v>
+        <v>499905</v>
       </c>
       <c r="AT41" s="11">
-        <v>562918</v>
+        <v>624784</v>
       </c>
       <c r="AU41" s="11">
-        <v>500010</v>
+        <v>624301</v>
       </c>
       <c r="AV41" s="11">
-        <v>624784</v>
+        <v>445073</v>
       </c>
       <c r="AW41" s="11">
-        <v>624301</v>
+        <v>517851</v>
       </c>
       <c r="AX41" s="11">
-        <v>445033</v>
+        <v>491151</v>
       </c>
       <c r="AY41" s="11">
-        <v>517851</v>
+        <v>464380</v>
       </c>
       <c r="AZ41" s="11">
-        <v>491151</v>
+        <v>356312</v>
       </c>
       <c r="BA41" s="11">
-        <v>616125</v>
+        <v>597343</v>
       </c>
       <c r="BB41" s="11">
-        <v>356312</v>
+        <v>526893</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>61</v>
       </c>
@@ -5719,104 +5719,104 @@
       <c r="V42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>58</v>
+      <c r="W42" s="13">
+        <v>7140</v>
+      </c>
+      <c r="X42" s="13">
+        <v>19921</v>
       </c>
       <c r="Y42" s="13">
-        <v>7140</v>
+        <v>2349</v>
       </c>
       <c r="Z42" s="13">
-        <v>19921</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="13">
-        <v>2349</v>
+        <v>1119</v>
       </c>
       <c r="AB42" s="13">
-        <v>0</v>
+        <v>6014</v>
       </c>
       <c r="AC42" s="13">
-        <v>1119</v>
+        <v>12817</v>
       </c>
       <c r="AD42" s="13">
-        <v>6014</v>
+        <v>1947</v>
       </c>
       <c r="AE42" s="13">
-        <v>12817</v>
+        <v>810</v>
       </c>
       <c r="AF42" s="13">
-        <v>1947</v>
+        <v>664</v>
       </c>
       <c r="AG42" s="13">
-        <v>810</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>664</v>
+        <v>22805</v>
+      </c>
+      <c r="AH42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI42" s="13">
-        <v>22805</v>
-      </c>
-      <c r="AJ42" s="13" t="s">
-        <v>58</v>
+        <v>9940</v>
+      </c>
+      <c r="AJ42" s="13">
+        <v>1243</v>
       </c>
       <c r="AK42" s="13">
-        <v>9940</v>
+        <v>2062</v>
       </c>
       <c r="AL42" s="13">
-        <v>1243</v>
+        <v>9229</v>
       </c>
       <c r="AM42" s="13">
-        <v>2062</v>
+        <v>2967</v>
       </c>
       <c r="AN42" s="13">
-        <v>9229</v>
+        <v>9566</v>
       </c>
       <c r="AO42" s="13">
-        <v>2967</v>
+        <v>13202</v>
       </c>
       <c r="AP42" s="13">
         <v>9566</v>
       </c>
       <c r="AQ42" s="13">
-        <v>13202</v>
+        <v>2812</v>
       </c>
       <c r="AR42" s="13">
-        <v>9566</v>
+        <v>161</v>
       </c>
       <c r="AS42" s="13">
-        <v>2812</v>
+        <v>5897</v>
       </c>
       <c r="AT42" s="13">
-        <v>161</v>
+        <v>6031</v>
       </c>
       <c r="AU42" s="13">
-        <v>5897</v>
+        <v>4036</v>
       </c>
       <c r="AV42" s="13">
-        <v>6031</v>
+        <v>19819</v>
       </c>
       <c r="AW42" s="13">
-        <v>4036</v>
+        <v>10169</v>
       </c>
       <c r="AX42" s="13">
-        <v>19819</v>
+        <v>11047</v>
       </c>
       <c r="AY42" s="13">
-        <v>10169</v>
+        <v>3837</v>
       </c>
       <c r="AZ42" s="13">
-        <v>11047</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="13">
-        <v>3830</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="13">
-        <v>0</v>
+        <v>6577</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>62</v>
       </c>
@@ -5878,104 +5878,104 @@
       <c r="V43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>58</v>
+      <c r="W43" s="11">
+        <v>77803</v>
+      </c>
+      <c r="X43" s="11">
+        <v>150340</v>
       </c>
       <c r="Y43" s="11">
-        <v>77803</v>
+        <v>56784</v>
       </c>
       <c r="Z43" s="11">
-        <v>150340</v>
+        <v>37030</v>
       </c>
       <c r="AA43" s="11">
-        <v>56784</v>
+        <v>50165</v>
       </c>
       <c r="AB43" s="11">
-        <v>37030</v>
+        <v>62084</v>
       </c>
       <c r="AC43" s="11">
-        <v>50165</v>
+        <v>49147</v>
       </c>
       <c r="AD43" s="11">
-        <v>62084</v>
+        <v>52650</v>
       </c>
       <c r="AE43" s="11">
-        <v>49147</v>
+        <v>32075</v>
       </c>
       <c r="AF43" s="11">
-        <v>52650</v>
+        <v>57584</v>
       </c>
       <c r="AG43" s="11">
-        <v>32075</v>
+        <v>54380</v>
       </c>
       <c r="AH43" s="11">
-        <v>57584</v>
+        <v>48868</v>
       </c>
       <c r="AI43" s="11">
-        <v>54380</v>
+        <v>27951</v>
       </c>
       <c r="AJ43" s="11">
-        <v>48868</v>
+        <v>15794</v>
       </c>
       <c r="AK43" s="11">
-        <v>27951</v>
+        <v>59022</v>
       </c>
       <c r="AL43" s="11">
-        <v>15794</v>
+        <v>56188</v>
       </c>
       <c r="AM43" s="11">
-        <v>59022</v>
+        <v>40074</v>
       </c>
       <c r="AN43" s="11">
-        <v>56188</v>
+        <v>68560</v>
       </c>
       <c r="AO43" s="11">
-        <v>40074</v>
+        <v>68564</v>
       </c>
       <c r="AP43" s="11">
-        <v>68560</v>
+        <v>76015</v>
       </c>
       <c r="AQ43" s="11">
-        <v>68564</v>
+        <v>88764</v>
       </c>
       <c r="AR43" s="11">
-        <v>76015</v>
+        <v>73536</v>
       </c>
       <c r="AS43" s="11">
-        <v>88764</v>
+        <v>62633</v>
       </c>
       <c r="AT43" s="11">
-        <v>73536</v>
+        <v>51381</v>
       </c>
       <c r="AU43" s="11">
-        <v>62633</v>
+        <v>86822</v>
       </c>
       <c r="AV43" s="11">
-        <v>51381</v>
+        <v>65747</v>
       </c>
       <c r="AW43" s="11">
-        <v>86822</v>
+        <v>80303</v>
       </c>
       <c r="AX43" s="11">
-        <v>65747</v>
+        <v>68237</v>
       </c>
       <c r="AY43" s="11">
-        <v>80303</v>
+        <v>96845</v>
       </c>
       <c r="AZ43" s="11">
-        <v>68237</v>
+        <v>106308</v>
       </c>
       <c r="BA43" s="11">
-        <v>96848</v>
+        <v>75918</v>
       </c>
       <c r="BB43" s="11">
-        <v>106308</v>
+        <v>75831</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>63</v>
       </c>
@@ -6037,104 +6037,104 @@
       <c r="V44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>58</v>
+      <c r="W44" s="13">
+        <v>15424</v>
+      </c>
+      <c r="X44" s="13">
+        <v>624</v>
       </c>
       <c r="Y44" s="13">
-        <v>15424</v>
+        <v>33282</v>
       </c>
       <c r="Z44" s="13">
-        <v>624</v>
+        <v>24012</v>
       </c>
       <c r="AA44" s="13">
-        <v>33282</v>
+        <v>47821</v>
       </c>
       <c r="AB44" s="13">
-        <v>24012</v>
+        <v>32854</v>
       </c>
       <c r="AC44" s="13">
-        <v>47821</v>
+        <v>13029</v>
       </c>
       <c r="AD44" s="13">
-        <v>32854</v>
+        <v>15524</v>
       </c>
       <c r="AE44" s="13">
-        <v>13029</v>
+        <v>20787</v>
       </c>
       <c r="AF44" s="13">
-        <v>15524</v>
+        <v>17715</v>
       </c>
       <c r="AG44" s="13">
-        <v>20787</v>
+        <v>9417</v>
       </c>
       <c r="AH44" s="13">
-        <v>17715</v>
+        <v>11565</v>
       </c>
       <c r="AI44" s="13">
-        <v>9417</v>
+        <v>18014</v>
       </c>
       <c r="AJ44" s="13">
-        <v>11565</v>
+        <v>30181</v>
       </c>
       <c r="AK44" s="13">
-        <v>18014</v>
+        <v>24591</v>
       </c>
       <c r="AL44" s="13">
-        <v>30181</v>
+        <v>31214</v>
       </c>
       <c r="AM44" s="13">
-        <v>24591</v>
+        <v>24206</v>
       </c>
       <c r="AN44" s="13">
-        <v>31214</v>
+        <v>1179</v>
       </c>
       <c r="AO44" s="13">
-        <v>24206</v>
-      </c>
-      <c r="AP44" s="13">
-        <v>1179</v>
+        <v>4641</v>
+      </c>
+      <c r="AP44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ44" s="13">
-        <v>4641</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="13">
         <v>0</v>
       </c>
       <c r="AS44" s="13">
-        <v>0</v>
+        <v>11874</v>
       </c>
       <c r="AT44" s="13">
-        <v>0</v>
+        <v>8116</v>
       </c>
       <c r="AU44" s="13">
-        <v>11874</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="13">
-        <v>8116</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="13">
-        <v>0</v>
+        <v>25662</v>
       </c>
       <c r="AX44" s="13">
-        <v>0</v>
+        <v>34689</v>
       </c>
       <c r="AY44" s="13">
-        <v>25662</v>
+        <v>45837</v>
       </c>
       <c r="AZ44" s="13">
-        <v>34689</v>
+        <v>8534</v>
       </c>
       <c r="BA44" s="13">
-        <v>45837</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="13">
-        <v>8534</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>64</v>
       </c>
@@ -6196,104 +6196,104 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>290751</v>
+      </c>
+      <c r="X45" s="11">
+        <v>299857</v>
       </c>
       <c r="Y45" s="11">
-        <v>290751</v>
+        <v>268548</v>
       </c>
       <c r="Z45" s="11">
-        <v>299857</v>
+        <v>282113</v>
       </c>
       <c r="AA45" s="11">
-        <v>268548</v>
+        <v>232510</v>
       </c>
       <c r="AB45" s="11">
-        <v>282113</v>
+        <v>337728</v>
       </c>
       <c r="AC45" s="11">
-        <v>232510</v>
+        <v>288745</v>
       </c>
       <c r="AD45" s="11">
-        <v>337728</v>
+        <v>214681</v>
       </c>
       <c r="AE45" s="11">
-        <v>288745</v>
+        <v>281536</v>
       </c>
       <c r="AF45" s="11">
-        <v>214681</v>
+        <v>301556</v>
       </c>
       <c r="AG45" s="11">
-        <v>281536</v>
+        <v>288973</v>
       </c>
       <c r="AH45" s="11">
-        <v>301556</v>
+        <v>210163</v>
       </c>
       <c r="AI45" s="11">
-        <v>288973</v>
+        <v>207067</v>
       </c>
       <c r="AJ45" s="11">
-        <v>210163</v>
+        <v>259349</v>
       </c>
       <c r="AK45" s="11">
-        <v>207067</v>
+        <v>495271</v>
       </c>
       <c r="AL45" s="11">
-        <v>259349</v>
+        <v>351184</v>
       </c>
       <c r="AM45" s="11">
-        <v>495271</v>
+        <v>351003</v>
       </c>
       <c r="AN45" s="11">
-        <v>351184</v>
+        <v>387527</v>
       </c>
       <c r="AO45" s="11">
-        <v>351003</v>
+        <v>348139</v>
       </c>
       <c r="AP45" s="11">
-        <v>387527</v>
+        <v>406156</v>
       </c>
       <c r="AQ45" s="11">
-        <v>348139</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="11">
-        <v>406156</v>
+        <v>367788</v>
       </c>
       <c r="AS45" s="11">
-        <v>0</v>
+        <v>408019</v>
       </c>
       <c r="AT45" s="11">
-        <v>367788</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="11">
-        <v>408019</v>
+        <v>60861</v>
       </c>
       <c r="AV45" s="11">
-        <v>0</v>
+        <v>311357</v>
       </c>
       <c r="AW45" s="11">
-        <v>60861</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="11">
-        <v>311357</v>
+        <v>413449</v>
       </c>
       <c r="AY45" s="11">
-        <v>0</v>
+        <v>398718</v>
       </c>
       <c r="AZ45" s="11">
-        <v>413449</v>
+        <v>335681</v>
       </c>
       <c r="BA45" s="11">
-        <v>1022427</v>
+        <v>143190</v>
       </c>
       <c r="BB45" s="11">
-        <v>335681</v>
+        <v>248556</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>65</v>
       </c>
@@ -6424,11 +6424,11 @@
       <c r="AS46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU46" s="13" t="s">
-        <v>58</v>
+      <c r="AT46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="13">
+        <v>0</v>
       </c>
       <c r="AV46" s="13">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>66</v>
       </c>
@@ -6514,104 +6514,104 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>188922</v>
+      </c>
+      <c r="X47" s="11">
+        <v>199944</v>
       </c>
       <c r="Y47" s="11">
-        <v>188922</v>
+        <v>159346</v>
       </c>
       <c r="Z47" s="11">
-        <v>199944</v>
+        <v>114432</v>
       </c>
       <c r="AA47" s="11">
-        <v>159346</v>
+        <v>191179</v>
       </c>
       <c r="AB47" s="11">
-        <v>114432</v>
+        <v>186668</v>
       </c>
       <c r="AC47" s="11">
-        <v>191179</v>
+        <v>169712</v>
       </c>
       <c r="AD47" s="11">
-        <v>186668</v>
+        <v>190368</v>
       </c>
       <c r="AE47" s="11">
-        <v>169712</v>
+        <v>188484</v>
       </c>
       <c r="AF47" s="11">
-        <v>190368</v>
+        <v>207458</v>
       </c>
       <c r="AG47" s="11">
-        <v>188484</v>
+        <v>178326</v>
       </c>
       <c r="AH47" s="11">
-        <v>207458</v>
+        <v>202029</v>
       </c>
       <c r="AI47" s="11">
-        <v>178326</v>
+        <v>151836</v>
       </c>
       <c r="AJ47" s="11">
-        <v>202029</v>
+        <v>188924</v>
       </c>
       <c r="AK47" s="11">
-        <v>151836</v>
+        <v>157515</v>
       </c>
       <c r="AL47" s="11">
-        <v>188924</v>
+        <v>76458</v>
       </c>
       <c r="AM47" s="11">
-        <v>157515</v>
+        <v>168846</v>
       </c>
       <c r="AN47" s="11">
-        <v>76458</v>
+        <v>185188</v>
       </c>
       <c r="AO47" s="11">
-        <v>168846</v>
+        <v>175966</v>
       </c>
       <c r="AP47" s="11">
-        <v>185188</v>
+        <v>72996</v>
       </c>
       <c r="AQ47" s="11">
-        <v>175966</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="11">
-        <v>72996</v>
+        <v>208018</v>
       </c>
       <c r="AS47" s="11">
-        <v>0</v>
+        <v>206162</v>
       </c>
       <c r="AT47" s="11">
-        <v>208018</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="11">
-        <v>206162</v>
+        <v>204652</v>
       </c>
       <c r="AV47" s="11">
-        <v>0</v>
+        <v>194176</v>
       </c>
       <c r="AW47" s="11">
-        <v>204652</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="11">
-        <v>194176</v>
+        <v>197586</v>
       </c>
       <c r="AY47" s="11">
-        <v>0</v>
+        <v>189932</v>
       </c>
       <c r="AZ47" s="11">
-        <v>197586</v>
+        <v>149124</v>
       </c>
       <c r="BA47" s="11">
-        <v>592496</v>
+        <v>94924</v>
       </c>
       <c r="BB47" s="11">
-        <v>149124</v>
+        <v>70480</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>67</v>
       </c>
@@ -6673,11 +6673,11 @@
       <c r="V48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="13" t="s">
-        <v>58</v>
+      <c r="W48" s="13">
+        <v>0</v>
+      </c>
+      <c r="X48" s="13">
+        <v>0</v>
       </c>
       <c r="Y48" s="13">
         <v>0</v>
@@ -6701,61 +6701,61 @@
         <v>0</v>
       </c>
       <c r="AF48" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AG48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="13">
-        <v>71</v>
+        <v>55944</v>
+      </c>
+      <c r="AH48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI48" s="13">
-        <v>55944</v>
+        <v>36136</v>
       </c>
       <c r="AJ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK48" s="13">
-        <v>36136</v>
+      <c r="AK48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM48" s="13" t="s">
-        <v>58</v>
+      <c r="AM48" s="13">
+        <v>8113</v>
       </c>
       <c r="AN48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AO48" s="13">
-        <v>8113</v>
-      </c>
-      <c r="AP48" s="13" t="s">
-        <v>58</v>
+        <v>618</v>
+      </c>
+      <c r="AP48" s="13">
+        <v>11437</v>
       </c>
       <c r="AQ48" s="13">
-        <v>618</v>
+        <v>18816</v>
       </c>
       <c r="AR48" s="13">
-        <v>11439</v>
+        <v>5668</v>
       </c>
       <c r="AS48" s="13">
-        <v>18816</v>
+        <v>248</v>
       </c>
       <c r="AT48" s="13">
-        <v>5668</v>
+        <v>816</v>
       </c>
       <c r="AU48" s="13">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="13">
-        <v>816</v>
+        <v>497</v>
       </c>
       <c r="AW48" s="13">
         <v>0</v>
       </c>
       <c r="AX48" s="13">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="13">
         <v>0</v>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>68</v>
       </c>
@@ -6832,20 +6832,20 @@
       <c r="V49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>58</v>
+      <c r="W49" s="11">
+        <v>0</v>
+      </c>
+      <c r="X49" s="11">
+        <v>0</v>
       </c>
       <c r="Y49" s="11">
-        <v>0</v>
+        <v>202178</v>
       </c>
       <c r="Z49" s="11">
         <v>0</v>
       </c>
       <c r="AA49" s="11">
-        <v>202178</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="11">
         <v>0</v>
@@ -6857,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="AE49" s="11">
-        <v>0</v>
+        <v>332501</v>
       </c>
       <c r="AF49" s="11">
         <v>0</v>
       </c>
-      <c r="AG49" s="11">
-        <v>332501</v>
+      <c r="AG49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH49" s="11">
         <v>0</v>
@@ -6871,8 +6871,8 @@
       <c r="AI49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ49" s="11">
-        <v>0</v>
+      <c r="AJ49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK49" s="11" t="s">
         <v>58</v>
@@ -6883,53 +6883,53 @@
       <c r="AM49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO49" s="11" t="s">
-        <v>58</v>
+      <c r="AN49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="11">
+        <v>153085</v>
       </c>
       <c r="AP49" s="11">
-        <v>0</v>
+        <v>162543</v>
       </c>
       <c r="AQ49" s="11">
-        <v>153085</v>
+        <v>1509910</v>
       </c>
       <c r="AR49" s="11">
-        <v>162543</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="11">
-        <v>1509910</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="11">
-        <v>0</v>
+        <v>152003</v>
       </c>
       <c r="AU49" s="11">
-        <v>444063</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="11">
-        <v>152003</v>
+        <v>162655</v>
       </c>
       <c r="AW49" s="11">
-        <v>90974</v>
+        <v>170704</v>
       </c>
       <c r="AX49" s="11">
-        <v>265812</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="11">
-        <v>170704</v>
+        <v>216774</v>
       </c>
       <c r="AZ49" s="11">
-        <v>0</v>
+        <v>159294</v>
       </c>
       <c r="BA49" s="11">
-        <v>216774</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="11">
-        <v>159294</v>
+        <v>127318</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>78</v>
       </c>
@@ -6990,103 +6990,103 @@
         <v>0</v>
       </c>
       <c r="W50" s="15">
-        <v>0</v>
+        <v>1130785</v>
       </c>
       <c r="X50" s="15">
-        <v>0</v>
+        <v>1258674</v>
       </c>
       <c r="Y50" s="15">
-        <v>1130785</v>
+        <v>1412745</v>
       </c>
       <c r="Z50" s="15">
-        <v>1258674</v>
+        <v>1296683</v>
       </c>
       <c r="AA50" s="15">
-        <v>1412745</v>
+        <v>1366787</v>
       </c>
       <c r="AB50" s="15">
-        <v>1296683</v>
+        <v>1407639</v>
       </c>
       <c r="AC50" s="15">
-        <v>1366787</v>
+        <v>1396708</v>
       </c>
       <c r="AD50" s="15">
-        <v>1407639</v>
+        <v>1447619</v>
       </c>
       <c r="AE50" s="15">
-        <v>1396708</v>
+        <v>1736596</v>
       </c>
       <c r="AF50" s="15">
-        <v>1447619</v>
+        <v>1364053</v>
       </c>
       <c r="AG50" s="15">
-        <v>1736596</v>
+        <v>1381972</v>
       </c>
       <c r="AH50" s="15">
-        <v>1364053</v>
+        <v>1251802</v>
       </c>
       <c r="AI50" s="15">
-        <v>1381972</v>
+        <v>1219203</v>
       </c>
       <c r="AJ50" s="15">
-        <v>1251802</v>
+        <v>1358132</v>
       </c>
       <c r="AK50" s="15">
-        <v>1219203</v>
+        <v>1612952</v>
       </c>
       <c r="AL50" s="15">
-        <v>1358132</v>
+        <v>1306338</v>
       </c>
       <c r="AM50" s="15">
-        <v>1612952</v>
+        <v>1354098</v>
       </c>
       <c r="AN50" s="15">
-        <v>1306338</v>
+        <v>1422069</v>
       </c>
       <c r="AO50" s="15">
-        <v>1354098</v>
+        <v>1510325</v>
       </c>
       <c r="AP50" s="15">
-        <v>1422069</v>
+        <v>1588283</v>
       </c>
       <c r="AQ50" s="15">
-        <v>1510325</v>
+        <v>2334083</v>
       </c>
       <c r="AR50" s="15">
-        <v>1588279</v>
+        <v>1422323</v>
       </c>
       <c r="AS50" s="15">
-        <v>2334083</v>
+        <v>1340527</v>
       </c>
       <c r="AT50" s="15">
-        <v>1422323</v>
+        <v>934969</v>
       </c>
       <c r="AU50" s="15">
-        <v>1784695</v>
+        <v>1023298</v>
       </c>
       <c r="AV50" s="15">
-        <v>934969</v>
+        <v>1310141</v>
       </c>
       <c r="AW50" s="15">
-        <v>1114272</v>
+        <v>955276</v>
       </c>
       <c r="AX50" s="15">
-        <v>1414341</v>
+        <v>1361723</v>
       </c>
       <c r="AY50" s="15">
-        <v>955276</v>
+        <v>1568984</v>
       </c>
       <c r="AZ50" s="15">
-        <v>1361723</v>
+        <v>1194240</v>
       </c>
       <c r="BA50" s="15">
-        <v>2746998</v>
+        <v>965744</v>
       </c>
       <c r="BB50" s="15">
-        <v>1194240</v>
+        <v>1097766</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>79</v>
       </c>
@@ -7143,7 +7143,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>56</v>
       </c>
@@ -7214,11 +7214,11 @@
       <c r="Y52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA52" s="11" t="s">
-        <v>58</v>
+      <c r="Z52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="11">
+        <v>0</v>
       </c>
       <c r="AB52" s="11">
         <v>0</v>
@@ -7235,11 +7235,11 @@
       <c r="AF52" s="11">
         <v>0</v>
       </c>
-      <c r="AG52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="11">
-        <v>0</v>
+      <c r="AG52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI52" s="11" t="s">
         <v>58</v>
@@ -7265,14 +7265,14 @@
       <c r="AP52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="11">
-        <v>0</v>
+      <c r="AQ52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT52" s="11" t="s">
         <v>58</v>
@@ -7302,7 +7302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>59</v>
       </c>
@@ -7364,20 +7364,20 @@
       <c r="V53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="13" t="s">
-        <v>58</v>
+      <c r="W53" s="13">
+        <v>0</v>
+      </c>
+      <c r="X53" s="13">
+        <v>0</v>
       </c>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
-      <c r="Z53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="13">
-        <v>0</v>
+      <c r="Z53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB53" s="13" t="s">
         <v>58</v>
@@ -7391,14 +7391,14 @@
       <c r="AE53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF53" s="13" t="s">
-        <v>58</v>
+      <c r="AF53" s="13">
+        <v>0</v>
       </c>
       <c r="AG53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH53" s="13">
-        <v>0</v>
+      <c r="AH53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI53" s="13" t="s">
         <v>58</v>
@@ -7424,14 +7424,14 @@
       <c r="AP53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS53" s="13">
-        <v>0</v>
+      <c r="AQ53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT53" s="13" t="s">
         <v>58</v>
@@ -7461,7 +7461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>62</v>
       </c>
@@ -7523,104 +7523,104 @@
       <c r="V54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="11" t="s">
-        <v>58</v>
+      <c r="W54" s="11">
+        <v>0</v>
+      </c>
+      <c r="X54" s="11">
+        <v>0</v>
       </c>
       <c r="Y54" s="11">
         <v>0</v>
       </c>
       <c r="Z54" s="11">
-        <v>0</v>
+        <v>63726</v>
       </c>
       <c r="AA54" s="11">
-        <v>0</v>
+        <v>29932</v>
       </c>
       <c r="AB54" s="11">
-        <v>63726</v>
+        <v>30841</v>
       </c>
       <c r="AC54" s="11">
-        <v>29932</v>
+        <v>30000</v>
       </c>
       <c r="AD54" s="11">
-        <v>30841</v>
+        <v>89971</v>
       </c>
       <c r="AE54" s="11">
-        <v>30000</v>
+        <v>59980</v>
       </c>
       <c r="AF54" s="11">
-        <v>89971</v>
-      </c>
-      <c r="AG54" s="11">
-        <v>59980</v>
+        <v>3000</v>
+      </c>
+      <c r="AG54" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH54" s="11">
-        <v>3000</v>
-      </c>
-      <c r="AI54" s="11" t="s">
-        <v>58</v>
+        <v>77978</v>
+      </c>
+      <c r="AI54" s="11">
+        <v>31496</v>
       </c>
       <c r="AJ54" s="11">
-        <v>77978</v>
-      </c>
-      <c r="AK54" s="11">
-        <v>31496</v>
+        <v>59990</v>
+      </c>
+      <c r="AK54" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL54" s="11">
-        <v>59990</v>
-      </c>
-      <c r="AM54" s="11" t="s">
-        <v>58</v>
+        <v>30001</v>
+      </c>
+      <c r="AM54" s="11">
+        <v>30157</v>
       </c>
       <c r="AN54" s="11">
-        <v>30001</v>
+        <v>30296</v>
       </c>
       <c r="AO54" s="11">
-        <v>30157</v>
+        <v>29984</v>
       </c>
       <c r="AP54" s="11">
-        <v>30296</v>
+        <v>33000</v>
       </c>
       <c r="AQ54" s="11">
-        <v>29984</v>
+        <v>29998</v>
       </c>
       <c r="AR54" s="11">
-        <v>33000</v>
+        <v>30364</v>
       </c>
       <c r="AS54" s="11">
-        <v>29998</v>
+        <v>30219</v>
       </c>
       <c r="AT54" s="11">
-        <v>30364</v>
+        <v>60167</v>
       </c>
       <c r="AU54" s="11">
-        <v>30219</v>
+        <v>6550</v>
       </c>
       <c r="AV54" s="11">
-        <v>60167</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="11">
-        <v>6550</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="11">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="AY54" s="11">
-        <v>0</v>
+        <v>32990</v>
       </c>
       <c r="AZ54" s="11">
-        <v>29999</v>
+        <v>15133</v>
       </c>
       <c r="BA54" s="11">
-        <v>32990</v>
+        <v>14987</v>
       </c>
       <c r="BB54" s="11">
-        <v>15133</v>
+        <v>32199</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>67</v>
       </c>
@@ -7691,11 +7691,11 @@
       <c r="Y55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA55" s="13" t="s">
-        <v>58</v>
+      <c r="Z55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="13">
+        <v>0</v>
       </c>
       <c r="AB55" s="13">
         <v>0</v>
@@ -7709,11 +7709,11 @@
       <c r="AE55" s="13">
         <v>0</v>
       </c>
-      <c r="AF55" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="13">
-        <v>0</v>
+      <c r="AF55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH55" s="13" t="s">
         <v>58</v>
@@ -7779,7 +7779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>80</v>
       </c>
@@ -7849,94 +7849,94 @@
         <v>0</v>
       </c>
       <c r="Z56" s="17">
-        <v>0</v>
+        <v>63726</v>
       </c>
       <c r="AA56" s="17">
-        <v>0</v>
+        <v>29932</v>
       </c>
       <c r="AB56" s="17">
-        <v>63726</v>
+        <v>30841</v>
       </c>
       <c r="AC56" s="17">
-        <v>29932</v>
+        <v>30000</v>
       </c>
       <c r="AD56" s="17">
-        <v>30841</v>
+        <v>89971</v>
       </c>
       <c r="AE56" s="17">
-        <v>30000</v>
+        <v>59980</v>
       </c>
       <c r="AF56" s="17">
-        <v>89971</v>
+        <v>3000</v>
       </c>
       <c r="AG56" s="17">
-        <v>59980</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="17">
-        <v>3000</v>
+        <v>77978</v>
       </c>
       <c r="AI56" s="17">
-        <v>0</v>
+        <v>31496</v>
       </c>
       <c r="AJ56" s="17">
-        <v>77978</v>
+        <v>59990</v>
       </c>
       <c r="AK56" s="17">
-        <v>31496</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="17">
-        <v>59990</v>
+        <v>30001</v>
       </c>
       <c r="AM56" s="17">
-        <v>0</v>
+        <v>30157</v>
       </c>
       <c r="AN56" s="17">
-        <v>30001</v>
+        <v>30296</v>
       </c>
       <c r="AO56" s="17">
-        <v>30157</v>
+        <v>29984</v>
       </c>
       <c r="AP56" s="17">
-        <v>30296</v>
+        <v>33000</v>
       </c>
       <c r="AQ56" s="17">
-        <v>29984</v>
+        <v>29998</v>
       </c>
       <c r="AR56" s="17">
-        <v>33000</v>
+        <v>30364</v>
       </c>
       <c r="AS56" s="17">
-        <v>29998</v>
+        <v>30219</v>
       </c>
       <c r="AT56" s="17">
-        <v>30364</v>
+        <v>60167</v>
       </c>
       <c r="AU56" s="17">
-        <v>30219</v>
+        <v>6550</v>
       </c>
       <c r="AV56" s="17">
-        <v>60167</v>
+        <v>0</v>
       </c>
       <c r="AW56" s="17">
-        <v>6550</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="17">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="AY56" s="17">
-        <v>0</v>
+        <v>32990</v>
       </c>
       <c r="AZ56" s="17">
-        <v>29999</v>
+        <v>15133</v>
       </c>
       <c r="BA56" s="17">
-        <v>32990</v>
+        <v>14987</v>
       </c>
       <c r="BB56" s="17">
-        <v>15133</v>
+        <v>32199</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>73</v>
       </c>
@@ -7993,7 +7993,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>65</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>74</v>
       </c>
@@ -8212,11 +8212,11 @@
       <c r="V59" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="15" t="s">
-        <v>58</v>
+      <c r="W59" s="15">
+        <v>0</v>
+      </c>
+      <c r="X59" s="15">
+        <v>0</v>
       </c>
       <c r="Y59" s="15">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>81</v>
       </c>
@@ -8366,7 +8366,7 @@
       <c r="BA60" s="19"/>
       <c r="BB60" s="19"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>82</v>
       </c>
@@ -8426,11 +8426,11 @@
       <c r="V61" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="17" t="s">
-        <v>58</v>
+      <c r="W61" s="17">
+        <v>0</v>
+      </c>
+      <c r="X61" s="17">
+        <v>0</v>
       </c>
       <c r="Y61" s="17">
         <v>0</v>
@@ -8523,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>75</v>
       </c>
@@ -8584,103 +8584,103 @@
         <v>0</v>
       </c>
       <c r="W62" s="15">
-        <v>0</v>
+        <v>1130785</v>
       </c>
       <c r="X62" s="15">
-        <v>0</v>
+        <v>1258674</v>
       </c>
       <c r="Y62" s="15">
-        <v>1130785</v>
+        <v>1412745</v>
       </c>
       <c r="Z62" s="15">
-        <v>1258674</v>
+        <v>1360409</v>
       </c>
       <c r="AA62" s="15">
-        <v>1412745</v>
+        <v>1396719</v>
       </c>
       <c r="AB62" s="15">
-        <v>1360409</v>
+        <v>1438480</v>
       </c>
       <c r="AC62" s="15">
-        <v>1396719</v>
+        <v>1426708</v>
       </c>
       <c r="AD62" s="15">
-        <v>1438480</v>
+        <v>1537590</v>
       </c>
       <c r="AE62" s="15">
-        <v>1426708</v>
+        <v>1796576</v>
       </c>
       <c r="AF62" s="15">
-        <v>1537590</v>
+        <v>1367053</v>
       </c>
       <c r="AG62" s="15">
-        <v>1796576</v>
+        <v>1381972</v>
       </c>
       <c r="AH62" s="15">
-        <v>1367053</v>
+        <v>1329780</v>
       </c>
       <c r="AI62" s="15">
-        <v>1381972</v>
+        <v>1250699</v>
       </c>
       <c r="AJ62" s="15">
-        <v>1329780</v>
+        <v>1418122</v>
       </c>
       <c r="AK62" s="15">
-        <v>1250699</v>
+        <v>1612952</v>
       </c>
       <c r="AL62" s="15">
-        <v>1418122</v>
+        <v>1336339</v>
       </c>
       <c r="AM62" s="15">
-        <v>1612952</v>
+        <v>1384255</v>
       </c>
       <c r="AN62" s="15">
-        <v>1336339</v>
+        <v>1452365</v>
       </c>
       <c r="AO62" s="15">
-        <v>1384255</v>
+        <v>1540309</v>
       </c>
       <c r="AP62" s="15">
-        <v>1452365</v>
+        <v>1621283</v>
       </c>
       <c r="AQ62" s="15">
-        <v>1540309</v>
+        <v>2364081</v>
       </c>
       <c r="AR62" s="15">
-        <v>1621279</v>
+        <v>1452687</v>
       </c>
       <c r="AS62" s="15">
-        <v>2364081</v>
+        <v>1370746</v>
       </c>
       <c r="AT62" s="15">
-        <v>1452687</v>
+        <v>995136</v>
       </c>
       <c r="AU62" s="15">
-        <v>1814914</v>
+        <v>1029848</v>
       </c>
       <c r="AV62" s="15">
-        <v>995136</v>
+        <v>1310141</v>
       </c>
       <c r="AW62" s="15">
-        <v>1120822</v>
+        <v>955276</v>
       </c>
       <c r="AX62" s="15">
-        <v>1414341</v>
+        <v>1391722</v>
       </c>
       <c r="AY62" s="15">
-        <v>955276</v>
+        <v>1601974</v>
       </c>
       <c r="AZ62" s="15">
-        <v>1391722</v>
+        <v>1209373</v>
       </c>
       <c r="BA62" s="15">
-        <v>2779988</v>
+        <v>980731</v>
       </c>
       <c r="BB62" s="15">
-        <v>1209373</v>
+        <v>1129965</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8735,7 +8735,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8790,7 +8790,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -8845,7 +8845,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>83</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -9057,7 +9057,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>84</v>
       </c>
@@ -9114,7 +9114,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>56</v>
       </c>
@@ -9176,32 +9176,32 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>260080</v>
       </c>
       <c r="Y69" s="11">
-        <v>0</v>
+        <v>170145</v>
       </c>
       <c r="Z69" s="11">
-        <v>260080</v>
+        <v>92656</v>
       </c>
       <c r="AA69" s="11">
-        <v>170145</v>
+        <v>130339</v>
       </c>
       <c r="AB69" s="11">
-        <v>92656</v>
+        <v>56328</v>
       </c>
       <c r="AC69" s="11">
-        <v>130339</v>
+        <v>448751</v>
       </c>
       <c r="AD69" s="11">
-        <v>56328</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="11">
-        <v>448751</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="11">
         <v>0</v>
@@ -9222,25 +9222,25 @@
         <v>0</v>
       </c>
       <c r="AL69" s="11">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="AM69" s="11">
-        <v>0</v>
+        <v>55243</v>
       </c>
       <c r="AN69" s="11">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="AO69" s="11">
-        <v>55243</v>
+        <v>51187</v>
       </c>
       <c r="AP69" s="11">
         <v>0</v>
       </c>
       <c r="AQ69" s="11">
-        <v>51187</v>
+        <v>0</v>
       </c>
       <c r="AR69" s="11">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="11">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>59</v>
       </c>
@@ -9335,104 +9335,104 @@
       <c r="V70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="13" t="s">
-        <v>58</v>
+      <c r="W70" s="13">
+        <v>1535794</v>
+      </c>
+      <c r="X70" s="13">
+        <v>1338261</v>
       </c>
       <c r="Y70" s="13">
-        <v>1535794</v>
+        <v>2036519</v>
       </c>
       <c r="Z70" s="13">
-        <v>1338261</v>
+        <v>4207552</v>
       </c>
       <c r="AA70" s="13">
-        <v>2036519</v>
+        <v>3662702</v>
       </c>
       <c r="AB70" s="13">
-        <v>4207552</v>
+        <v>2884065</v>
       </c>
       <c r="AC70" s="13">
-        <v>3662702</v>
+        <v>4127580</v>
       </c>
       <c r="AD70" s="13">
-        <v>2884065</v>
+        <v>4789640</v>
       </c>
       <c r="AE70" s="13">
-        <v>4127580</v>
+        <v>4668160</v>
       </c>
       <c r="AF70" s="13">
-        <v>4789640</v>
+        <v>2650568</v>
       </c>
       <c r="AG70" s="13">
-        <v>4668160</v>
+        <v>2387640</v>
       </c>
       <c r="AH70" s="13">
-        <v>2650568</v>
+        <v>1773710</v>
       </c>
       <c r="AI70" s="13">
-        <v>2387640</v>
+        <v>1503659</v>
       </c>
       <c r="AJ70" s="13">
-        <v>1773710</v>
+        <v>7444390</v>
       </c>
       <c r="AK70" s="13">
-        <v>1503659</v>
+        <v>7384593</v>
       </c>
       <c r="AL70" s="13">
-        <v>7444390</v>
+        <v>10572240</v>
       </c>
       <c r="AM70" s="13">
-        <v>7384593</v>
+        <v>7963345</v>
       </c>
       <c r="AN70" s="13">
-        <v>10572240</v>
+        <v>6668197</v>
       </c>
       <c r="AO70" s="13">
-        <v>7963345</v>
+        <v>7180136</v>
       </c>
       <c r="AP70" s="13">
-        <v>6668197</v>
+        <v>9927062</v>
       </c>
       <c r="AQ70" s="13">
-        <v>7180136</v>
+        <v>8031464</v>
       </c>
       <c r="AR70" s="13">
-        <v>7623034</v>
+        <v>8440392</v>
       </c>
       <c r="AS70" s="13">
-        <v>8031464</v>
+        <v>6022081</v>
       </c>
       <c r="AT70" s="13">
-        <v>8440392</v>
+        <v>3772125</v>
       </c>
       <c r="AU70" s="13">
-        <v>6852399</v>
+        <v>1738104</v>
       </c>
       <c r="AV70" s="13">
-        <v>3772125</v>
+        <v>3534615</v>
       </c>
       <c r="AW70" s="13">
-        <v>1738104</v>
+        <v>4415177</v>
       </c>
       <c r="AX70" s="13">
-        <v>492860</v>
+        <v>4032118</v>
       </c>
       <c r="AY70" s="13">
-        <v>4415177</v>
+        <v>4461065</v>
       </c>
       <c r="AZ70" s="13">
-        <v>4032118</v>
+        <v>2398114</v>
       </c>
       <c r="BA70" s="13">
-        <v>4509588</v>
+        <v>1700374</v>
       </c>
       <c r="BB70" s="13">
-        <v>2398114</v>
+        <v>1366469</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>60</v>
       </c>
@@ -9494,104 +9494,104 @@
       <c r="V71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>58</v>
+      <c r="W71" s="11">
+        <v>4243464</v>
+      </c>
+      <c r="X71" s="11">
+        <v>4132426</v>
       </c>
       <c r="Y71" s="11">
-        <v>4243464</v>
+        <v>6044451</v>
       </c>
       <c r="Z71" s="11">
-        <v>4132426</v>
+        <v>10964890</v>
       </c>
       <c r="AA71" s="11">
-        <v>6044451</v>
+        <v>12432806</v>
       </c>
       <c r="AB71" s="11">
-        <v>10964890</v>
+        <v>11733850</v>
       </c>
       <c r="AC71" s="11">
-        <v>12432806</v>
+        <v>13529840</v>
       </c>
       <c r="AD71" s="11">
-        <v>11733850</v>
+        <v>16886572</v>
       </c>
       <c r="AE71" s="11">
-        <v>13529840</v>
+        <v>15174088</v>
       </c>
       <c r="AF71" s="11">
-        <v>16886572</v>
+        <v>15064665</v>
       </c>
       <c r="AG71" s="11">
-        <v>15174088</v>
+        <v>15971545</v>
       </c>
       <c r="AH71" s="11">
-        <v>15064665</v>
+        <v>18563476</v>
       </c>
       <c r="AI71" s="11">
-        <v>15971545</v>
+        <v>20760834</v>
       </c>
       <c r="AJ71" s="11">
-        <v>18563476</v>
+        <v>21064393</v>
       </c>
       <c r="AK71" s="11">
-        <v>20760834</v>
+        <v>22003935</v>
       </c>
       <c r="AL71" s="11">
-        <v>21064393</v>
+        <v>15695812</v>
       </c>
       <c r="AM71" s="11">
-        <v>22003935</v>
+        <v>17510501</v>
       </c>
       <c r="AN71" s="11">
-        <v>15695812</v>
+        <v>18112310</v>
       </c>
       <c r="AO71" s="11">
-        <v>17510501</v>
+        <v>16799317</v>
       </c>
       <c r="AP71" s="11">
-        <v>18112310</v>
+        <v>17200342</v>
       </c>
       <c r="AQ71" s="11">
-        <v>16799317</v>
+        <v>14664054</v>
       </c>
       <c r="AR71" s="11">
-        <v>8711103</v>
+        <v>15786055</v>
       </c>
       <c r="AS71" s="11">
-        <v>14664054</v>
+        <v>14012076</v>
       </c>
       <c r="AT71" s="11">
-        <v>15786055</v>
+        <v>20292369</v>
       </c>
       <c r="AU71" s="11">
-        <v>18816710</v>
+        <v>19283565</v>
       </c>
       <c r="AV71" s="11">
-        <v>20292369</v>
+        <v>12246545</v>
       </c>
       <c r="AW71" s="11">
-        <v>19283565</v>
+        <v>13878514</v>
       </c>
       <c r="AX71" s="11">
-        <v>5372957</v>
+        <v>11378426</v>
       </c>
       <c r="AY71" s="11">
-        <v>13878514</v>
+        <v>11545822</v>
       </c>
       <c r="AZ71" s="11">
-        <v>11378426</v>
+        <v>9578146</v>
       </c>
       <c r="BA71" s="11">
-        <v>16812049</v>
+        <v>15170901</v>
       </c>
       <c r="BB71" s="11">
-        <v>9578146</v>
+        <v>14875653</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>61</v>
       </c>
@@ -9653,104 +9653,104 @@
       <c r="V72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X72" s="13" t="s">
-        <v>58</v>
+      <c r="W72" s="13">
+        <v>51086</v>
+      </c>
+      <c r="X72" s="13">
+        <v>79850</v>
       </c>
       <c r="Y72" s="13">
-        <v>51086</v>
+        <v>8456</v>
       </c>
       <c r="Z72" s="13">
-        <v>79850</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="13">
-        <v>8456</v>
+        <v>8059</v>
       </c>
       <c r="AB72" s="13">
-        <v>0</v>
+        <v>35628</v>
       </c>
       <c r="AC72" s="13">
-        <v>8059</v>
+        <v>269161</v>
       </c>
       <c r="AD72" s="13">
-        <v>35628</v>
+        <v>40880</v>
       </c>
       <c r="AE72" s="13">
-        <v>269161</v>
+        <v>17010</v>
       </c>
       <c r="AF72" s="13">
-        <v>40880</v>
+        <v>13944</v>
       </c>
       <c r="AG72" s="13">
-        <v>17010</v>
+        <v>339951</v>
       </c>
       <c r="AH72" s="13">
-        <v>13944</v>
+        <v>0</v>
       </c>
       <c r="AI72" s="13">
-        <v>339951</v>
+        <v>208746</v>
       </c>
       <c r="AJ72" s="13">
-        <v>0</v>
+        <v>26112</v>
       </c>
       <c r="AK72" s="13">
-        <v>208746</v>
+        <v>37820</v>
       </c>
       <c r="AL72" s="13">
-        <v>26112</v>
+        <v>193805</v>
       </c>
       <c r="AM72" s="13">
-        <v>37820</v>
+        <v>55913</v>
       </c>
       <c r="AN72" s="13">
-        <v>193805</v>
+        <v>158782</v>
       </c>
       <c r="AO72" s="13">
-        <v>55913</v>
+        <v>238356</v>
       </c>
       <c r="AP72" s="13">
-        <v>158782</v>
+        <v>165208</v>
       </c>
       <c r="AQ72" s="13">
-        <v>238356</v>
+        <v>91277</v>
       </c>
       <c r="AR72" s="13">
-        <v>165208</v>
+        <v>2761</v>
       </c>
       <c r="AS72" s="13">
-        <v>91277</v>
+        <v>122323</v>
       </c>
       <c r="AT72" s="13">
-        <v>2761</v>
+        <v>145964</v>
       </c>
       <c r="AU72" s="13">
-        <v>122323</v>
+        <v>84232</v>
       </c>
       <c r="AV72" s="13">
-        <v>145964</v>
+        <v>421157</v>
       </c>
       <c r="AW72" s="13">
-        <v>84232</v>
+        <v>226886</v>
       </c>
       <c r="AX72" s="13">
-        <v>463358</v>
+        <v>233905</v>
       </c>
       <c r="AY72" s="13">
-        <v>226886</v>
+        <v>81892</v>
       </c>
       <c r="AZ72" s="13">
-        <v>233905</v>
+        <v>0</v>
       </c>
       <c r="BA72" s="13">
-        <v>99971</v>
+        <v>0</v>
       </c>
       <c r="BB72" s="13">
-        <v>0</v>
+        <v>197366</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>62</v>
       </c>
@@ -9812,104 +9812,104 @@
       <c r="V73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X73" s="11" t="s">
-        <v>58</v>
+      <c r="W73" s="11">
+        <v>4713163</v>
+      </c>
+      <c r="X73" s="11">
+        <v>10607848</v>
       </c>
       <c r="Y73" s="11">
-        <v>4713163</v>
+        <v>4763912</v>
       </c>
       <c r="Z73" s="11">
-        <v>10607848</v>
+        <v>3588162</v>
       </c>
       <c r="AA73" s="11">
-        <v>4763912</v>
+        <v>5051120</v>
       </c>
       <c r="AB73" s="11">
-        <v>3588162</v>
+        <v>6251709</v>
       </c>
       <c r="AC73" s="11">
-        <v>5051120</v>
+        <v>5076183</v>
       </c>
       <c r="AD73" s="11">
-        <v>6251709</v>
+        <v>5780093</v>
       </c>
       <c r="AE73" s="11">
-        <v>5076183</v>
+        <v>3380259</v>
       </c>
       <c r="AF73" s="11">
-        <v>5780093</v>
+        <v>6167685</v>
       </c>
       <c r="AG73" s="11">
-        <v>3380259</v>
+        <v>6063083</v>
       </c>
       <c r="AH73" s="11">
-        <v>6167685</v>
+        <v>5874208</v>
       </c>
       <c r="AI73" s="11">
-        <v>6063083</v>
+        <v>3638402</v>
       </c>
       <c r="AJ73" s="11">
-        <v>5874208</v>
+        <v>2091841</v>
       </c>
       <c r="AK73" s="11">
-        <v>3638402</v>
+        <v>7829271</v>
       </c>
       <c r="AL73" s="11">
-        <v>2091841</v>
+        <v>7057080</v>
       </c>
       <c r="AM73" s="11">
-        <v>7829271</v>
+        <v>5131315</v>
       </c>
       <c r="AN73" s="11">
-        <v>7057080</v>
+        <v>9281322</v>
       </c>
       <c r="AO73" s="11">
-        <v>5131315</v>
+        <v>8697891</v>
       </c>
       <c r="AP73" s="11">
-        <v>9281322</v>
+        <v>9622335</v>
       </c>
       <c r="AQ73" s="11">
-        <v>8697891</v>
+        <v>11745764</v>
       </c>
       <c r="AR73" s="11">
-        <v>9622335</v>
+        <v>11010762</v>
       </c>
       <c r="AS73" s="11">
-        <v>11745764</v>
+        <v>9758515</v>
       </c>
       <c r="AT73" s="11">
-        <v>11010762</v>
+        <v>7759831</v>
       </c>
       <c r="AU73" s="11">
-        <v>9749239</v>
+        <v>12555522</v>
       </c>
       <c r="AV73" s="11">
-        <v>7759831</v>
+        <v>8944818</v>
       </c>
       <c r="AW73" s="11">
-        <v>12555522</v>
+        <v>10771223</v>
       </c>
       <c r="AX73" s="11">
-        <v>8944817</v>
+        <v>9294237</v>
       </c>
       <c r="AY73" s="11">
-        <v>10771223</v>
+        <v>13675087</v>
       </c>
       <c r="AZ73" s="11">
-        <v>9294237</v>
+        <v>15209429</v>
       </c>
       <c r="BA73" s="11">
-        <v>13675087</v>
+        <v>10698992</v>
       </c>
       <c r="BB73" s="11">
-        <v>15209429</v>
+        <v>11334609</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>63</v>
       </c>
@@ -9971,104 +9971,104 @@
       <c r="V74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="13" t="s">
-        <v>58</v>
+      <c r="W74" s="13">
+        <v>455389</v>
+      </c>
+      <c r="X74" s="13">
+        <v>28730</v>
       </c>
       <c r="Y74" s="13">
-        <v>455389</v>
+        <v>1259140</v>
       </c>
       <c r="Z74" s="13">
-        <v>28730</v>
+        <v>966902</v>
       </c>
       <c r="AA74" s="13">
-        <v>1259140</v>
+        <v>1932085</v>
       </c>
       <c r="AB74" s="13">
-        <v>966902</v>
+        <v>1665195</v>
       </c>
       <c r="AC74" s="13">
-        <v>1932085</v>
+        <v>664878</v>
       </c>
       <c r="AD74" s="13">
-        <v>1665195</v>
+        <v>806764</v>
       </c>
       <c r="AE74" s="13">
-        <v>664878</v>
+        <v>1285748</v>
       </c>
       <c r="AF74" s="13">
-        <v>806764</v>
+        <v>1195921</v>
       </c>
       <c r="AG74" s="13">
-        <v>1285748</v>
+        <v>640736</v>
       </c>
       <c r="AH74" s="13">
-        <v>1195921</v>
+        <v>839228</v>
       </c>
       <c r="AI74" s="13">
-        <v>640736</v>
+        <v>1443862</v>
       </c>
       <c r="AJ74" s="13">
-        <v>839228</v>
+        <v>2308364</v>
       </c>
       <c r="AK74" s="13">
-        <v>1443862</v>
+        <v>2026429</v>
       </c>
       <c r="AL74" s="13">
-        <v>2308364</v>
+        <v>2513345</v>
       </c>
       <c r="AM74" s="13">
-        <v>2026429</v>
+        <v>1901577</v>
       </c>
       <c r="AN74" s="13">
-        <v>2513345</v>
+        <v>93847</v>
       </c>
       <c r="AO74" s="13">
-        <v>1901577</v>
+        <v>384700</v>
       </c>
       <c r="AP74" s="13">
-        <v>93847</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="13">
-        <v>384700</v>
+        <v>0</v>
       </c>
       <c r="AR74" s="13">
-        <v>-9776</v>
+        <v>0</v>
       </c>
       <c r="AS74" s="13">
-        <v>0</v>
+        <v>998510</v>
       </c>
       <c r="AT74" s="13">
-        <v>0</v>
+        <v>762619</v>
       </c>
       <c r="AU74" s="13">
-        <v>1115927</v>
+        <v>0</v>
       </c>
       <c r="AV74" s="13">
-        <v>762619</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="13">
-        <v>0</v>
+        <v>1944491</v>
       </c>
       <c r="AX74" s="13">
-        <v>0</v>
+        <v>2568207</v>
       </c>
       <c r="AY74" s="13">
-        <v>1944491</v>
+        <v>3399411</v>
       </c>
       <c r="AZ74" s="13">
-        <v>2568207</v>
+        <v>635557</v>
       </c>
       <c r="BA74" s="13">
-        <v>3456472</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="13">
-        <v>635557</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>64</v>
       </c>
@@ -10130,11 +10130,11 @@
       <c r="V75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>58</v>
+      <c r="W75" s="11">
+        <v>0</v>
+      </c>
+      <c r="X75" s="11">
+        <v>0</v>
       </c>
       <c r="Y75" s="11">
         <v>0</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>65</v>
       </c>
@@ -10358,23 +10358,23 @@
       <c r="AS76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU76" s="13" t="s">
-        <v>58</v>
+      <c r="AT76" s="13">
+        <v>586923</v>
+      </c>
+      <c r="AU76" s="13">
+        <v>0</v>
       </c>
       <c r="AV76" s="13">
-        <v>586923</v>
+        <v>0</v>
       </c>
       <c r="AW76" s="13">
-        <v>0</v>
+        <v>67796</v>
       </c>
       <c r="AX76" s="13">
         <v>0</v>
       </c>
       <c r="AY76" s="13">
-        <v>67796</v>
+        <v>0</v>
       </c>
       <c r="AZ76" s="13">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>66</v>
       </c>
@@ -10448,11 +10448,11 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+      <c r="W77" s="11">
+        <v>0</v>
+      </c>
+      <c r="X77" s="11">
+        <v>0</v>
       </c>
       <c r="Y77" s="11">
         <v>0</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>67</v>
       </c>
@@ -10607,11 +10607,11 @@
       <c r="V78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="13" t="s">
-        <v>58</v>
+      <c r="W78" s="13">
+        <v>0</v>
+      </c>
+      <c r="X78" s="13">
+        <v>0</v>
       </c>
       <c r="Y78" s="13">
         <v>0</v>
@@ -10635,61 +10635,61 @@
         <v>0</v>
       </c>
       <c r="AF78" s="13">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="AG78" s="13">
-        <v>0</v>
+        <v>699302</v>
       </c>
       <c r="AH78" s="13">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="AI78" s="13">
-        <v>699302</v>
+        <v>451702</v>
       </c>
       <c r="AJ78" s="13">
         <v>0</v>
       </c>
       <c r="AK78" s="13">
-        <v>451702</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="13">
         <v>0</v>
       </c>
       <c r="AM78" s="13">
-        <v>0</v>
+        <v>101423</v>
       </c>
       <c r="AN78" s="13">
         <v>0</v>
       </c>
       <c r="AO78" s="13">
-        <v>101423</v>
+        <v>8965</v>
       </c>
       <c r="AP78" s="13">
-        <v>0</v>
+        <v>165847</v>
       </c>
       <c r="AQ78" s="13">
-        <v>8965</v>
+        <v>227136</v>
       </c>
       <c r="AR78" s="13">
-        <v>165849</v>
+        <v>92935</v>
       </c>
       <c r="AS78" s="13">
-        <v>227136</v>
+        <v>3100</v>
       </c>
       <c r="AT78" s="13">
-        <v>92935</v>
+        <v>17529</v>
       </c>
       <c r="AU78" s="13">
-        <v>5294</v>
+        <v>0</v>
       </c>
       <c r="AV78" s="13">
-        <v>17529</v>
+        <v>6201</v>
       </c>
       <c r="AW78" s="13">
         <v>0</v>
       </c>
       <c r="AX78" s="13">
-        <v>35055</v>
+        <v>0</v>
       </c>
       <c r="AY78" s="13">
         <v>0</v>
@@ -10704,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>68</v>
       </c>
@@ -10766,20 +10766,20 @@
       <c r="V79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
+      <c r="W79" s="11">
+        <v>0</v>
+      </c>
+      <c r="X79" s="11">
+        <v>0</v>
       </c>
       <c r="Y79" s="11">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="Z79" s="11">
         <v>0</v>
       </c>
       <c r="AA79" s="11">
-        <v>135000</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="11">
         <v>0</v>
@@ -10791,13 +10791,13 @@
         <v>0</v>
       </c>
       <c r="AE79" s="11">
-        <v>0</v>
+        <v>166208</v>
       </c>
       <c r="AF79" s="11">
         <v>0</v>
       </c>
       <c r="AG79" s="11">
-        <v>166208</v>
+        <v>0</v>
       </c>
       <c r="AH79" s="11">
         <v>0</v>
@@ -10809,61 +10809,61 @@
         <v>0</v>
       </c>
       <c r="AK79" s="11">
-        <v>0</v>
+        <v>1046639</v>
       </c>
       <c r="AL79" s="11">
         <v>0</v>
       </c>
       <c r="AM79" s="11">
-        <v>1046639</v>
+        <v>0</v>
       </c>
       <c r="AN79" s="11">
         <v>0</v>
       </c>
       <c r="AO79" s="11">
-        <v>0</v>
+        <v>106996</v>
       </c>
       <c r="AP79" s="11">
-        <v>0</v>
+        <v>117311</v>
       </c>
       <c r="AQ79" s="11">
-        <v>106996</v>
+        <v>128490</v>
       </c>
       <c r="AR79" s="11">
-        <v>550188</v>
+        <v>0</v>
       </c>
       <c r="AS79" s="11">
-        <v>128490</v>
+        <v>0</v>
       </c>
       <c r="AT79" s="11">
-        <v>0</v>
+        <v>196807</v>
       </c>
       <c r="AU79" s="11">
-        <v>368587</v>
+        <v>0</v>
       </c>
       <c r="AV79" s="11">
-        <v>196807</v>
+        <v>180906</v>
       </c>
       <c r="AW79" s="11">
-        <v>89199</v>
+        <v>227228</v>
       </c>
       <c r="AX79" s="11">
-        <v>943449</v>
+        <v>0</v>
       </c>
       <c r="AY79" s="11">
-        <v>227228</v>
+        <v>275490</v>
       </c>
       <c r="AZ79" s="11">
-        <v>0</v>
+        <v>167013</v>
       </c>
       <c r="BA79" s="11">
-        <v>275490</v>
+        <v>1665</v>
       </c>
       <c r="BB79" s="11">
-        <v>167013</v>
+        <v>95381</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
         <v>78</v>
       </c>
@@ -10924,103 +10924,103 @@
         <v>0</v>
       </c>
       <c r="W80" s="15">
-        <v>0</v>
+        <v>10998896</v>
       </c>
       <c r="X80" s="15">
-        <v>0</v>
+        <v>16447195</v>
       </c>
       <c r="Y80" s="15">
-        <v>10998896</v>
+        <v>14417623</v>
       </c>
       <c r="Z80" s="15">
-        <v>16447195</v>
+        <v>19820162</v>
       </c>
       <c r="AA80" s="15">
-        <v>14417623</v>
+        <v>23217111</v>
       </c>
       <c r="AB80" s="15">
-        <v>19820162</v>
+        <v>22626775</v>
       </c>
       <c r="AC80" s="15">
-        <v>23217111</v>
+        <v>24116393</v>
       </c>
       <c r="AD80" s="15">
-        <v>22626775</v>
+        <v>28303949</v>
       </c>
       <c r="AE80" s="15">
-        <v>24116393</v>
+        <v>24691473</v>
       </c>
       <c r="AF80" s="15">
-        <v>28303949</v>
+        <v>25093670</v>
       </c>
       <c r="AG80" s="15">
-        <v>24691473</v>
+        <v>26102257</v>
       </c>
       <c r="AH80" s="15">
-        <v>25093670</v>
+        <v>27050622</v>
       </c>
       <c r="AI80" s="15">
-        <v>26102257</v>
+        <v>28007205</v>
       </c>
       <c r="AJ80" s="15">
-        <v>27050622</v>
+        <v>32935100</v>
       </c>
       <c r="AK80" s="15">
-        <v>28007205</v>
+        <v>40328687</v>
       </c>
       <c r="AL80" s="15">
-        <v>32935100</v>
+        <v>36032694</v>
       </c>
       <c r="AM80" s="15">
-        <v>40328687</v>
+        <v>32719317</v>
       </c>
       <c r="AN80" s="15">
-        <v>36032694</v>
+        <v>34314458</v>
       </c>
       <c r="AO80" s="15">
-        <v>32719317</v>
+        <v>33467548</v>
       </c>
       <c r="AP80" s="15">
-        <v>34314458</v>
+        <v>37198105</v>
       </c>
       <c r="AQ80" s="15">
-        <v>33467548</v>
+        <v>34888185</v>
       </c>
       <c r="AR80" s="15">
-        <v>26828286</v>
+        <v>35332905</v>
       </c>
       <c r="AS80" s="15">
-        <v>34888185</v>
+        <v>30916605</v>
       </c>
       <c r="AT80" s="15">
-        <v>35332905</v>
+        <v>33534167</v>
       </c>
       <c r="AU80" s="15">
-        <v>37030479</v>
+        <v>33661423</v>
       </c>
       <c r="AV80" s="15">
-        <v>33534167</v>
+        <v>25334242</v>
       </c>
       <c r="AW80" s="15">
-        <v>33750622</v>
+        <v>31531315</v>
       </c>
       <c r="AX80" s="15">
-        <v>16252496</v>
+        <v>27506893</v>
       </c>
       <c r="AY80" s="15">
-        <v>31531315</v>
+        <v>33438767</v>
       </c>
       <c r="AZ80" s="15">
-        <v>27506893</v>
+        <v>27988259</v>
       </c>
       <c r="BA80" s="15">
-        <v>38828657</v>
+        <v>27571932</v>
       </c>
       <c r="BB80" s="15">
-        <v>27988259</v>
+        <v>27869478</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>86</v>
       </c>
@@ -11077,7 +11077,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
@@ -11148,11 +11148,11 @@
       <c r="Y82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA82" s="11" t="s">
-        <v>58</v>
+      <c r="Z82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="11">
+        <v>0</v>
       </c>
       <c r="AB82" s="11">
         <v>0</v>
@@ -11202,11 +11202,11 @@
       <c r="AQ82" s="11">
         <v>0</v>
       </c>
-      <c r="AR82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS82" s="11">
-        <v>0</v>
+      <c r="AR82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT82" s="11" t="s">
         <v>58</v>
@@ -11236,7 +11236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -11298,20 +11298,20 @@
       <c r="V83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="13" t="s">
-        <v>58</v>
+      <c r="W83" s="13">
+        <v>0</v>
+      </c>
+      <c r="X83" s="13">
+        <v>0</v>
       </c>
       <c r="Y83" s="13">
         <v>0</v>
       </c>
-      <c r="Z83" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="13">
-        <v>0</v>
+      <c r="Z83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB83" s="13" t="s">
         <v>58</v>
@@ -11325,11 +11325,11 @@
       <c r="AE83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG83" s="13" t="s">
-        <v>58</v>
+      <c r="AF83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="13">
+        <v>0</v>
       </c>
       <c r="AH83" s="13">
         <v>0</v>
@@ -11361,11 +11361,11 @@
       <c r="AQ83" s="13">
         <v>0</v>
       </c>
-      <c r="AR83" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS83" s="13">
-        <v>0</v>
+      <c r="AR83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT83" s="13" t="s">
         <v>58</v>
@@ -11395,7 +11395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>62</v>
       </c>
@@ -11457,104 +11457,104 @@
       <c r="V84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
+      <c r="W84" s="11">
+        <v>0</v>
+      </c>
+      <c r="X84" s="11">
+        <v>0</v>
       </c>
       <c r="Y84" s="11">
         <v>0</v>
       </c>
       <c r="Z84" s="11">
-        <v>0</v>
+        <v>5827781</v>
       </c>
       <c r="AA84" s="11">
-        <v>0</v>
+        <v>3079391</v>
       </c>
       <c r="AB84" s="11">
-        <v>5827781</v>
+        <v>3340127</v>
       </c>
       <c r="AC84" s="11">
-        <v>3079391</v>
+        <v>3371882</v>
       </c>
       <c r="AD84" s="11">
-        <v>3340127</v>
+        <v>10837199</v>
       </c>
       <c r="AE84" s="11">
-        <v>3371882</v>
+        <v>7512750</v>
       </c>
       <c r="AF84" s="11">
-        <v>10837199</v>
+        <v>369429</v>
       </c>
       <c r="AG84" s="11">
-        <v>7512750</v>
+        <v>0</v>
       </c>
       <c r="AH84" s="11">
-        <v>369429</v>
+        <v>9567970</v>
       </c>
       <c r="AI84" s="11">
-        <v>0</v>
+        <v>3932316</v>
       </c>
       <c r="AJ84" s="11">
-        <v>9567970</v>
+        <v>7686048</v>
       </c>
       <c r="AK84" s="11">
-        <v>3932316</v>
+        <v>0</v>
       </c>
       <c r="AL84" s="11">
-        <v>7686048</v>
+        <v>3969788</v>
       </c>
       <c r="AM84" s="11">
-        <v>0</v>
+        <v>4446278</v>
       </c>
       <c r="AN84" s="11">
-        <v>3969788</v>
+        <v>4452926</v>
       </c>
       <c r="AO84" s="11">
-        <v>4446278</v>
+        <v>4115245</v>
       </c>
       <c r="AP84" s="11">
-        <v>4452926</v>
+        <v>4543728</v>
       </c>
       <c r="AQ84" s="11">
-        <v>4115245</v>
+        <v>4072694</v>
       </c>
       <c r="AR84" s="11">
-        <v>4543728</v>
+        <v>3727587</v>
       </c>
       <c r="AS84" s="11">
-        <v>4072694</v>
+        <v>4794406</v>
       </c>
       <c r="AT84" s="11">
-        <v>3727587</v>
+        <v>9641547</v>
       </c>
       <c r="AU84" s="11">
-        <v>4794406</v>
+        <v>1109612</v>
       </c>
       <c r="AV84" s="11">
-        <v>9641547</v>
+        <v>0</v>
       </c>
       <c r="AW84" s="11">
-        <v>1109612</v>
+        <v>0</v>
       </c>
       <c r="AX84" s="11">
-        <v>0</v>
+        <v>3792048</v>
       </c>
       <c r="AY84" s="11">
-        <v>0</v>
+        <v>4072777</v>
       </c>
       <c r="AZ84" s="11">
-        <v>3792048</v>
+        <v>1918237</v>
       </c>
       <c r="BA84" s="11">
-        <v>4072777</v>
+        <v>2168479</v>
       </c>
       <c r="BB84" s="11">
-        <v>1918237</v>
+        <v>4346640</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>67</v>
       </c>
@@ -11625,11 +11625,11 @@
       <c r="Y85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA85" s="13" t="s">
-        <v>58</v>
+      <c r="Z85" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="13">
+        <v>0</v>
       </c>
       <c r="AB85" s="13">
         <v>0</v>
@@ -11643,11 +11643,11 @@
       <c r="AE85" s="13">
         <v>0</v>
       </c>
-      <c r="AF85" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="13">
-        <v>0</v>
+      <c r="AF85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG85" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH85" s="13" t="s">
         <v>58</v>
@@ -11713,7 +11713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="16" t="s">
         <v>80</v>
       </c>
@@ -11783,94 +11783,94 @@
         <v>0</v>
       </c>
       <c r="Z86" s="17">
-        <v>0</v>
+        <v>5827781</v>
       </c>
       <c r="AA86" s="17">
-        <v>0</v>
+        <v>3079391</v>
       </c>
       <c r="AB86" s="17">
-        <v>5827781</v>
+        <v>3340127</v>
       </c>
       <c r="AC86" s="17">
-        <v>3079391</v>
+        <v>3371882</v>
       </c>
       <c r="AD86" s="17">
-        <v>3340127</v>
+        <v>10837199</v>
       </c>
       <c r="AE86" s="17">
-        <v>3371882</v>
+        <v>7512750</v>
       </c>
       <c r="AF86" s="17">
-        <v>10837199</v>
+        <v>369429</v>
       </c>
       <c r="AG86" s="17">
-        <v>7512750</v>
+        <v>0</v>
       </c>
       <c r="AH86" s="17">
-        <v>369429</v>
+        <v>9567970</v>
       </c>
       <c r="AI86" s="17">
-        <v>0</v>
+        <v>3932316</v>
       </c>
       <c r="AJ86" s="17">
-        <v>9567970</v>
+        <v>7686048</v>
       </c>
       <c r="AK86" s="17">
-        <v>3932316</v>
+        <v>0</v>
       </c>
       <c r="AL86" s="17">
-        <v>7686048</v>
+        <v>3969788</v>
       </c>
       <c r="AM86" s="17">
-        <v>0</v>
+        <v>4446278</v>
       </c>
       <c r="AN86" s="17">
-        <v>3969788</v>
+        <v>4452926</v>
       </c>
       <c r="AO86" s="17">
-        <v>4446278</v>
+        <v>4115245</v>
       </c>
       <c r="AP86" s="17">
-        <v>4452926</v>
+        <v>4543728</v>
       </c>
       <c r="AQ86" s="17">
-        <v>4115245</v>
+        <v>4072694</v>
       </c>
       <c r="AR86" s="17">
-        <v>4543728</v>
+        <v>3727587</v>
       </c>
       <c r="AS86" s="17">
-        <v>4072694</v>
+        <v>4794406</v>
       </c>
       <c r="AT86" s="17">
-        <v>3727587</v>
+        <v>9641547</v>
       </c>
       <c r="AU86" s="17">
-        <v>4794406</v>
+        <v>1109612</v>
       </c>
       <c r="AV86" s="17">
-        <v>9641547</v>
+        <v>0</v>
       </c>
       <c r="AW86" s="17">
-        <v>1109612</v>
+        <v>0</v>
       </c>
       <c r="AX86" s="17">
-        <v>0</v>
+        <v>3792048</v>
       </c>
       <c r="AY86" s="17">
-        <v>0</v>
+        <v>4072777</v>
       </c>
       <c r="AZ86" s="17">
-        <v>3792048</v>
+        <v>1918237</v>
       </c>
       <c r="BA86" s="17">
-        <v>4072777</v>
+        <v>2168479</v>
       </c>
       <c r="BB86" s="17">
-        <v>1918237</v>
+        <v>4346640</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>87</v>
       </c>
@@ -11927,7 +11927,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>65</v>
       </c>
@@ -12049,14 +12049,14 @@
       <c r="AP88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ88" s="11" t="s">
-        <v>58</v>
+      <c r="AQ88" s="11">
+        <v>12945991</v>
       </c>
       <c r="AR88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS88" s="11">
-        <v>12945991</v>
+      <c r="AS88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT88" s="11" t="s">
         <v>58</v>
@@ -12086,7 +12086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
         <v>74</v>
       </c>
@@ -12148,11 +12148,11 @@
       <c r="V89" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W89" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X89" s="15" t="s">
-        <v>58</v>
+      <c r="W89" s="15">
+        <v>0</v>
+      </c>
+      <c r="X89" s="15">
+        <v>0</v>
       </c>
       <c r="Y89" s="15">
         <v>0</v>
@@ -12209,13 +12209,13 @@
         <v>0</v>
       </c>
       <c r="AQ89" s="15">
-        <v>0</v>
+        <v>12945991</v>
       </c>
       <c r="AR89" s="15">
         <v>0</v>
       </c>
       <c r="AS89" s="15">
-        <v>12945991</v>
+        <v>0</v>
       </c>
       <c r="AT89" s="15">
         <v>0</v>
@@ -12245,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
         <v>88</v>
       </c>
@@ -12302,7 +12302,7 @@
       <c r="BA90" s="19"/>
       <c r="BB90" s="19"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="16" t="s">
         <v>82</v>
       </c>
@@ -12364,11 +12364,11 @@
       <c r="V91" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X91" s="17" t="s">
-        <v>58</v>
+      <c r="W91" s="17">
+        <v>0</v>
+      </c>
+      <c r="X91" s="17">
+        <v>0</v>
       </c>
       <c r="Y91" s="17">
         <v>0</v>
@@ -12461,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>89</v>
       </c>
@@ -12518,7 +12518,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>90</v>
       </c>
@@ -12580,11 +12580,11 @@
       <c r="V93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X93" s="11" t="s">
-        <v>58</v>
+      <c r="W93" s="11">
+        <v>0</v>
+      </c>
+      <c r="X93" s="11">
+        <v>0</v>
       </c>
       <c r="Y93" s="11">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
         <v>75</v>
       </c>
@@ -12738,103 +12738,103 @@
         <v>0</v>
       </c>
       <c r="W94" s="15">
-        <v>0</v>
+        <v>10998896</v>
       </c>
       <c r="X94" s="15">
-        <v>0</v>
+        <v>16447195</v>
       </c>
       <c r="Y94" s="15">
-        <v>10998896</v>
+        <v>14417623</v>
       </c>
       <c r="Z94" s="15">
-        <v>16447195</v>
+        <v>25647943</v>
       </c>
       <c r="AA94" s="15">
-        <v>14417623</v>
+        <v>26296502</v>
       </c>
       <c r="AB94" s="15">
-        <v>25647943</v>
+        <v>25966902</v>
       </c>
       <c r="AC94" s="15">
-        <v>26296502</v>
+        <v>27488275</v>
       </c>
       <c r="AD94" s="15">
-        <v>25966902</v>
+        <v>39141148</v>
       </c>
       <c r="AE94" s="15">
-        <v>27488275</v>
+        <v>32204223</v>
       </c>
       <c r="AF94" s="15">
-        <v>39141148</v>
+        <v>25463099</v>
       </c>
       <c r="AG94" s="15">
-        <v>32204223</v>
+        <v>26102257</v>
       </c>
       <c r="AH94" s="15">
-        <v>25463099</v>
+        <v>36618592</v>
       </c>
       <c r="AI94" s="15">
-        <v>26102257</v>
+        <v>31939521</v>
       </c>
       <c r="AJ94" s="15">
-        <v>36618592</v>
+        <v>40621148</v>
       </c>
       <c r="AK94" s="15">
-        <v>31939521</v>
+        <v>40328687</v>
       </c>
       <c r="AL94" s="15">
-        <v>40621148</v>
+        <v>40002482</v>
       </c>
       <c r="AM94" s="15">
-        <v>40328687</v>
+        <v>37165595</v>
       </c>
       <c r="AN94" s="15">
-        <v>40002482</v>
+        <v>38767384</v>
       </c>
       <c r="AO94" s="15">
-        <v>37165595</v>
+        <v>37582793</v>
       </c>
       <c r="AP94" s="15">
-        <v>38767384</v>
+        <v>41741833</v>
       </c>
       <c r="AQ94" s="15">
-        <v>37582793</v>
+        <v>51906870</v>
       </c>
       <c r="AR94" s="15">
-        <v>31372014</v>
+        <v>39060492</v>
       </c>
       <c r="AS94" s="15">
-        <v>51906870</v>
+        <v>35711011</v>
       </c>
       <c r="AT94" s="15">
-        <v>39060492</v>
+        <v>43175714</v>
       </c>
       <c r="AU94" s="15">
-        <v>41824885</v>
+        <v>34771035</v>
       </c>
       <c r="AV94" s="15">
-        <v>43175714</v>
+        <v>25334242</v>
       </c>
       <c r="AW94" s="15">
-        <v>34860234</v>
+        <v>31531315</v>
       </c>
       <c r="AX94" s="15">
-        <v>16252496</v>
+        <v>31298941</v>
       </c>
       <c r="AY94" s="15">
-        <v>31531315</v>
+        <v>37511544</v>
       </c>
       <c r="AZ94" s="15">
-        <v>31298941</v>
+        <v>29906496</v>
       </c>
       <c r="BA94" s="15">
-        <v>42901434</v>
+        <v>29740411</v>
       </c>
       <c r="BB94" s="15">
-        <v>29906496</v>
+        <v>32216118</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -12889,7 +12889,7 @@
       <c r="BA95" s="1"/>
       <c r="BB95" s="1"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -12944,7 +12944,7 @@
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -12999,7 +12999,7 @@
       <c r="BA97" s="1"/>
       <c r="BB97" s="1"/>
     </row>
-    <row r="98" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>91</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13211,7 +13211,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
         <v>92</v>
       </c>
@@ -13268,7 +13268,7 @@
       <c r="BA100" s="9"/>
       <c r="BB100" s="9"/>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>56</v>
       </c>
@@ -13333,30 +13333,30 @@
       <c r="W101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y101" s="11" t="s">
-        <v>58</v>
+      <c r="X101" s="11">
+        <v>4459534</v>
+      </c>
+      <c r="Y101" s="11">
+        <v>4459544</v>
       </c>
       <c r="Z101" s="11">
-        <v>4459534</v>
+        <v>4459547</v>
       </c>
       <c r="AA101" s="11">
-        <v>4459544</v>
+        <v>4459541</v>
       </c>
       <c r="AB101" s="11">
-        <v>4459547</v>
+        <v>4459504</v>
       </c>
       <c r="AC101" s="11">
-        <v>4459541</v>
-      </c>
-      <c r="AD101" s="11">
-        <v>4459504</v>
-      </c>
-      <c r="AE101" s="11">
         <v>12009286</v>
       </c>
+      <c r="AD101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AF101" s="11" t="s">
         <v>58</v>
       </c>
@@ -13375,26 +13375,26 @@
       <c r="AK101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN101" s="11">
+      <c r="AL101" s="11">
         <v>17835498</v>
       </c>
+      <c r="AM101" s="11">
+        <v>18414333</v>
+      </c>
+      <c r="AN101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO101" s="11">
-        <v>18414333</v>
+        <v>17000000</v>
       </c>
       <c r="AP101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ101" s="11">
-        <v>17000000</v>
-      </c>
-      <c r="AR101" s="11">
-        <v>56353</v>
+      <c r="AQ101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS101" s="11" t="s">
         <v>58</v>
@@ -13427,7 +13427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>59</v>
       </c>
@@ -13489,104 +13489,104 @@
       <c r="V102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X102" s="13" t="s">
-        <v>58</v>
+      <c r="W102" s="13">
+        <v>14594640</v>
+      </c>
+      <c r="X102" s="13">
+        <v>14599476</v>
       </c>
       <c r="Y102" s="13">
-        <v>14594640</v>
+        <v>16614066</v>
       </c>
       <c r="Z102" s="13">
-        <v>14599476</v>
+        <v>25160421</v>
       </c>
       <c r="AA102" s="13">
-        <v>16614066</v>
+        <v>27312399</v>
       </c>
       <c r="AB102" s="13">
-        <v>25160421</v>
+        <v>26520626</v>
       </c>
       <c r="AC102" s="13">
-        <v>27312399</v>
+        <v>29432889</v>
       </c>
       <c r="AD102" s="13">
-        <v>26520626</v>
+        <v>31074721</v>
       </c>
       <c r="AE102" s="13">
-        <v>29432889</v>
+        <v>31291082</v>
       </c>
       <c r="AF102" s="13">
-        <v>31074721</v>
+        <v>31291015</v>
       </c>
       <c r="AG102" s="13">
-        <v>31291082</v>
+        <v>34251040</v>
       </c>
       <c r="AH102" s="13">
-        <v>31291015</v>
+        <v>35630976</v>
       </c>
       <c r="AI102" s="13">
-        <v>34251040</v>
+        <v>39789865</v>
       </c>
       <c r="AJ102" s="13">
-        <v>35630976</v>
+        <v>42815593</v>
       </c>
       <c r="AK102" s="13">
-        <v>39789865</v>
+        <v>44392169</v>
       </c>
       <c r="AL102" s="13">
-        <v>42815593</v>
+        <v>41617257</v>
       </c>
       <c r="AM102" s="13">
-        <v>44392169</v>
+        <v>42966607</v>
       </c>
       <c r="AN102" s="13">
-        <v>41617257</v>
+        <v>41998835</v>
       </c>
       <c r="AO102" s="13">
-        <v>42966607</v>
+        <v>41312398</v>
       </c>
       <c r="AP102" s="13">
-        <v>41998835</v>
+        <v>40159317</v>
       </c>
       <c r="AQ102" s="13">
-        <v>41312398</v>
+        <v>40013870</v>
       </c>
       <c r="AR102" s="13">
-        <v>38720509</v>
+        <v>41327066</v>
       </c>
       <c r="AS102" s="13">
-        <v>40013870</v>
+        <v>41306827</v>
       </c>
       <c r="AT102" s="13">
-        <v>41327066</v>
+        <v>41073684</v>
       </c>
       <c r="AU102" s="13">
-        <v>43679008</v>
+        <v>40775677</v>
       </c>
       <c r="AV102" s="13">
-        <v>41073684</v>
+        <v>31895964</v>
       </c>
       <c r="AW102" s="13">
-        <v>40775677</v>
+        <v>29319775</v>
       </c>
       <c r="AX102" s="13">
-        <v>26721419</v>
+        <v>27699967</v>
       </c>
       <c r="AY102" s="13">
-        <v>29319775</v>
+        <v>29222034</v>
       </c>
       <c r="AZ102" s="13">
-        <v>27699967</v>
+        <v>30360870</v>
       </c>
       <c r="BA102" s="13">
-        <v>29539882</v>
+        <v>31274697</v>
       </c>
       <c r="BB102" s="13">
-        <v>30360870</v>
+        <v>32449218</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>60</v>
       </c>
@@ -13648,104 +13648,104 @@
       <c r="V103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X103" s="11" t="s">
-        <v>58</v>
+      <c r="W103" s="11">
+        <v>9524851</v>
+      </c>
+      <c r="X103" s="11">
+        <v>9434698</v>
       </c>
       <c r="Y103" s="11">
-        <v>9524851</v>
+        <v>11414812</v>
       </c>
       <c r="Z103" s="11">
-        <v>9434698</v>
+        <v>16840821</v>
       </c>
       <c r="AA103" s="11">
-        <v>11414812</v>
+        <v>18265756</v>
       </c>
       <c r="AB103" s="11">
-        <v>16840821</v>
+        <v>17754028</v>
       </c>
       <c r="AC103" s="11">
-        <v>18265756</v>
+        <v>19732752</v>
       </c>
       <c r="AD103" s="11">
-        <v>17754028</v>
+        <v>20635759</v>
       </c>
       <c r="AE103" s="11">
-        <v>19732752</v>
+        <v>20751798</v>
       </c>
       <c r="AF103" s="11">
-        <v>20635759</v>
+        <v>21697693</v>
       </c>
       <c r="AG103" s="11">
-        <v>20751798</v>
+        <v>22737982</v>
       </c>
       <c r="AH103" s="11">
-        <v>21697693</v>
+        <v>25450442</v>
       </c>
       <c r="AI103" s="11">
-        <v>22737982</v>
+        <v>28421239</v>
       </c>
       <c r="AJ103" s="11">
-        <v>25450442</v>
+        <v>30582623</v>
       </c>
       <c r="AK103" s="11">
-        <v>28421239</v>
+        <v>31072772</v>
       </c>
       <c r="AL103" s="11">
-        <v>30582623</v>
+        <v>29726523</v>
       </c>
       <c r="AM103" s="11">
-        <v>31072772</v>
+        <v>30690510</v>
       </c>
       <c r="AN103" s="11">
-        <v>29726523</v>
+        <v>29630234</v>
       </c>
       <c r="AO103" s="11">
-        <v>30690510</v>
+        <v>29508828</v>
       </c>
       <c r="AP103" s="11">
-        <v>29630234</v>
+        <v>28554067</v>
       </c>
       <c r="AQ103" s="11">
-        <v>29508828</v>
+        <v>28581335</v>
       </c>
       <c r="AR103" s="11">
-        <v>27368622</v>
+        <v>28043259</v>
       </c>
       <c r="AS103" s="11">
-        <v>28581335</v>
+        <v>28029478</v>
       </c>
       <c r="AT103" s="11">
-        <v>28043259</v>
+        <v>32479015</v>
       </c>
       <c r="AU103" s="11">
-        <v>32546896</v>
+        <v>30888249</v>
       </c>
       <c r="AV103" s="11">
-        <v>32479015</v>
+        <v>27515812</v>
       </c>
       <c r="AW103" s="11">
-        <v>30888249</v>
+        <v>26800207</v>
       </c>
       <c r="AX103" s="11">
-        <v>25023168</v>
+        <v>23166859</v>
       </c>
       <c r="AY103" s="11">
-        <v>26800207</v>
+        <v>24862875</v>
       </c>
       <c r="AZ103" s="11">
-        <v>23166859</v>
+        <v>26881346</v>
       </c>
       <c r="BA103" s="11">
-        <v>27286750</v>
+        <v>25397303</v>
       </c>
       <c r="BB103" s="11">
-        <v>26881346</v>
+        <v>28232778</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>61</v>
       </c>
@@ -13807,104 +13807,104 @@
       <c r="V104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X104" s="13" t="s">
-        <v>58</v>
+      <c r="W104" s="13">
+        <v>7154902</v>
+      </c>
+      <c r="X104" s="13">
+        <v>4008333</v>
       </c>
       <c r="Y104" s="13">
-        <v>7154902</v>
-      </c>
-      <c r="Z104" s="13">
-        <v>4008333</v>
+        <v>3599830</v>
+      </c>
+      <c r="Z104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA104" s="13">
-        <v>3599830</v>
-      </c>
-      <c r="AB104" s="13" t="s">
-        <v>58</v>
+        <v>7201966</v>
+      </c>
+      <c r="AB104" s="13">
+        <v>5924177</v>
       </c>
       <c r="AC104" s="13">
-        <v>7201966</v>
+        <v>21000312</v>
       </c>
       <c r="AD104" s="13">
-        <v>5924177</v>
+        <v>20996405</v>
       </c>
       <c r="AE104" s="13">
-        <v>21000312</v>
+        <v>21000000</v>
       </c>
       <c r="AF104" s="13">
-        <v>20996405</v>
+        <v>21000000</v>
       </c>
       <c r="AG104" s="13">
-        <v>21000000</v>
-      </c>
-      <c r="AH104" s="13">
-        <v>21000000</v>
+        <v>14906863</v>
+      </c>
+      <c r="AH104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI104" s="13">
-        <v>14906863</v>
-      </c>
-      <c r="AJ104" s="13" t="s">
-        <v>58</v>
+        <v>21000604</v>
+      </c>
+      <c r="AJ104" s="13">
+        <v>21007241</v>
       </c>
       <c r="AK104" s="13">
-        <v>21000604</v>
+        <v>18341416</v>
       </c>
       <c r="AL104" s="13">
-        <v>21007241</v>
+        <v>21000022</v>
       </c>
       <c r="AM104" s="13">
-        <v>18341416</v>
+        <v>18844961</v>
       </c>
       <c r="AN104" s="13">
-        <v>21000022</v>
+        <v>16598578</v>
       </c>
       <c r="AO104" s="13">
-        <v>18844961</v>
+        <v>18054537</v>
       </c>
       <c r="AP104" s="13">
-        <v>16598578</v>
+        <v>17270332</v>
       </c>
       <c r="AQ104" s="13">
-        <v>18054537</v>
+        <v>32459815</v>
       </c>
       <c r="AR104" s="13">
-        <v>17270332</v>
+        <v>17149068</v>
       </c>
       <c r="AS104" s="13">
-        <v>32459815</v>
+        <v>20743259</v>
       </c>
       <c r="AT104" s="13">
-        <v>17149068</v>
+        <v>24202288</v>
       </c>
       <c r="AU104" s="13">
-        <v>20743259</v>
+        <v>20870168</v>
       </c>
       <c r="AV104" s="13">
-        <v>24202288</v>
+        <v>21250164</v>
       </c>
       <c r="AW104" s="13">
-        <v>20870168</v>
+        <v>22311535</v>
       </c>
       <c r="AX104" s="13">
-        <v>22424240</v>
+        <v>21173622</v>
       </c>
       <c r="AY104" s="13">
-        <v>22311535</v>
-      </c>
-      <c r="AZ104" s="13">
-        <v>21173622</v>
-      </c>
-      <c r="BA104" s="13">
-        <v>26102089</v>
-      </c>
-      <c r="BB104" s="13" t="s">
-        <v>58</v>
+        <v>21342716</v>
+      </c>
+      <c r="AZ104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB104" s="13">
+        <v>30008515</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>62</v>
       </c>
@@ -13966,104 +13966,104 @@
       <c r="V105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="11" t="s">
-        <v>58</v>
+      <c r="W105" s="11">
+        <v>60578165</v>
+      </c>
+      <c r="X105" s="11">
+        <v>70559053</v>
       </c>
       <c r="Y105" s="11">
-        <v>60578165</v>
+        <v>83895323</v>
       </c>
       <c r="Z105" s="11">
-        <v>70559053</v>
+        <v>96898785</v>
       </c>
       <c r="AA105" s="11">
-        <v>83895323</v>
+        <v>100690123</v>
       </c>
       <c r="AB105" s="11">
-        <v>96898785</v>
+        <v>100697587</v>
       </c>
       <c r="AC105" s="11">
-        <v>100690123</v>
+        <v>103285714</v>
       </c>
       <c r="AD105" s="11">
-        <v>100697587</v>
+        <v>109783343</v>
       </c>
       <c r="AE105" s="11">
-        <v>103285714</v>
+        <v>105386095</v>
       </c>
       <c r="AF105" s="11">
-        <v>109783343</v>
+        <v>107107617</v>
       </c>
       <c r="AG105" s="11">
-        <v>105386095</v>
+        <v>111494722</v>
       </c>
       <c r="AH105" s="11">
-        <v>107107617</v>
+        <v>120205615</v>
       </c>
       <c r="AI105" s="11">
-        <v>111494722</v>
+        <v>130170727</v>
       </c>
       <c r="AJ105" s="11">
-        <v>120205615</v>
+        <v>132445296</v>
       </c>
       <c r="AK105" s="11">
-        <v>130170727</v>
+        <v>132650046</v>
       </c>
       <c r="AL105" s="11">
-        <v>132445296</v>
+        <v>125597637</v>
       </c>
       <c r="AM105" s="11">
-        <v>132650046</v>
+        <v>128045990</v>
       </c>
       <c r="AN105" s="11">
-        <v>125597637</v>
+        <v>135375175</v>
       </c>
       <c r="AO105" s="11">
-        <v>128045990</v>
+        <v>126857987</v>
       </c>
       <c r="AP105" s="11">
-        <v>135375175</v>
+        <v>126584687</v>
       </c>
       <c r="AQ105" s="11">
-        <v>126857987</v>
+        <v>132325763</v>
       </c>
       <c r="AR105" s="11">
-        <v>126584687</v>
+        <v>149732947</v>
       </c>
       <c r="AS105" s="11">
-        <v>132325763</v>
+        <v>155804688</v>
       </c>
       <c r="AT105" s="11">
-        <v>149732947</v>
+        <v>151025301</v>
       </c>
       <c r="AU105" s="11">
-        <v>155736566</v>
+        <v>144612218</v>
       </c>
       <c r="AV105" s="11">
-        <v>151025301</v>
+        <v>136049067</v>
       </c>
       <c r="AW105" s="11">
-        <v>144612218</v>
+        <v>134132262</v>
       </c>
       <c r="AX105" s="11">
-        <v>136049064</v>
+        <v>136205241</v>
       </c>
       <c r="AY105" s="11">
-        <v>134132262</v>
+        <v>141205917</v>
       </c>
       <c r="AZ105" s="11">
-        <v>136205241</v>
+        <v>143069468</v>
       </c>
       <c r="BA105" s="11">
-        <v>141201543</v>
+        <v>140928265</v>
       </c>
       <c r="BB105" s="11">
-        <v>143069468</v>
+        <v>149471971</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>63</v>
       </c>
@@ -14125,104 +14125,104 @@
       <c r="V106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X106" s="13" t="s">
-        <v>58</v>
+      <c r="W106" s="13">
+        <v>29524702</v>
+      </c>
+      <c r="X106" s="13">
+        <v>46041667</v>
       </c>
       <c r="Y106" s="13">
-        <v>29524702</v>
+        <v>37832462</v>
       </c>
       <c r="Z106" s="13">
-        <v>46041667</v>
+        <v>40267450</v>
       </c>
       <c r="AA106" s="13">
-        <v>37832462</v>
+        <v>40402438</v>
       </c>
       <c r="AB106" s="13">
-        <v>40267450</v>
+        <v>50684696</v>
       </c>
       <c r="AC106" s="13">
-        <v>40402438</v>
+        <v>51030624</v>
       </c>
       <c r="AD106" s="13">
-        <v>50684696</v>
+        <v>51968822</v>
       </c>
       <c r="AE106" s="13">
-        <v>51030624</v>
+        <v>61853466</v>
       </c>
       <c r="AF106" s="13">
-        <v>51968822</v>
+        <v>67508947</v>
       </c>
       <c r="AG106" s="13">
-        <v>61853466</v>
+        <v>68040353</v>
       </c>
       <c r="AH106" s="13">
-        <v>67508947</v>
+        <v>72566191</v>
       </c>
       <c r="AI106" s="13">
-        <v>68040353</v>
+        <v>80152215</v>
       </c>
       <c r="AJ106" s="13">
-        <v>72566191</v>
+        <v>76484013</v>
       </c>
       <c r="AK106" s="13">
-        <v>80152215</v>
+        <v>82405311</v>
       </c>
       <c r="AL106" s="13">
-        <v>76484013</v>
+        <v>80519799</v>
       </c>
       <c r="AM106" s="13">
-        <v>82405311</v>
+        <v>78558085</v>
       </c>
       <c r="AN106" s="13">
-        <v>80519799</v>
+        <v>79598813</v>
       </c>
       <c r="AO106" s="13">
-        <v>78558085</v>
-      </c>
-      <c r="AP106" s="13">
-        <v>79598813</v>
-      </c>
-      <c r="AQ106" s="13">
         <v>82891618</v>
       </c>
-      <c r="AR106" s="13">
-        <v>-56599</v>
-      </c>
-      <c r="AS106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU106" s="13">
-        <v>93980714</v>
-      </c>
-      <c r="AV106" s="13">
+      <c r="AP106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS106" s="13">
+        <v>84092134</v>
+      </c>
+      <c r="AT106" s="13">
         <v>93964884</v>
       </c>
+      <c r="AU106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AW106" s="13">
-        <v>0</v>
+        <v>75773167</v>
       </c>
       <c r="AX106" s="13">
-        <v>0</v>
+        <v>74035198</v>
       </c>
       <c r="AY106" s="13">
-        <v>75773167</v>
+        <v>74163034</v>
       </c>
       <c r="AZ106" s="13">
-        <v>74035198</v>
-      </c>
-      <c r="BA106" s="13">
-        <v>75407902</v>
-      </c>
-      <c r="BB106" s="13">
         <v>74473518</v>
       </c>
+      <c r="BA106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB106" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>64</v>
       </c>
@@ -14284,11 +14284,11 @@
       <c r="V107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X107" s="11" t="s">
-        <v>58</v>
+      <c r="W107" s="11">
+        <v>0</v>
+      </c>
+      <c r="X107" s="11">
+        <v>0</v>
       </c>
       <c r="Y107" s="11">
         <v>0</v>
@@ -14344,32 +14344,32 @@
       <c r="AP107" s="11">
         <v>0</v>
       </c>
-      <c r="AQ107" s="11">
-        <v>0</v>
+      <c r="AQ107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR107" s="11">
         <v>0</v>
       </c>
-      <c r="AS107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT107" s="11">
-        <v>0</v>
+      <c r="AS107" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU107" s="11">
         <v>0</v>
       </c>
-      <c r="AV107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW107" s="11">
-        <v>0</v>
+      <c r="AV107" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX107" s="11">
         <v>0</v>
       </c>
-      <c r="AY107" s="11" t="s">
-        <v>58</v>
+      <c r="AY107" s="11">
+        <v>0</v>
       </c>
       <c r="AZ107" s="11">
         <v>0</v>
@@ -14381,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>66</v>
       </c>
@@ -14443,11 +14443,11 @@
       <c r="V108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X108" s="13" t="s">
-        <v>58</v>
+      <c r="W108" s="13">
+        <v>0</v>
+      </c>
+      <c r="X108" s="13">
+        <v>0</v>
       </c>
       <c r="Y108" s="13">
         <v>0</v>
@@ -14503,32 +14503,32 @@
       <c r="AP108" s="13">
         <v>0</v>
       </c>
-      <c r="AQ108" s="13">
-        <v>0</v>
+      <c r="AQ108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR108" s="13">
         <v>0</v>
       </c>
-      <c r="AS108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT108" s="13">
-        <v>0</v>
+      <c r="AS108" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU108" s="13">
         <v>0</v>
       </c>
-      <c r="AV108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW108" s="13">
-        <v>0</v>
+      <c r="AV108" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX108" s="13">
         <v>0</v>
       </c>
-      <c r="AY108" s="13" t="s">
-        <v>58</v>
+      <c r="AY108" s="13">
+        <v>0</v>
       </c>
       <c r="AZ108" s="13">
         <v>0</v>
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>67</v>
       </c>
@@ -14629,62 +14629,62 @@
       <c r="AE109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH109" s="11">
+      <c r="AF109" s="11">
         <v>12492958</v>
       </c>
+      <c r="AG109" s="11">
+        <v>12500036</v>
+      </c>
+      <c r="AH109" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI109" s="11">
-        <v>12500036</v>
+        <v>12500055</v>
       </c>
       <c r="AJ109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK109" s="11">
-        <v>12500055</v>
+      <c r="AK109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM109" s="11" t="s">
-        <v>58</v>
+      <c r="AM109" s="11">
+        <v>12501294</v>
       </c>
       <c r="AN109" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO109" s="11">
-        <v>12501294</v>
-      </c>
-      <c r="AP109" s="11" t="s">
-        <v>58</v>
+        <v>14506472</v>
+      </c>
+      <c r="AP109" s="11">
+        <v>14500918</v>
       </c>
       <c r="AQ109" s="11">
-        <v>14506472</v>
+        <v>12071429</v>
       </c>
       <c r="AR109" s="11">
-        <v>14500703</v>
+        <v>16396436</v>
       </c>
       <c r="AS109" s="11">
-        <v>12071429</v>
+        <v>12500000</v>
       </c>
       <c r="AT109" s="11">
-        <v>16396436</v>
-      </c>
-      <c r="AU109" s="11">
-        <v>12870859</v>
+        <v>21481618</v>
+      </c>
+      <c r="AU109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV109" s="11">
-        <v>21481618</v>
-      </c>
-      <c r="AW109" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX109" s="11">
-        <v>16468285</v>
+        <v>12476861</v>
+      </c>
+      <c r="AW109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY109" s="11" t="s">
         <v>58</v>
@@ -14692,14 +14692,14 @@
       <c r="AZ109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA109" s="11">
-        <v>0</v>
+      <c r="BA109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB109" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>68</v>
       </c>
@@ -14767,14 +14767,14 @@
       <c r="X110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y110" s="13" t="s">
-        <v>58</v>
+      <c r="Y110" s="13">
+        <v>667728</v>
       </c>
       <c r="Z110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA110" s="13">
-        <v>667728</v>
+      <c r="AA110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB110" s="13" t="s">
         <v>58</v>
@@ -14785,14 +14785,14 @@
       <c r="AD110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE110" s="13" t="s">
-        <v>58</v>
+      <c r="AE110" s="13">
+        <v>499872</v>
       </c>
       <c r="AF110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG110" s="13">
-        <v>499872</v>
+      <c r="AG110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH110" s="13" t="s">
         <v>58</v>
@@ -14815,50 +14815,50 @@
       <c r="AN110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP110" s="13" t="s">
-        <v>58</v>
+      <c r="AO110" s="13">
+        <v>698932</v>
+      </c>
+      <c r="AP110" s="13">
+        <v>721723</v>
       </c>
       <c r="AQ110" s="13">
-        <v>698932</v>
-      </c>
-      <c r="AR110" s="13">
-        <v>948563</v>
-      </c>
-      <c r="AS110" s="13">
         <v>85098</v>
       </c>
-      <c r="AT110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU110" s="13">
-        <v>0</v>
+      <c r="AR110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT110" s="13">
+        <v>1294757</v>
+      </c>
+      <c r="AU110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV110" s="13">
-        <v>1294757</v>
+        <v>1112207</v>
       </c>
       <c r="AW110" s="13">
-        <v>4230</v>
-      </c>
-      <c r="AX110" s="13">
-        <v>1806029</v>
+        <v>1331123</v>
+      </c>
+      <c r="AX110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY110" s="13">
-        <v>1331123</v>
-      </c>
-      <c r="AZ110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA110" s="13">
         <v>1270863</v>
       </c>
+      <c r="AZ110" s="13">
+        <v>1048458</v>
+      </c>
+      <c r="BA110" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="BB110" s="13">
-        <v>1048458</v>
+        <v>749156</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>95</v>
       </c>
@@ -14915,7 +14915,7 @@
       <c r="BA111" s="9"/>
       <c r="BB111" s="9"/>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>62</v>
       </c>
@@ -14986,95 +14986,95 @@
       <c r="Y112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z112" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA112" s="11" t="s">
-        <v>58</v>
+      <c r="Z112" s="11">
+        <v>91450601</v>
+      </c>
+      <c r="AA112" s="11">
+        <v>102879560</v>
       </c>
       <c r="AB112" s="11">
-        <v>91450601</v>
+        <v>108301514</v>
       </c>
       <c r="AC112" s="11">
-        <v>102879560</v>
+        <v>112396067</v>
       </c>
       <c r="AD112" s="11">
-        <v>108301514</v>
+        <v>120452135</v>
       </c>
       <c r="AE112" s="11">
-        <v>112396067</v>
+        <v>125254251</v>
       </c>
       <c r="AF112" s="11">
-        <v>120452135</v>
-      </c>
-      <c r="AG112" s="11">
-        <v>125254251</v>
+        <v>123143000</v>
+      </c>
+      <c r="AG112" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH112" s="11">
-        <v>123143000</v>
-      </c>
-      <c r="AI112" s="11" t="s">
-        <v>58</v>
+        <v>122700890</v>
+      </c>
+      <c r="AI112" s="11">
+        <v>124851283</v>
       </c>
       <c r="AJ112" s="11">
-        <v>122700890</v>
-      </c>
-      <c r="AK112" s="11">
-        <v>124851283</v>
+        <v>128122154</v>
+      </c>
+      <c r="AK112" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL112" s="11">
-        <v>128122154</v>
-      </c>
-      <c r="AM112" s="11" t="s">
-        <v>58</v>
+        <v>132321856</v>
+      </c>
+      <c r="AM112" s="11">
+        <v>147437676</v>
       </c>
       <c r="AN112" s="11">
-        <v>132321856</v>
+        <v>146980658</v>
       </c>
       <c r="AO112" s="11">
-        <v>147437676</v>
+        <v>137248032</v>
       </c>
       <c r="AP112" s="11">
-        <v>146980658</v>
+        <v>137688727</v>
       </c>
       <c r="AQ112" s="11">
-        <v>137248032</v>
+        <v>135765518</v>
       </c>
       <c r="AR112" s="11">
-        <v>137688727</v>
+        <v>122763371</v>
       </c>
       <c r="AS112" s="11">
-        <v>135765518</v>
+        <v>158655349</v>
       </c>
       <c r="AT112" s="11">
-        <v>122763371</v>
+        <v>160246431</v>
       </c>
       <c r="AU112" s="11">
-        <v>158655349</v>
-      </c>
-      <c r="AV112" s="11">
-        <v>160246431</v>
-      </c>
-      <c r="AW112" s="11">
         <v>169406412</v>
       </c>
+      <c r="AV112" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW112" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX112" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY112" s="11" t="s">
-        <v>58</v>
+        <v>126405814</v>
+      </c>
+      <c r="AY112" s="11">
+        <v>123454895</v>
       </c>
       <c r="AZ112" s="11">
-        <v>126405814</v>
+        <v>126758541</v>
       </c>
       <c r="BA112" s="11">
-        <v>123454895</v>
+        <v>144690665</v>
       </c>
       <c r="BB112" s="11">
-        <v>126758541</v>
+        <v>134993012</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>96</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="BA113" s="9"/>
       <c r="BB113" s="9"/>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>65</v>
       </c>
@@ -15253,14 +15253,14 @@
       <c r="AP114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ114" s="11" t="s">
-        <v>58</v>
+      <c r="AQ114" s="11">
+        <v>0</v>
       </c>
       <c r="AR114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS114" s="11">
-        <v>0</v>
+      <c r="AS114" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT114" s="11" t="s">
         <v>58</v>
